--- a/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(トーク詳細画面) .xlsx
+++ b/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(トーク詳細画面) .xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'画面仕様(トークテーマ詳細画面)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(トークテーマ詳細画面)'!$A$1:$BV$62</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(トークテーマ詳細画面)'!$A$1:$BV$80</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面仕様(トークテーマ詳細画面)'!$1:$4</definedName>
     <definedName name="改訂者">変更履歴!$E$5:$E$25</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="127">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -263,10 +263,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>0.0.1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>柴</t>
     <rPh sb="0" eb="1">
       <t>シバ</t>
@@ -446,10 +442,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>あなたにオススメのトークテーマ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>【サンプル】トークテーマのタイトル</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -692,6 +684,326 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>ツウチスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントを書く</t>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>あなたにオススメのトークテーマ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>共有</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントコメント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント日時</t>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>共有ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>共有ボタンを表示する</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリックするとSNSへの共有画面へを表示する</t>
+    <rPh sb="12" eb="14">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>●画面項目定義（コメントエリア）</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント入力フォーム</t>
+    <rPh sb="4" eb="6">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント投稿ボタン</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーアイコン</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントの入力欄</t>
+    <rPh sb="5" eb="7">
+      <t>ニュウリョクラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>クリックするとコメントを投稿する</t>
+    <rPh sb="12" eb="14">
+      <t>トウコウスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントを投稿したユーザーのアイコンを表示する</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウシタ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントを投稿したユーザーのユーザー名を表示する</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウシタ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントを投稿した日時を表示する</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウシタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニチジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジスｒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントの内容を表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント欄が空欄の場合は非活性</t>
+    <rPh sb="4" eb="5">
+      <t>ランガ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クウランノ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイハ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒカッセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>yyyy/MM/dd HH:mm形式</t>
+    <rPh sb="16" eb="18">
+      <t>ケイシキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>共有ボタンを押下</t>
+    <rPh sb="0" eb="2">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SNSへの共有画面を表示する</t>
+    <rPh sb="5" eb="7">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメンヲ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジスウｒ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント投稿ボタンを押下</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメントを投稿する。投稿したコメントをコメント欄のトップに表示しサーバーに通知する</t>
+    <rPh sb="5" eb="7">
+      <t>トウコウスル</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>トウコウシタ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ランノ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジシ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ツウチスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント欄に文字を入力する</t>
+    <rPh sb="4" eb="5">
+      <t>ランニ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョクスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コメント投稿ボタンを活性化する</t>
+    <rPh sb="4" eb="6">
+      <t>トウコウボタンヲ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>カッセイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.0</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面仕様(トークテーマ詳細画面)
+・共有ボタンを追加
+・コメントエリアを追加</t>
+    <rPh sb="18" eb="20">
+      <t>キョウユウボタンノ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -706,7 +1018,7 @@
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,8 +1191,39 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,8 +1266,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1064,8 +1419,125 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -1073,8 +1545,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1285,9 +1759,108 @@
     <xf numFmtId="14" fontId="17" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1301,6 +1874,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,152 +1942,79 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="4" borderId="14" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="1"/>
     <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1495,7 +2055,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1514,7 +2074,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1579,7 +2139,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1644,7 +2204,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1709,7 +2269,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1774,7 +2334,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1839,7 +2399,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1904,7 +2464,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1976,7 +2536,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2048,7 +2608,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2120,7 +2680,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2192,7 +2752,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2246,7 +2806,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2018年10月7日日曜日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2264,7 +2824,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2318,7 +2878,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2374,16 +2934,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2392,7 +2952,131 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14516100" y="9715500"/>
+          <a:off x="3924300" y="7213900"/>
+          <a:ext cx="482600" cy="482300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="円/楕円 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="7696500"/>
+          <a:ext cx="482600" cy="482300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="円/楕円 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14325600" y="10363200"/>
           <a:ext cx="723900" cy="723900"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2780,30 +3464,30 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="109"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="109"/>
+      <c r="K13" s="109"/>
+      <c r="L13" s="109"/>
+      <c r="M13" s="109"/>
+      <c r="N13" s="109"/>
+      <c r="O13" s="109"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="109"/>
+      <c r="R13" s="109"/>
+      <c r="S13" s="109"/>
+      <c r="T13" s="109"/>
+      <c r="U13" s="109"/>
+      <c r="V13" s="109"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="109"/>
+      <c r="Y13" s="109"/>
+      <c r="Z13" s="109"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -2863,33 +3547,33 @@
       </c>
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AO27" s="73">
+      <c r="AO27" s="106">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43373</v>
-      </c>
-      <c r="AP27" s="74"/>
-      <c r="AQ27" s="74"/>
-      <c r="AR27" s="74"/>
-      <c r="AS27" s="74"/>
-      <c r="AT27" s="74"/>
-      <c r="AU27" s="74"/>
-      <c r="AV27" s="74"/>
-      <c r="AW27" s="74"/>
-      <c r="AX27" s="74"/>
-      <c r="AY27" s="74"/>
+        <v>43380</v>
+      </c>
+      <c r="AP27" s="107"/>
+      <c r="AQ27" s="107"/>
+      <c r="AR27" s="107"/>
+      <c r="AS27" s="107"/>
+      <c r="AT27" s="107"/>
+      <c r="AU27" s="107"/>
+      <c r="AV27" s="107"/>
+      <c r="AW27" s="107"/>
+      <c r="AX27" s="107"/>
+      <c r="AY27" s="107"/>
     </row>
     <row r="28" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AR28" s="75" t="str">
+      <c r="AR28" s="108" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>0.0.1</v>
-      </c>
-      <c r="AS28" s="75"/>
-      <c r="AT28" s="75"/>
-      <c r="AU28" s="75"/>
-      <c r="AV28" s="75"/>
-      <c r="AW28" s="75"/>
-      <c r="AX28" s="75"/>
-      <c r="AY28" s="75"/>
+        <v>1.0.1</v>
+      </c>
+      <c r="AS28" s="108"/>
+      <c r="AT28" s="108"/>
+      <c r="AU28" s="108"/>
+      <c r="AV28" s="108"/>
+      <c r="AW28" s="108"/>
+      <c r="AX28" s="108"/>
+      <c r="AY28" s="108"/>
     </row>
     <row r="31" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AR31" s="6"/>
@@ -2948,23 +3632,31 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="36" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="9">
         <v>43373</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="57" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43380</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
@@ -3092,7 +3784,7 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:EK62"/>
+  <dimension ref="B1:EK83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
@@ -3131,7 +3823,7 @@
     </row>
     <row r="3" spans="2:141" x14ac:dyDescent="0.35">
       <c r="BX3" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BY3" s="13" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
@@ -3141,10 +3833,14 @@
         <v>43373</v>
       </c>
       <c r="CA3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="CB3" s="14">
+        <v>43380</v>
+      </c>
+      <c r="CC3" s="13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="2:141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:141" x14ac:dyDescent="0.25">
@@ -3238,7 +3934,7 @@
       <c r="B8" s="15"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19"/>
@@ -3669,13 +4365,13 @@
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
       <c r="H15" s="57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I15" s="52"/>
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
       <c r="L15" s="57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
@@ -3725,7 +4421,7 @@
       <c r="BF15" s="27"/>
       <c r="BG15" s="27"/>
       <c r="BH15" s="58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BI15" s="59"/>
       <c r="BJ15" s="59"/>
@@ -3735,11 +4431,11 @@
       <c r="BN15" s="59"/>
       <c r="BO15" s="60"/>
       <c r="BP15" s="27"/>
-      <c r="BQ15" s="94" t="s">
-        <v>33</v>
-      </c>
-      <c r="BR15" s="95"/>
-      <c r="BS15" s="96"/>
+      <c r="BQ15" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="BR15" s="123"/>
+      <c r="BS15" s="124"/>
       <c r="BT15" s="53"/>
       <c r="BU15" s="20"/>
       <c r="EE15" s="19"/>
@@ -3930,72 +4626,72 @@
     <row r="19" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C19" s="24"/>
       <c r="D19" s="67"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
-      <c r="N19" s="103"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="84"/>
       <c r="O19" s="67"/>
       <c r="P19" s="67"/>
-      <c r="Q19" s="98"/>
-      <c r="R19" s="99"/>
-      <c r="S19" s="99"/>
-      <c r="T19" s="99"/>
-      <c r="U19" s="99"/>
-      <c r="V19" s="99"/>
-      <c r="W19" s="99"/>
-      <c r="X19" s="99"/>
-      <c r="Y19" s="99"/>
-      <c r="Z19" s="99"/>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="99"/>
-      <c r="AD19" s="99"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="99"/>
-      <c r="AG19" s="99"/>
-      <c r="AH19" s="99"/>
-      <c r="AI19" s="99"/>
-      <c r="AJ19" s="99"/>
-      <c r="AK19" s="99"/>
-      <c r="AL19" s="99"/>
-      <c r="AM19" s="99"/>
-      <c r="AN19" s="99"/>
-      <c r="AO19" s="99"/>
-      <c r="AP19" s="99"/>
-      <c r="AQ19" s="99"/>
-      <c r="AR19" s="99"/>
-      <c r="AS19" s="99"/>
-      <c r="AT19" s="99"/>
-      <c r="AU19" s="99"/>
-      <c r="AV19" s="99"/>
-      <c r="AW19" s="99"/>
-      <c r="AX19" s="99"/>
-      <c r="AY19" s="99"/>
-      <c r="AZ19" s="99"/>
-      <c r="BA19" s="99"/>
-      <c r="BB19" s="99"/>
-      <c r="BC19" s="99"/>
-      <c r="BD19" s="99"/>
-      <c r="BE19" s="99"/>
-      <c r="BF19" s="99"/>
-      <c r="BG19" s="103"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="80"/>
+      <c r="W19" s="80"/>
+      <c r="X19" s="80"/>
+      <c r="Y19" s="80"/>
+      <c r="Z19" s="80"/>
+      <c r="AA19" s="80"/>
+      <c r="AB19" s="80"/>
+      <c r="AC19" s="80"/>
+      <c r="AD19" s="80"/>
+      <c r="AE19" s="80"/>
+      <c r="AF19" s="80"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="80"/>
+      <c r="AI19" s="80"/>
+      <c r="AJ19" s="80"/>
+      <c r="AK19" s="80"/>
+      <c r="AL19" s="80"/>
+      <c r="AM19" s="80"/>
+      <c r="AN19" s="80"/>
+      <c r="AO19" s="80"/>
+      <c r="AP19" s="80"/>
+      <c r="AQ19" s="80"/>
+      <c r="AR19" s="80"/>
+      <c r="AS19" s="80"/>
+      <c r="AT19" s="80"/>
+      <c r="AU19" s="80"/>
+      <c r="AV19" s="80"/>
+      <c r="AW19" s="80"/>
+      <c r="AX19" s="80"/>
+      <c r="AY19" s="80"/>
+      <c r="AZ19" s="80"/>
+      <c r="BA19" s="80"/>
+      <c r="BB19" s="80"/>
+      <c r="BC19" s="80"/>
+      <c r="BD19" s="80"/>
+      <c r="BE19" s="80"/>
+      <c r="BF19" s="80"/>
+      <c r="BG19" s="84"/>
       <c r="BI19" s="67"/>
-      <c r="BJ19" s="98"/>
-      <c r="BK19" s="99"/>
-      <c r="BL19" s="99"/>
-      <c r="BM19" s="99"/>
-      <c r="BN19" s="99"/>
-      <c r="BO19" s="99"/>
-      <c r="BP19" s="99"/>
-      <c r="BQ19" s="99"/>
-      <c r="BR19" s="99"/>
-      <c r="BS19" s="103"/>
+      <c r="BJ19" s="141"/>
+      <c r="BK19" s="142"/>
+      <c r="BL19" s="142"/>
+      <c r="BM19" s="142"/>
+      <c r="BN19" s="142"/>
+      <c r="BO19" s="142"/>
+      <c r="BP19" s="142"/>
+      <c r="BQ19" s="142"/>
+      <c r="BR19" s="142"/>
+      <c r="BS19" s="143"/>
       <c r="BU19" s="20"/>
       <c r="EE19" s="19"/>
       <c r="EF19" s="19"/>
@@ -4008,7 +4704,7 @@
     <row r="20" spans="3:141" ht="23" x14ac:dyDescent="0.25">
       <c r="C20" s="24"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="100"/>
+      <c r="E20" s="81"/>
       <c r="F20" s="67"/>
       <c r="G20" s="67"/>
       <c r="H20" s="67"/>
@@ -4017,13 +4713,13 @@
       <c r="K20" s="67"/>
       <c r="L20" s="67"/>
       <c r="M20" s="67"/>
-      <c r="N20" s="104"/>
+      <c r="N20" s="85"/>
       <c r="O20" s="67"/>
       <c r="P20" s="70"/>
-      <c r="Q20" s="100"/>
+      <c r="Q20" s="81"/>
       <c r="R20" s="67"/>
-      <c r="S20" s="126" t="s">
-        <v>57</v>
+      <c r="S20" s="105" t="s">
+        <v>55</v>
       </c>
       <c r="T20" s="67"/>
       <c r="U20" s="67"/>
@@ -4063,9 +4759,9 @@
       <c r="BD20" s="67"/>
       <c r="BE20" s="67"/>
       <c r="BF20" s="67"/>
-      <c r="BG20" s="104"/>
+      <c r="BG20" s="85"/>
       <c r="BI20" s="67"/>
-      <c r="BJ20" s="100"/>
+      <c r="BJ20" s="144"/>
       <c r="BK20" s="67"/>
       <c r="BL20" s="67"/>
       <c r="BM20" s="67"/>
@@ -4074,7 +4770,7 @@
       <c r="BP20" s="67"/>
       <c r="BQ20" s="67"/>
       <c r="BR20" s="67"/>
-      <c r="BS20" s="104"/>
+      <c r="BS20" s="145"/>
       <c r="BU20" s="20"/>
       <c r="EE20" s="19"/>
       <c r="EF20" s="19"/>
@@ -4087,7 +4783,7 @@
     <row r="21" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C21" s="24"/>
       <c r="D21" s="67"/>
-      <c r="E21" s="100"/>
+      <c r="E21" s="81"/>
       <c r="F21" s="69"/>
       <c r="G21" s="67"/>
       <c r="H21" s="67"/>
@@ -4096,10 +4792,10 @@
       <c r="K21" s="67"/>
       <c r="L21" s="67"/>
       <c r="M21" s="67"/>
-      <c r="N21" s="104"/>
+      <c r="N21" s="85"/>
       <c r="O21" s="67"/>
       <c r="P21" s="67"/>
-      <c r="Q21" s="100"/>
+      <c r="Q21" s="81"/>
       <c r="AH21" s="67"/>
       <c r="AI21" s="67"/>
       <c r="AJ21" s="67"/>
@@ -4125,9 +4821,9 @@
       <c r="BD21" s="67"/>
       <c r="BE21" s="67"/>
       <c r="BF21" s="67"/>
-      <c r="BG21" s="104"/>
+      <c r="BG21" s="85"/>
       <c r="BI21" s="67"/>
-      <c r="BJ21" s="100"/>
+      <c r="BJ21" s="144"/>
       <c r="BK21" s="69"/>
       <c r="BL21" s="67"/>
       <c r="BM21" s="67"/>
@@ -4136,7 +4832,7 @@
       <c r="BP21" s="67"/>
       <c r="BQ21" s="67"/>
       <c r="BR21" s="67"/>
-      <c r="BS21" s="104"/>
+      <c r="BS21" s="145"/>
       <c r="BU21" s="20"/>
       <c r="EE21" s="19"/>
       <c r="EF21" s="19"/>
@@ -4149,10 +4845,10 @@
     <row r="22" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C22" s="24"/>
       <c r="D22" s="67"/>
-      <c r="E22" s="100"/>
+      <c r="E22" s="81"/>
       <c r="F22" s="69"/>
       <c r="G22" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="67"/>
       <c r="I22" s="67"/>
@@ -4160,23 +4856,23 @@
       <c r="K22" s="67"/>
       <c r="L22" s="67"/>
       <c r="M22" s="67"/>
-      <c r="N22" s="104"/>
+      <c r="N22" s="85"/>
       <c r="O22" s="67"/>
       <c r="P22" s="67"/>
-      <c r="Q22" s="100"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="99"/>
-      <c r="U22" s="99"/>
-      <c r="V22" s="99"/>
-      <c r="W22" s="99"/>
-      <c r="X22" s="99"/>
-      <c r="Y22" s="99"/>
-      <c r="Z22" s="103"/>
+      <c r="Q22" s="81"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="84"/>
       <c r="AA22" s="67"/>
       <c r="AB22" s="67"/>
       <c r="AC22" s="67"/>
       <c r="AD22" s="67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF22" s="67"/>
       <c r="AG22" s="67"/>
@@ -4205,12 +4901,12 @@
       <c r="BD22" s="67"/>
       <c r="BE22" s="67"/>
       <c r="BF22" s="67"/>
-      <c r="BG22" s="104"/>
+      <c r="BG22" s="85"/>
       <c r="BI22" s="67"/>
-      <c r="BJ22" s="100"/>
+      <c r="BJ22" s="144"/>
       <c r="BK22" s="69"/>
       <c r="BL22" s="67" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BM22" s="67"/>
       <c r="BN22" s="67"/>
@@ -4218,7 +4914,7 @@
       <c r="BP22" s="67"/>
       <c r="BQ22" s="67"/>
       <c r="BR22" s="67"/>
-      <c r="BS22" s="104"/>
+      <c r="BS22" s="145"/>
       <c r="BU22" s="20"/>
       <c r="EE22" s="19"/>
       <c r="EF22" s="19"/>
@@ -4231,7 +4927,7 @@
     <row r="23" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C23" s="24"/>
       <c r="D23" s="67"/>
-      <c r="E23" s="100"/>
+      <c r="E23" s="81"/>
       <c r="F23" s="69"/>
       <c r="G23" s="67"/>
       <c r="H23" s="67"/>
@@ -4240,26 +4936,26 @@
       <c r="K23" s="67"/>
       <c r="L23" s="67"/>
       <c r="M23" s="67"/>
-      <c r="N23" s="104"/>
+      <c r="N23" s="85"/>
       <c r="O23" s="67"/>
       <c r="P23" s="67"/>
-      <c r="Q23" s="100"/>
+      <c r="Q23" s="81"/>
       <c r="R23" s="67"/>
-      <c r="S23" s="100"/>
+      <c r="S23" s="81"/>
       <c r="T23" s="67"/>
       <c r="U23" s="67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="V23" s="67"/>
       <c r="W23" s="67"/>
       <c r="X23" s="67"/>
       <c r="Y23" s="67"/>
-      <c r="Z23" s="104"/>
+      <c r="Z23" s="85"/>
       <c r="AA23" s="67"/>
       <c r="AB23" s="67"/>
       <c r="AC23" s="67"/>
       <c r="AD23" s="67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF23" s="67"/>
       <c r="AG23" s="67"/>
@@ -4288,9 +4984,9 @@
       <c r="BD23" s="67"/>
       <c r="BE23" s="67"/>
       <c r="BF23" s="67"/>
-      <c r="BG23" s="104"/>
+      <c r="BG23" s="85"/>
       <c r="BI23" s="67"/>
-      <c r="BJ23" s="100"/>
+      <c r="BJ23" s="144"/>
       <c r="BK23" s="69"/>
       <c r="BL23" s="67"/>
       <c r="BM23" s="67"/>
@@ -4299,7 +4995,7 @@
       <c r="BP23" s="67"/>
       <c r="BQ23" s="67"/>
       <c r="BR23" s="67"/>
-      <c r="BS23" s="104"/>
+      <c r="BS23" s="145"/>
       <c r="BU23" s="19"/>
       <c r="BV23" s="18"/>
       <c r="BW23" s="19"/>
@@ -4314,7 +5010,7 @@
     <row r="24" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C24" s="24"/>
       <c r="D24" s="67"/>
-      <c r="E24" s="100"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="69"/>
       <c r="G24" s="67"/>
       <c r="H24" s="67"/>
@@ -4323,23 +5019,25 @@
       <c r="K24" s="67"/>
       <c r="L24" s="67"/>
       <c r="M24" s="67"/>
-      <c r="N24" s="104"/>
+      <c r="N24" s="85"/>
       <c r="O24" s="67"/>
       <c r="P24" s="67"/>
-      <c r="Q24" s="100"/>
+      <c r="Q24" s="81"/>
       <c r="R24" s="67"/>
-      <c r="S24" s="100"/>
+      <c r="S24" s="81"/>
       <c r="T24" s="67"/>
       <c r="U24" s="67"/>
       <c r="V24" s="67"/>
       <c r="W24" s="67"/>
       <c r="X24" s="67"/>
       <c r="Y24" s="67"/>
-      <c r="Z24" s="104"/>
+      <c r="Z24" s="85"/>
       <c r="AA24" s="67"/>
       <c r="AB24" s="67"/>
       <c r="AC24" s="67"/>
-      <c r="AD24" s="67"/>
+      <c r="AD24" s="104" t="s">
+        <v>60</v>
+      </c>
       <c r="AE24" s="67"/>
       <c r="AF24" s="67"/>
       <c r="AG24" s="67"/>
@@ -4368,9 +5066,9 @@
       <c r="BD24" s="67"/>
       <c r="BE24" s="67"/>
       <c r="BF24" s="67"/>
-      <c r="BG24" s="104"/>
+      <c r="BG24" s="85"/>
       <c r="BI24" s="67"/>
-      <c r="BJ24" s="100"/>
+      <c r="BJ24" s="144"/>
       <c r="BK24" s="69"/>
       <c r="BL24" s="67"/>
       <c r="BM24" s="67"/>
@@ -4379,7 +5077,7 @@
       <c r="BP24" s="67"/>
       <c r="BQ24" s="67"/>
       <c r="BR24" s="67"/>
-      <c r="BS24" s="104"/>
+      <c r="BS24" s="145"/>
       <c r="BU24" s="19"/>
       <c r="BV24" s="18"/>
       <c r="BW24" s="19"/>
@@ -4394,7 +5092,7 @@
     <row r="25" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C25" s="24"/>
       <c r="D25" s="67"/>
-      <c r="E25" s="100"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="69"/>
       <c r="G25" s="67"/>
       <c r="H25" s="67"/>
@@ -4403,25 +5101,22 @@
       <c r="K25" s="67"/>
       <c r="L25" s="67"/>
       <c r="M25" s="67"/>
-      <c r="N25" s="104"/>
+      <c r="N25" s="85"/>
       <c r="O25" s="67"/>
       <c r="P25" s="67"/>
-      <c r="Q25" s="100"/>
+      <c r="Q25" s="81"/>
       <c r="R25" s="67"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="101"/>
-      <c r="U25" s="101"/>
-      <c r="V25" s="101"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="101"/>
-      <c r="Y25" s="101"/>
-      <c r="Z25" s="106"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="87"/>
       <c r="AA25" s="67"/>
       <c r="AB25" s="68"/>
       <c r="AC25" s="67"/>
-      <c r="AD25" s="125" t="s">
-        <v>62</v>
-      </c>
       <c r="AE25" s="67"/>
       <c r="AF25" s="67"/>
       <c r="AG25" s="67"/>
@@ -4450,9 +5145,9 @@
       <c r="BD25" s="67"/>
       <c r="BE25" s="67"/>
       <c r="BF25" s="67"/>
-      <c r="BG25" s="104"/>
+      <c r="BG25" s="85"/>
       <c r="BI25" s="67"/>
-      <c r="BJ25" s="100"/>
+      <c r="BJ25" s="144"/>
       <c r="BK25" s="69"/>
       <c r="BL25" s="67"/>
       <c r="BM25" s="67"/>
@@ -4461,7 +5156,7 @@
       <c r="BP25" s="67"/>
       <c r="BQ25" s="67"/>
       <c r="BR25" s="67"/>
-      <c r="BS25" s="104"/>
+      <c r="BS25" s="145"/>
       <c r="BU25" s="19"/>
       <c r="BV25" s="18"/>
       <c r="BW25" s="19"/>
@@ -4473,10 +5168,10 @@
       <c r="EJ25" s="19"/>
       <c r="EK25" s="19"/>
     </row>
-    <row r="26" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:141" ht="23" x14ac:dyDescent="0.25">
       <c r="C26" s="24"/>
       <c r="D26" s="67"/>
-      <c r="E26" s="100"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="67"/>
       <c r="G26" s="67"/>
       <c r="H26" s="67"/>
@@ -4485,35 +5180,40 @@
       <c r="K26" s="67"/>
       <c r="L26" s="67"/>
       <c r="M26" s="67"/>
-      <c r="N26" s="104"/>
+      <c r="N26" s="85"/>
       <c r="O26" s="67"/>
       <c r="P26" s="67"/>
-      <c r="Q26" s="100"/>
+      <c r="Q26" s="81"/>
       <c r="R26" s="67"/>
       <c r="Y26" s="67"/>
       <c r="Z26" s="67"/>
       <c r="AA26" s="67"/>
       <c r="AB26" s="67"/>
       <c r="AC26" s="67"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="67"/>
-      <c r="AG26" s="67"/>
-      <c r="AH26" s="67"/>
-      <c r="AI26" s="67"/>
-      <c r="AJ26" s="67"/>
-      <c r="AK26" s="67"/>
-      <c r="AL26" s="67"/>
-      <c r="AM26" s="67"/>
-      <c r="AN26" s="67"/>
-      <c r="AO26" s="67"/>
+      <c r="AD26" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE26" s="128"/>
+      <c r="AF26" s="128"/>
+      <c r="AG26" s="128"/>
+      <c r="AH26" s="128"/>
+      <c r="AJ26" s="89"/>
+      <c r="AK26" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL26" s="129"/>
+      <c r="AM26" s="129"/>
+      <c r="AN26" s="129"/>
+      <c r="AO26" s="129"/>
       <c r="AP26" s="67"/>
       <c r="AQ26" s="67"/>
-      <c r="AR26" s="67"/>
-      <c r="AS26" s="67"/>
-      <c r="AT26" s="67"/>
-      <c r="AU26" s="67"/>
-      <c r="AV26" s="67"/>
+      <c r="AR26" s="151" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS26" s="149"/>
+      <c r="AT26" s="149"/>
+      <c r="AU26" s="149"/>
+      <c r="AV26" s="149"/>
       <c r="AW26" s="67"/>
       <c r="AX26" s="67"/>
       <c r="AY26" s="67"/>
@@ -4524,9 +5224,9 @@
       <c r="BD26" s="67"/>
       <c r="BE26" s="67"/>
       <c r="BF26" s="67"/>
-      <c r="BG26" s="104"/>
+      <c r="BG26" s="85"/>
       <c r="BI26" s="67"/>
-      <c r="BJ26" s="100"/>
+      <c r="BJ26" s="144"/>
       <c r="BK26" s="67"/>
       <c r="BL26" s="67"/>
       <c r="BM26" s="67"/>
@@ -4535,7 +5235,7 @@
       <c r="BP26" s="67"/>
       <c r="BQ26" s="67"/>
       <c r="BR26" s="67"/>
-      <c r="BS26" s="104"/>
+      <c r="BS26" s="145"/>
       <c r="BU26" s="19"/>
       <c r="BV26" s="18"/>
       <c r="BW26" s="19"/>
@@ -4547,10 +5247,10 @@
       <c r="EJ26" s="19"/>
       <c r="EK26" s="19"/>
     </row>
-    <row r="27" spans="3:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C27" s="24"/>
       <c r="D27" s="67"/>
-      <c r="E27" s="100"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="67"/>
       <c r="G27" s="67"/>
       <c r="H27" s="67"/>
@@ -4559,10 +5259,10 @@
       <c r="K27" s="67"/>
       <c r="L27" s="67"/>
       <c r="M27" s="67"/>
-      <c r="N27" s="104"/>
+      <c r="N27" s="85"/>
       <c r="O27" s="67"/>
       <c r="P27" s="67"/>
-      <c r="Q27" s="100"/>
+      <c r="Q27" s="81"/>
       <c r="R27" s="67"/>
       <c r="S27" s="67"/>
       <c r="T27" s="67"/>
@@ -4575,21 +5275,6 @@
       <c r="AA27" s="67"/>
       <c r="AB27" s="67"/>
       <c r="AC27" s="67"/>
-      <c r="AD27" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE27" s="109"/>
-      <c r="AF27" s="109"/>
-      <c r="AG27" s="109"/>
-      <c r="AH27" s="109"/>
-      <c r="AJ27" s="108"/>
-      <c r="AK27" s="110" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL27" s="110"/>
-      <c r="AM27" s="110"/>
-      <c r="AN27" s="110"/>
-      <c r="AO27" s="110"/>
       <c r="AP27" s="67"/>
       <c r="AQ27" s="67"/>
       <c r="AR27" s="67"/>
@@ -4607,9 +5292,9 @@
       <c r="BD27" s="67"/>
       <c r="BE27" s="67"/>
       <c r="BF27" s="67"/>
-      <c r="BG27" s="104"/>
+      <c r="BG27" s="85"/>
       <c r="BI27" s="67"/>
-      <c r="BJ27" s="100"/>
+      <c r="BJ27" s="144"/>
       <c r="BK27" s="67"/>
       <c r="BL27" s="67"/>
       <c r="BM27" s="67"/>
@@ -4618,7 +5303,7 @@
       <c r="BP27" s="67"/>
       <c r="BQ27" s="67"/>
       <c r="BR27" s="67"/>
-      <c r="BS27" s="104"/>
+      <c r="BS27" s="145"/>
       <c r="BU27" s="20"/>
       <c r="EE27" s="19"/>
       <c r="EF27" s="19"/>
@@ -4631,72 +5316,72 @@
     <row r="28" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C28" s="24"/>
       <c r="D28" s="67"/>
-      <c r="E28" s="100"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="67"/>
       <c r="G28" s="67"/>
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="104"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="85"/>
       <c r="O28" s="67"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="100"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="67"/>
-      <c r="X28" s="67"/>
-      <c r="Y28" s="70"/>
-      <c r="Z28" s="67"/>
-      <c r="AA28" s="67"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="67"/>
-      <c r="AD28" s="67"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="67"/>
-      <c r="AG28" s="67"/>
-      <c r="AH28" s="70"/>
-      <c r="AI28" s="67"/>
-      <c r="AJ28" s="67"/>
-      <c r="AK28" s="71"/>
-      <c r="AL28" s="67"/>
-      <c r="AM28" s="67"/>
-      <c r="AN28" s="67"/>
-      <c r="AO28" s="67"/>
-      <c r="AP28" s="67"/>
-      <c r="AQ28" s="70"/>
-      <c r="AR28" s="67"/>
-      <c r="AS28" s="67"/>
-      <c r="AT28" s="71"/>
-      <c r="AU28" s="67"/>
-      <c r="AV28" s="67"/>
-      <c r="AW28" s="67"/>
-      <c r="AX28" s="67"/>
-      <c r="AY28" s="67"/>
-      <c r="AZ28" s="70"/>
-      <c r="BA28" s="67"/>
-      <c r="BB28" s="67"/>
-      <c r="BC28" s="71"/>
-      <c r="BD28" s="67"/>
-      <c r="BE28" s="67"/>
-      <c r="BF28" s="67"/>
-      <c r="BG28" s="104"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="82"/>
+      <c r="AP28" s="82"/>
+      <c r="AQ28" s="82"/>
+      <c r="AR28" s="82"/>
+      <c r="AS28" s="82"/>
+      <c r="AT28" s="82"/>
+      <c r="AU28" s="82"/>
+      <c r="AV28" s="82"/>
+      <c r="AW28" s="82"/>
+      <c r="AX28" s="82"/>
+      <c r="AY28" s="82"/>
+      <c r="AZ28" s="82"/>
+      <c r="BA28" s="82"/>
+      <c r="BB28" s="82"/>
+      <c r="BC28" s="82"/>
+      <c r="BD28" s="82"/>
+      <c r="BE28" s="82"/>
+      <c r="BF28" s="82"/>
+      <c r="BG28" s="87"/>
       <c r="BI28" s="67"/>
-      <c r="BJ28" s="100"/>
+      <c r="BJ28" s="144"/>
       <c r="BK28" s="67"/>
       <c r="BL28" s="67"/>
       <c r="BM28" s="67"/>
       <c r="BN28" s="67"/>
       <c r="BO28" s="67"/>
-      <c r="BP28" s="67"/>
-      <c r="BQ28" s="67"/>
-      <c r="BR28" s="67"/>
-      <c r="BS28" s="104"/>
+      <c r="BP28" s="78"/>
+      <c r="BQ28" s="78"/>
+      <c r="BR28" s="78"/>
+      <c r="BS28" s="145"/>
       <c r="BU28" s="20"/>
       <c r="EE28" s="19"/>
       <c r="EF28" s="19"/>
@@ -4709,72 +5394,73 @@
     <row r="29" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C29" s="24"/>
       <c r="D29" s="67"/>
-      <c r="E29" s="100"/>
+      <c r="E29" s="81"/>
       <c r="F29" s="67"/>
       <c r="G29" s="67"/>
       <c r="H29" s="67"/>
       <c r="I29" s="67"/>
       <c r="J29" s="67"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="104"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="85"/>
       <c r="O29" s="67"/>
       <c r="P29" s="67"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
-      <c r="U29" s="101"/>
-      <c r="V29" s="101"/>
-      <c r="W29" s="101"/>
-      <c r="X29" s="101"/>
-      <c r="Y29" s="101"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="101"/>
-      <c r="AB29" s="101"/>
-      <c r="AC29" s="101"/>
-      <c r="AD29" s="101"/>
-      <c r="AE29" s="101"/>
-      <c r="AF29" s="101"/>
-      <c r="AG29" s="101"/>
-      <c r="AH29" s="101"/>
-      <c r="AI29" s="101"/>
-      <c r="AJ29" s="101"/>
-      <c r="AK29" s="101"/>
-      <c r="AL29" s="101"/>
-      <c r="AM29" s="101"/>
-      <c r="AN29" s="101"/>
-      <c r="AO29" s="101"/>
-      <c r="AP29" s="101"/>
-      <c r="AQ29" s="101"/>
-      <c r="AR29" s="101"/>
-      <c r="AS29" s="101"/>
-      <c r="AT29" s="101"/>
-      <c r="AU29" s="101"/>
-      <c r="AV29" s="101"/>
-      <c r="AW29" s="101"/>
-      <c r="AX29" s="101"/>
-      <c r="AY29" s="101"/>
-      <c r="AZ29" s="101"/>
-      <c r="BA29" s="101"/>
-      <c r="BB29" s="101"/>
-      <c r="BC29" s="101"/>
-      <c r="BD29" s="101"/>
-      <c r="BE29" s="101"/>
-      <c r="BF29" s="101"/>
-      <c r="BG29" s="106"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="67"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="67"/>
+      <c r="AG29" s="67"/>
+      <c r="AH29" s="67"/>
+      <c r="AI29" s="67"/>
+      <c r="AJ29" s="67"/>
+      <c r="AK29" s="67"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="67"/>
+      <c r="AN29" s="67"/>
+      <c r="AO29" s="67"/>
+      <c r="AP29" s="67"/>
+      <c r="AQ29" s="67"/>
+      <c r="AR29" s="67"/>
+      <c r="AS29" s="67"/>
+      <c r="AT29" s="67"/>
+      <c r="AU29" s="67"/>
+      <c r="AV29" s="67"/>
+      <c r="AW29" s="67"/>
+      <c r="AX29" s="67"/>
+      <c r="AY29" s="67"/>
+      <c r="AZ29" s="67"/>
+      <c r="BA29" s="67"/>
+      <c r="BB29" s="67"/>
+      <c r="BC29" s="67"/>
+      <c r="BD29" s="67"/>
+      <c r="BE29" s="67"/>
+      <c r="BF29" s="67"/>
+      <c r="BG29" s="67"/>
+      <c r="BH29" s="67"/>
       <c r="BI29" s="67"/>
-      <c r="BJ29" s="100"/>
+      <c r="BJ29" s="144"/>
       <c r="BK29" s="67"/>
       <c r="BL29" s="67"/>
       <c r="BM29" s="67"/>
       <c r="BN29" s="67"/>
       <c r="BO29" s="67"/>
-      <c r="BP29" s="72"/>
-      <c r="BQ29" s="72"/>
-      <c r="BR29" s="72"/>
-      <c r="BS29" s="104"/>
+      <c r="BP29" s="67"/>
+      <c r="BQ29" s="67"/>
+      <c r="BR29" s="67"/>
+      <c r="BS29" s="145"/>
       <c r="BU29" s="20"/>
       <c r="EE29" s="19"/>
       <c r="EF29" s="19"/>
@@ -4787,7 +5473,7 @@
     <row r="30" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C30" s="24"/>
       <c r="D30" s="67"/>
-      <c r="E30" s="100"/>
+      <c r="E30" s="81"/>
       <c r="F30" s="67"/>
       <c r="G30" s="67"/>
       <c r="H30" s="67"/>
@@ -4796,47 +5482,39 @@
       <c r="K30" s="67"/>
       <c r="L30" s="67"/>
       <c r="M30" s="67"/>
-      <c r="N30" s="104"/>
+      <c r="N30" s="85"/>
       <c r="O30" s="67"/>
       <c r="P30" s="67"/>
-      <c r="Q30" s="67"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="67"/>
-      <c r="V30" s="67"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="67"/>
-      <c r="Y30" s="67"/>
-      <c r="Z30" s="67"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="67"/>
-      <c r="AG30" s="67"/>
-      <c r="AH30" s="67"/>
-      <c r="AI30" s="67"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="67"/>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="67"/>
-      <c r="AN30" s="67"/>
-      <c r="AO30" s="67"/>
-      <c r="AP30" s="67"/>
-      <c r="AQ30" s="67"/>
-      <c r="AR30" s="67"/>
-      <c r="AS30" s="67"/>
-      <c r="AT30" s="67"/>
-      <c r="AU30" s="67"/>
-      <c r="AV30" s="67"/>
-      <c r="AW30" s="67"/>
-      <c r="AX30" s="67"/>
-      <c r="AY30" s="67"/>
-      <c r="AZ30" s="67"/>
-      <c r="BA30" s="67"/>
-      <c r="BB30" s="67"/>
+      <c r="R30" s="137" t="s">
+        <v>89</v>
+      </c>
+      <c r="S30" s="133"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="133"/>
+      <c r="V30" s="134"/>
+      <c r="W30" s="133"/>
+      <c r="X30" s="133"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="133"/>
+      <c r="AA30" s="133"/>
+      <c r="AB30" s="133"/>
+      <c r="AC30" s="133"/>
+      <c r="AD30" s="133"/>
+      <c r="AE30" s="134"/>
+      <c r="AF30" s="133"/>
+      <c r="AG30" s="133"/>
+      <c r="AH30" s="135"/>
+      <c r="AI30" s="133"/>
+      <c r="AJ30" s="133"/>
+      <c r="AK30" s="133"/>
+      <c r="AL30" s="133"/>
+      <c r="AM30" s="133"/>
+      <c r="AN30" s="136"/>
+      <c r="AP30" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ30" s="139"/>
+      <c r="AR30" s="140"/>
       <c r="BC30" s="67"/>
       <c r="BD30" s="67"/>
       <c r="BE30" s="67"/>
@@ -4844,7 +5522,7 @@
       <c r="BG30" s="67"/>
       <c r="BH30" s="67"/>
       <c r="BI30" s="67"/>
-      <c r="BJ30" s="100"/>
+      <c r="BJ30" s="144"/>
       <c r="BK30" s="67"/>
       <c r="BL30" s="67"/>
       <c r="BM30" s="67"/>
@@ -4853,7 +5531,7 @@
       <c r="BP30" s="67"/>
       <c r="BQ30" s="67"/>
       <c r="BR30" s="67"/>
-      <c r="BS30" s="104"/>
+      <c r="BS30" s="145"/>
       <c r="BU30" s="20"/>
       <c r="EE30" s="19"/>
       <c r="EF30" s="19"/>
@@ -4863,10 +5541,10 @@
       <c r="EJ30" s="19"/>
       <c r="EK30" s="19"/>
     </row>
-    <row r="31" spans="3:141" ht="20" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C31" s="24"/>
       <c r="D31" s="67"/>
-      <c r="E31" s="100"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="67"/>
       <c r="G31" s="67"/>
       <c r="H31" s="67"/>
@@ -4875,57 +5553,17 @@
       <c r="K31" s="67"/>
       <c r="L31" s="67"/>
       <c r="M31" s="67"/>
-      <c r="N31" s="104"/>
+      <c r="N31" s="85"/>
       <c r="O31" s="67"/>
       <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
-      <c r="R31" s="102" t="s">
-        <v>56</v>
-      </c>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="67"/>
-      <c r="V31" s="67"/>
-      <c r="W31" s="67"/>
-      <c r="X31" s="67"/>
-      <c r="Y31" s="67"/>
-      <c r="Z31" s="67"/>
-      <c r="AA31" s="67"/>
-      <c r="AB31" s="67"/>
-      <c r="AC31" s="67"/>
-      <c r="AD31" s="67"/>
-      <c r="AE31" s="67"/>
-      <c r="AF31" s="67"/>
-      <c r="AG31" s="67"/>
-      <c r="AH31" s="67"/>
-      <c r="AI31" s="67"/>
-      <c r="AJ31" s="67"/>
-      <c r="AK31" s="67"/>
-      <c r="AL31" s="67"/>
-      <c r="AM31" s="67"/>
-      <c r="AN31" s="67"/>
-      <c r="AO31" s="67"/>
-      <c r="AP31" s="67"/>
-      <c r="AQ31" s="67"/>
-      <c r="AR31" s="67"/>
-      <c r="AS31" s="67"/>
-      <c r="AT31" s="67"/>
-      <c r="AU31" s="67"/>
-      <c r="AV31" s="67"/>
-      <c r="AW31" s="67"/>
-      <c r="AX31" s="67"/>
-      <c r="AY31" s="67"/>
-      <c r="AZ31" s="67"/>
-      <c r="BA31" s="67"/>
-      <c r="BB31" s="67"/>
-      <c r="BC31" s="67"/>
-      <c r="BD31" s="67"/>
-      <c r="BE31" s="67"/>
-      <c r="BF31" s="67"/>
-      <c r="BG31" s="67"/>
-      <c r="BH31" s="67"/>
+      <c r="BC31" s="91"/>
+      <c r="BD31" s="90"/>
+      <c r="BE31" s="90"/>
+      <c r="BF31" s="90"/>
+      <c r="BG31" s="90"/>
+      <c r="BH31" s="90"/>
       <c r="BI31" s="67"/>
-      <c r="BJ31" s="100"/>
+      <c r="BJ31" s="144"/>
       <c r="BK31" s="67"/>
       <c r="BL31" s="67"/>
       <c r="BM31" s="67"/>
@@ -4934,7 +5572,7 @@
       <c r="BP31" s="67"/>
       <c r="BQ31" s="67"/>
       <c r="BR31" s="67"/>
-      <c r="BS31" s="104"/>
+      <c r="BS31" s="145"/>
       <c r="BU31" s="20"/>
       <c r="EE31" s="19"/>
       <c r="EF31" s="19"/>
@@ -4947,7 +5585,7 @@
     <row r="32" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C32" s="24"/>
       <c r="D32" s="67"/>
-      <c r="E32" s="100"/>
+      <c r="E32" s="81"/>
       <c r="F32" s="67"/>
       <c r="G32" s="67"/>
       <c r="H32" s="67"/>
@@ -4956,55 +5594,24 @@
       <c r="K32" s="67"/>
       <c r="L32" s="67"/>
       <c r="M32" s="67"/>
-      <c r="N32" s="104"/>
+      <c r="N32" s="85"/>
       <c r="O32" s="67"/>
       <c r="P32" s="67"/>
-      <c r="Q32" s="111"/>
-      <c r="R32" s="111"/>
-      <c r="S32" s="112"/>
-      <c r="T32" s="111"/>
-      <c r="U32" s="111"/>
-      <c r="V32" s="111"/>
-      <c r="W32" s="111"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="111"/>
-      <c r="Z32" s="111"/>
-      <c r="AA32" s="111"/>
-      <c r="AB32" s="112"/>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="111"/>
-      <c r="AE32" s="111"/>
-      <c r="AF32" s="111"/>
-      <c r="AG32" s="111"/>
-      <c r="AH32" s="111"/>
-      <c r="AI32" s="111"/>
-      <c r="AJ32" s="111"/>
-      <c r="AK32" s="112"/>
-      <c r="AL32" s="111"/>
-      <c r="AM32" s="111"/>
-      <c r="AN32" s="111"/>
-      <c r="AO32" s="111"/>
-      <c r="AP32" s="111"/>
-      <c r="AQ32" s="111"/>
-      <c r="AR32" s="111"/>
-      <c r="AS32" s="111"/>
-      <c r="AT32" s="112"/>
-      <c r="AU32" s="111"/>
-      <c r="AV32" s="111"/>
-      <c r="AW32" s="111"/>
-      <c r="AX32" s="111"/>
-      <c r="AY32" s="111"/>
-      <c r="AZ32" s="111"/>
-      <c r="BA32" s="111"/>
-      <c r="BB32" s="111"/>
-      <c r="BC32" s="112"/>
-      <c r="BD32" s="111"/>
-      <c r="BE32" s="111"/>
-      <c r="BF32" s="111"/>
-      <c r="BG32" s="111"/>
-      <c r="BH32" s="111"/>
+      <c r="Q32" s="67"/>
+      <c r="V32" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA32" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC32" s="90"/>
+      <c r="BD32" s="90"/>
+      <c r="BE32" s="90"/>
+      <c r="BF32" s="90"/>
+      <c r="BG32" s="90"/>
+      <c r="BH32" s="90"/>
       <c r="BI32" s="67"/>
-      <c r="BJ32" s="100"/>
+      <c r="BJ32" s="144"/>
       <c r="BK32" s="67"/>
       <c r="BL32" s="67"/>
       <c r="BM32" s="67"/>
@@ -5013,7 +5620,7 @@
       <c r="BP32" s="67"/>
       <c r="BQ32" s="67"/>
       <c r="BR32" s="67"/>
-      <c r="BS32" s="104"/>
+      <c r="BS32" s="145"/>
       <c r="BU32" s="20"/>
       <c r="EE32" s="19"/>
       <c r="EF32" s="19"/>
@@ -5023,10 +5630,10 @@
       <c r="EJ32" s="19"/>
       <c r="EK32" s="19"/>
     </row>
-    <row r="33" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C33" s="24"/>
       <c r="D33" s="67"/>
-      <c r="E33" s="100"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="67"/>
       <c r="G33" s="67"/>
       <c r="H33" s="67"/>
@@ -5035,55 +5642,21 @@
       <c r="K33" s="67"/>
       <c r="L33" s="67"/>
       <c r="M33" s="67"/>
-      <c r="N33" s="104"/>
+      <c r="N33" s="85"/>
       <c r="O33" s="67"/>
       <c r="P33" s="67"/>
-      <c r="Q33" s="111"/>
-      <c r="R33" s="111"/>
-      <c r="S33" s="113"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="114"/>
-      <c r="W33" s="114"/>
-      <c r="X33" s="114"/>
-      <c r="Y33" s="115"/>
-      <c r="Z33" s="111"/>
-      <c r="AA33" s="111"/>
-      <c r="AB33" s="113"/>
-      <c r="AC33" s="114"/>
-      <c r="AD33" s="114"/>
-      <c r="AE33" s="114"/>
-      <c r="AF33" s="114"/>
-      <c r="AG33" s="114"/>
-      <c r="AH33" s="115"/>
-      <c r="AI33" s="111"/>
-      <c r="AJ33" s="111"/>
-      <c r="AK33" s="113"/>
-      <c r="AL33" s="114"/>
-      <c r="AM33" s="114"/>
-      <c r="AN33" s="114"/>
-      <c r="AO33" s="114"/>
-      <c r="AP33" s="114"/>
-      <c r="AQ33" s="115"/>
-      <c r="AR33" s="111"/>
-      <c r="AS33" s="111"/>
-      <c r="AT33" s="113"/>
-      <c r="AU33" s="114"/>
-      <c r="AV33" s="114"/>
-      <c r="AW33" s="114"/>
-      <c r="AX33" s="114"/>
-      <c r="AY33" s="114"/>
-      <c r="AZ33" s="115"/>
-      <c r="BA33" s="111"/>
-      <c r="BB33" s="111"/>
-      <c r="BC33" s="111"/>
-      <c r="BD33" s="111"/>
-      <c r="BE33" s="111"/>
-      <c r="BF33" s="111"/>
-      <c r="BG33" s="111"/>
-      <c r="BH33" s="111"/>
+      <c r="Q33" s="90"/>
+      <c r="V33" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC33" s="90"/>
+      <c r="BD33" s="90"/>
+      <c r="BE33" s="90"/>
+      <c r="BF33" s="90"/>
+      <c r="BG33" s="90"/>
+      <c r="BH33" s="90"/>
       <c r="BI33" s="67"/>
-      <c r="BJ33" s="100"/>
+      <c r="BJ33" s="144"/>
       <c r="BK33" s="67"/>
       <c r="BL33" s="67"/>
       <c r="BM33" s="67"/>
@@ -5092,7 +5665,7 @@
       <c r="BP33" s="67"/>
       <c r="BQ33" s="67"/>
       <c r="BR33" s="67"/>
-      <c r="BS33" s="104"/>
+      <c r="BS33" s="145"/>
       <c r="BU33" s="20"/>
       <c r="EE33" s="19"/>
       <c r="EF33" s="19"/>
@@ -5102,10 +5675,10 @@
       <c r="EJ33" s="19"/>
       <c r="EK33" s="19"/>
     </row>
-    <row r="34" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C34" s="24"/>
       <c r="D34" s="67"/>
-      <c r="E34" s="100"/>
+      <c r="E34" s="81"/>
       <c r="F34" s="67"/>
       <c r="G34" s="67"/>
       <c r="H34" s="67"/>
@@ -5114,63 +5687,18 @@
       <c r="K34" s="67"/>
       <c r="L34" s="67"/>
       <c r="M34" s="67"/>
-      <c r="N34" s="104"/>
+      <c r="N34" s="85"/>
       <c r="O34" s="67"/>
       <c r="P34" s="67"/>
-      <c r="Q34" s="111"/>
-      <c r="R34" s="111"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="W34" s="111"/>
-      <c r="X34" s="111"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="111"/>
-      <c r="AA34" s="111"/>
-      <c r="AB34" s="116"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF34" s="111"/>
-      <c r="AG34" s="111"/>
-      <c r="AH34" s="118"/>
-      <c r="AI34" s="111"/>
-      <c r="AJ34" s="111"/>
-      <c r="AK34" s="116"/>
-      <c r="AL34" s="117"/>
-      <c r="AM34" s="117"/>
-      <c r="AN34" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="AO34" s="111"/>
-      <c r="AP34" s="111"/>
-      <c r="AQ34" s="118"/>
-      <c r="AR34" s="111"/>
-      <c r="AS34" s="111"/>
-      <c r="AT34" s="116"/>
-      <c r="AU34" s="117"/>
-      <c r="AV34" s="117"/>
-      <c r="AW34" s="112" t="s">
-        <v>35</v>
-      </c>
-      <c r="AX34" s="111"/>
-      <c r="AY34" s="111"/>
-      <c r="AZ34" s="118"/>
-      <c r="BA34" s="111"/>
-      <c r="BB34" s="111"/>
-      <c r="BC34" s="111"/>
-      <c r="BD34" s="111"/>
-      <c r="BE34" s="111"/>
-      <c r="BF34" s="111"/>
-      <c r="BG34" s="111"/>
-      <c r="BH34" s="111"/>
+      <c r="Q34" s="90"/>
+      <c r="BC34" s="90"/>
+      <c r="BD34" s="90"/>
+      <c r="BE34" s="90"/>
+      <c r="BF34" s="90"/>
+      <c r="BG34" s="90"/>
+      <c r="BH34" s="90"/>
       <c r="BI34" s="67"/>
-      <c r="BJ34" s="100"/>
+      <c r="BJ34" s="144"/>
       <c r="BK34" s="67"/>
       <c r="BL34" s="67"/>
       <c r="BM34" s="67"/>
@@ -5179,7 +5707,7 @@
       <c r="BP34" s="67"/>
       <c r="BQ34" s="67"/>
       <c r="BR34" s="67"/>
-      <c r="BS34" s="104"/>
+      <c r="BS34" s="145"/>
       <c r="BU34" s="20"/>
       <c r="EE34" s="19"/>
       <c r="EF34" s="19"/>
@@ -5189,10 +5717,10 @@
       <c r="EJ34" s="19"/>
       <c r="EK34" s="19"/>
     </row>
-    <row r="35" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C35" s="24"/>
       <c r="D35" s="67"/>
-      <c r="E35" s="100"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="67"/>
       <c r="G35" s="67"/>
       <c r="H35" s="67"/>
@@ -5201,55 +5729,24 @@
       <c r="K35" s="67"/>
       <c r="L35" s="67"/>
       <c r="M35" s="67"/>
-      <c r="N35" s="104"/>
+      <c r="N35" s="85"/>
       <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="111"/>
-      <c r="R35" s="111"/>
-      <c r="S35" s="116"/>
-      <c r="T35" s="111"/>
-      <c r="U35" s="111"/>
-      <c r="V35" s="111"/>
-      <c r="W35" s="111"/>
-      <c r="X35" s="111"/>
-      <c r="Y35" s="118"/>
-      <c r="Z35" s="111"/>
-      <c r="AA35" s="111"/>
-      <c r="AB35" s="116"/>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="111"/>
-      <c r="AE35" s="111"/>
-      <c r="AF35" s="111"/>
-      <c r="AG35" s="111"/>
-      <c r="AH35" s="118"/>
-      <c r="AI35" s="111"/>
-      <c r="AJ35" s="111"/>
-      <c r="AK35" s="116"/>
-      <c r="AL35" s="111"/>
-      <c r="AM35" s="111"/>
-      <c r="AN35" s="111"/>
-      <c r="AO35" s="111"/>
-      <c r="AP35" s="111"/>
-      <c r="AQ35" s="118"/>
-      <c r="AR35" s="111"/>
-      <c r="AS35" s="111"/>
-      <c r="AT35" s="116"/>
-      <c r="AU35" s="111"/>
-      <c r="AV35" s="111"/>
-      <c r="AW35" s="111"/>
-      <c r="AX35" s="111"/>
-      <c r="AY35" s="111"/>
-      <c r="AZ35" s="118"/>
-      <c r="BA35" s="111"/>
-      <c r="BB35" s="111"/>
-      <c r="BC35" s="111"/>
-      <c r="BD35" s="111"/>
-      <c r="BE35" s="111"/>
-      <c r="BF35" s="111"/>
-      <c r="BG35" s="111"/>
-      <c r="BH35" s="111"/>
+      <c r="P35" s="70"/>
+      <c r="Q35" s="67"/>
+      <c r="V35" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA35" s="150" t="s">
+        <v>95</v>
+      </c>
+      <c r="BC35" s="101"/>
+      <c r="BD35" s="90"/>
+      <c r="BE35" s="90"/>
+      <c r="BF35" s="90"/>
+      <c r="BG35" s="90"/>
+      <c r="BH35" s="90"/>
       <c r="BI35" s="67"/>
-      <c r="BJ35" s="100"/>
+      <c r="BJ35" s="144"/>
       <c r="BK35" s="67"/>
       <c r="BL35" s="67"/>
       <c r="BM35" s="67"/>
@@ -5258,7 +5755,7 @@
       <c r="BP35" s="67"/>
       <c r="BQ35" s="67"/>
       <c r="BR35" s="67"/>
-      <c r="BS35" s="104"/>
+      <c r="BS35" s="145"/>
       <c r="BU35" s="20"/>
       <c r="EE35" s="19"/>
       <c r="EF35" s="19"/>
@@ -5268,10 +5765,10 @@
       <c r="EJ35" s="19"/>
       <c r="EK35" s="19"/>
     </row>
-    <row r="36" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C36" s="24"/>
       <c r="D36" s="67"/>
-      <c r="E36" s="100"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="67"/>
       <c r="G36" s="67"/>
       <c r="H36" s="67"/>
@@ -5280,55 +5777,21 @@
       <c r="K36" s="67"/>
       <c r="L36" s="67"/>
       <c r="M36" s="67"/>
-      <c r="N36" s="104"/>
+      <c r="N36" s="85"/>
       <c r="O36" s="67"/>
-      <c r="P36" s="70"/>
-      <c r="Q36" s="111"/>
-      <c r="R36" s="111"/>
-      <c r="S36" s="119"/>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120"/>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120"/>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="121"/>
-      <c r="Z36" s="111"/>
-      <c r="AA36" s="111"/>
-      <c r="AB36" s="119"/>
-      <c r="AC36" s="120"/>
-      <c r="AD36" s="120"/>
-      <c r="AE36" s="120"/>
-      <c r="AF36" s="120"/>
-      <c r="AG36" s="120"/>
-      <c r="AH36" s="121"/>
-      <c r="AI36" s="111"/>
-      <c r="AJ36" s="111"/>
-      <c r="AK36" s="119"/>
-      <c r="AL36" s="120"/>
-      <c r="AM36" s="120"/>
-      <c r="AN36" s="120"/>
-      <c r="AO36" s="120"/>
-      <c r="AP36" s="120"/>
-      <c r="AQ36" s="121"/>
-      <c r="AR36" s="111"/>
-      <c r="AS36" s="111"/>
-      <c r="AT36" s="119"/>
-      <c r="AU36" s="120"/>
-      <c r="AV36" s="120"/>
-      <c r="AW36" s="120"/>
-      <c r="AX36" s="120"/>
-      <c r="AY36" s="120"/>
-      <c r="AZ36" s="121"/>
-      <c r="BA36" s="111"/>
-      <c r="BB36" s="111"/>
-      <c r="BC36" s="122"/>
-      <c r="BD36" s="111"/>
-      <c r="BE36" s="111"/>
-      <c r="BF36" s="111"/>
-      <c r="BG36" s="111"/>
-      <c r="BH36" s="111"/>
+      <c r="P36" s="67"/>
+      <c r="Q36" s="90"/>
+      <c r="V36" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="BC36" s="90"/>
+      <c r="BD36" s="90"/>
+      <c r="BE36" s="90"/>
+      <c r="BF36" s="90"/>
+      <c r="BG36" s="90"/>
+      <c r="BH36" s="90"/>
       <c r="BI36" s="67"/>
-      <c r="BJ36" s="100"/>
+      <c r="BJ36" s="144"/>
       <c r="BK36" s="67"/>
       <c r="BL36" s="67"/>
       <c r="BM36" s="67"/>
@@ -5337,7 +5800,7 @@
       <c r="BP36" s="67"/>
       <c r="BQ36" s="67"/>
       <c r="BR36" s="67"/>
-      <c r="BS36" s="104"/>
+      <c r="BS36" s="145"/>
       <c r="BU36" s="20"/>
       <c r="EE36" s="19"/>
       <c r="EF36" s="19"/>
@@ -5347,10 +5810,10 @@
       <c r="EJ36" s="19"/>
       <c r="EK36" s="19"/>
     </row>
-    <row r="37" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C37" s="24"/>
       <c r="D37" s="67"/>
-      <c r="E37" s="100"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="67"/>
       <c r="G37" s="67"/>
       <c r="H37" s="67"/>
@@ -5359,63 +5822,18 @@
       <c r="K37" s="67"/>
       <c r="L37" s="67"/>
       <c r="M37" s="67"/>
-      <c r="N37" s="104"/>
+      <c r="N37" s="85"/>
       <c r="O37" s="67"/>
       <c r="P37" s="67"/>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="T37" s="117"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="117"/>
-      <c r="W37" s="117"/>
-      <c r="X37" s="117"/>
-      <c r="Y37" s="117"/>
-      <c r="Z37" s="111"/>
-      <c r="AA37" s="111"/>
-      <c r="AB37" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC37" s="117"/>
-      <c r="AD37" s="117"/>
-      <c r="AE37" s="117"/>
-      <c r="AF37" s="117"/>
-      <c r="AG37" s="117"/>
-      <c r="AH37" s="117"/>
-      <c r="AI37" s="111"/>
-      <c r="AJ37" s="111"/>
-      <c r="AK37" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="AL37" s="117"/>
-      <c r="AM37" s="117"/>
-      <c r="AN37" s="117"/>
-      <c r="AO37" s="117"/>
-      <c r="AP37" s="117"/>
-      <c r="AQ37" s="117"/>
-      <c r="AR37" s="111"/>
-      <c r="AS37" s="111"/>
-      <c r="AT37" s="117" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU37" s="117"/>
-      <c r="AV37" s="117"/>
-      <c r="AW37" s="117"/>
-      <c r="AX37" s="117"/>
-      <c r="AY37" s="117"/>
-      <c r="AZ37" s="117"/>
-      <c r="BA37" s="111"/>
-      <c r="BB37" s="111"/>
-      <c r="BC37" s="111"/>
-      <c r="BD37" s="111"/>
-      <c r="BE37" s="111"/>
-      <c r="BF37" s="111"/>
-      <c r="BG37" s="111"/>
-      <c r="BH37" s="111"/>
+      <c r="Q37" s="90"/>
+      <c r="BC37" s="90"/>
+      <c r="BD37" s="90"/>
+      <c r="BE37" s="90"/>
+      <c r="BF37" s="90"/>
+      <c r="BG37" s="90"/>
+      <c r="BH37" s="90"/>
       <c r="BI37" s="67"/>
-      <c r="BJ37" s="100"/>
+      <c r="BJ37" s="144"/>
       <c r="BK37" s="67"/>
       <c r="BL37" s="67"/>
       <c r="BM37" s="67"/>
@@ -5424,8 +5842,10 @@
       <c r="BP37" s="67"/>
       <c r="BQ37" s="67"/>
       <c r="BR37" s="67"/>
-      <c r="BS37" s="104"/>
-      <c r="BU37" s="20"/>
+      <c r="BS37" s="145"/>
+      <c r="BU37" s="19"/>
+      <c r="BV37" s="18"/>
+      <c r="BW37" s="19"/>
       <c r="EE37" s="19"/>
       <c r="EF37" s="19"/>
       <c r="EG37" s="19"/>
@@ -5434,92 +5854,76 @@
       <c r="EJ37" s="19"/>
       <c r="EK37" s="19"/>
     </row>
-    <row r="38" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C38" s="24"/>
       <c r="D38" s="67"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="106"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="67"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="85"/>
       <c r="O38" s="67"/>
       <c r="P38" s="67"/>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="124" t="s">
-        <v>55</v>
-      </c>
-      <c r="W38" s="117"/>
-      <c r="X38" s="117"/>
-      <c r="Y38" s="117"/>
-      <c r="Z38" s="111"/>
-      <c r="AA38" s="111"/>
-      <c r="AB38" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC38" s="117"/>
-      <c r="AD38" s="117"/>
-      <c r="AE38" s="124" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF38" s="117"/>
-      <c r="AG38" s="117"/>
-      <c r="AH38" s="117"/>
-      <c r="AI38" s="111"/>
-      <c r="AJ38" s="112"/>
-      <c r="AK38" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL38" s="117"/>
-      <c r="AM38" s="117"/>
-      <c r="AN38" s="124" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO38" s="117"/>
-      <c r="AP38" s="117"/>
-      <c r="AQ38" s="117"/>
-      <c r="AR38" s="111"/>
-      <c r="AS38" s="111"/>
-      <c r="AT38" s="123" t="s">
-        <v>54</v>
-      </c>
-      <c r="AU38" s="117"/>
-      <c r="AV38" s="117"/>
-      <c r="AW38" s="124" t="s">
-        <v>55</v>
-      </c>
-      <c r="AX38" s="117"/>
-      <c r="AY38" s="117"/>
-      <c r="AZ38" s="117"/>
-      <c r="BA38" s="111"/>
-      <c r="BB38" s="111"/>
-      <c r="BC38" s="111"/>
-      <c r="BD38" s="111"/>
-      <c r="BE38" s="111"/>
-      <c r="BF38" s="111"/>
-      <c r="BG38" s="111"/>
-      <c r="BH38" s="111"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="102"/>
+      <c r="T38" s="96"/>
+      <c r="U38" s="96"/>
+      <c r="V38" s="103"/>
+      <c r="W38" s="96"/>
+      <c r="X38" s="96"/>
+      <c r="Y38" s="96"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="102"/>
+      <c r="AC38" s="96"/>
+      <c r="AD38" s="96"/>
+      <c r="AE38" s="103"/>
+      <c r="AF38" s="96"/>
+      <c r="AG38" s="96"/>
+      <c r="AH38" s="96"/>
+      <c r="AI38" s="90"/>
+      <c r="AJ38" s="91"/>
+      <c r="AK38" s="102"/>
+      <c r="AL38" s="96"/>
+      <c r="AM38" s="96"/>
+      <c r="AN38" s="103"/>
+      <c r="AO38" s="96"/>
+      <c r="AP38" s="96"/>
+      <c r="AQ38" s="96"/>
+      <c r="AR38" s="90"/>
+      <c r="AS38" s="90"/>
+      <c r="AT38" s="102"/>
+      <c r="AU38" s="96"/>
+      <c r="AV38" s="96"/>
+      <c r="AW38" s="103"/>
+      <c r="AX38" s="96"/>
+      <c r="AY38" s="96"/>
+      <c r="AZ38" s="96"/>
+      <c r="BA38" s="90"/>
+      <c r="BB38" s="90"/>
+      <c r="BC38" s="90"/>
+      <c r="BD38" s="90"/>
+      <c r="BE38" s="90"/>
+      <c r="BF38" s="90"/>
+      <c r="BG38" s="90"/>
+      <c r="BH38" s="90"/>
       <c r="BI38" s="67"/>
-      <c r="BJ38" s="105"/>
-      <c r="BK38" s="101"/>
-      <c r="BL38" s="101"/>
-      <c r="BM38" s="101"/>
-      <c r="BN38" s="101"/>
-      <c r="BO38" s="101"/>
-      <c r="BP38" s="101"/>
-      <c r="BQ38" s="101"/>
-      <c r="BR38" s="101"/>
-      <c r="BS38" s="106"/>
+      <c r="BJ38" s="144"/>
+      <c r="BK38" s="67"/>
+      <c r="BL38" s="67"/>
+      <c r="BM38" s="67"/>
+      <c r="BN38" s="67"/>
+      <c r="BO38" s="67"/>
+      <c r="BP38" s="67"/>
+      <c r="BQ38" s="67"/>
+      <c r="BR38" s="67"/>
+      <c r="BS38" s="145"/>
       <c r="BU38" s="19"/>
       <c r="BV38" s="18"/>
       <c r="BW38" s="19"/>
@@ -5531,10 +5935,10 @@
       <c r="EJ38" s="19"/>
       <c r="EK38" s="19"/>
     </row>
-    <row r="39" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:141" ht="20" x14ac:dyDescent="0.25">
       <c r="C39" s="24"/>
       <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="67"/>
       <c r="G39" s="67"/>
       <c r="H39" s="67"/>
@@ -5543,1291 +5947,1344 @@
       <c r="K39" s="67"/>
       <c r="L39" s="67"/>
       <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
+      <c r="N39" s="85"/>
       <c r="O39" s="67"/>
       <c r="P39" s="67"/>
-      <c r="Q39" s="111"/>
-      <c r="R39" s="111"/>
-      <c r="S39" s="111"/>
-      <c r="T39" s="111"/>
-      <c r="U39" s="111"/>
-      <c r="V39" s="111"/>
-      <c r="W39" s="111"/>
-      <c r="X39" s="111"/>
-      <c r="Y39" s="111"/>
-      <c r="Z39" s="111"/>
-      <c r="AA39" s="111"/>
-      <c r="AB39" s="111"/>
-      <c r="AC39" s="111"/>
-      <c r="AD39" s="111"/>
-      <c r="AE39" s="111"/>
-      <c r="AF39" s="111"/>
-      <c r="AG39" s="111"/>
-      <c r="AH39" s="111"/>
-      <c r="AI39" s="111"/>
-      <c r="AJ39" s="111"/>
-      <c r="AK39" s="111"/>
-      <c r="AL39" s="111"/>
-      <c r="AM39" s="111"/>
-      <c r="AN39" s="111"/>
-      <c r="AO39" s="111"/>
-      <c r="AP39" s="111"/>
-      <c r="AQ39" s="111"/>
-      <c r="AR39" s="111"/>
-      <c r="AS39" s="111"/>
-      <c r="AT39" s="111"/>
-      <c r="AU39" s="111"/>
-      <c r="AV39" s="111"/>
-      <c r="AW39" s="111"/>
-      <c r="AX39" s="111"/>
-      <c r="AY39" s="111"/>
-      <c r="AZ39" s="111"/>
-      <c r="BA39" s="111"/>
-      <c r="BB39" s="111"/>
-      <c r="BC39" s="111"/>
-      <c r="BD39" s="111"/>
-      <c r="BE39" s="111"/>
-      <c r="BF39" s="111"/>
-      <c r="BG39" s="111"/>
-      <c r="BH39" s="111"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="S39" s="67"/>
+      <c r="T39" s="67"/>
+      <c r="U39" s="67"/>
+      <c r="V39" s="67"/>
+      <c r="W39" s="67"/>
+      <c r="X39" s="67"/>
+      <c r="Y39" s="67"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="67"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
+      <c r="AE39" s="67"/>
+      <c r="AF39" s="67"/>
+      <c r="AG39" s="67"/>
+      <c r="AH39" s="67"/>
+      <c r="AI39" s="67"/>
+      <c r="AJ39" s="67"/>
+      <c r="AK39" s="67"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="67"/>
+      <c r="AN39" s="67"/>
+      <c r="AO39" s="67"/>
+      <c r="AP39" s="67"/>
+      <c r="AQ39" s="67"/>
+      <c r="AR39" s="67"/>
+      <c r="AS39" s="67"/>
+      <c r="AT39" s="67"/>
+      <c r="AU39" s="67"/>
+      <c r="AV39" s="67"/>
+      <c r="AW39" s="67"/>
+      <c r="AX39" s="67"/>
+      <c r="AY39" s="67"/>
+      <c r="AZ39" s="67"/>
+      <c r="BA39" s="67"/>
+      <c r="BB39" s="67"/>
+      <c r="BC39" s="90"/>
+      <c r="BD39" s="90"/>
+      <c r="BE39" s="90"/>
+      <c r="BF39" s="90"/>
+      <c r="BG39" s="90"/>
+      <c r="BH39" s="90"/>
       <c r="BI39" s="67"/>
-      <c r="BJ39" s="67"/>
+      <c r="BJ39" s="144"/>
       <c r="BK39" s="67"/>
-      <c r="BO39" s="19"/>
-      <c r="BP39" s="19"/>
-      <c r="BQ39" s="19"/>
-      <c r="BR39" s="19"/>
-      <c r="BS39" s="19"/>
-      <c r="BT39" s="19"/>
+      <c r="BL39" s="67"/>
+      <c r="BM39" s="67"/>
+      <c r="BN39" s="67"/>
+      <c r="BO39" s="67"/>
+      <c r="BP39" s="67"/>
+      <c r="BQ39" s="67"/>
+      <c r="BR39" s="67"/>
+      <c r="BS39" s="145"/>
       <c r="BU39" s="19"/>
       <c r="BV39" s="18"/>
       <c r="BW39" s="19"/>
-    </row>
-    <row r="40" spans="2:141" x14ac:dyDescent="0.25">
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="30"/>
-      <c r="AI40" s="29"/>
-      <c r="AJ40" s="29"/>
-      <c r="AK40" s="29"/>
-      <c r="AL40" s="29"/>
-      <c r="AM40" s="29"/>
-      <c r="AN40" s="22"/>
-      <c r="AO40" s="22"/>
-      <c r="AP40" s="22"/>
-      <c r="AQ40" s="22"/>
-      <c r="AR40" s="22"/>
-      <c r="AS40" s="22"/>
-      <c r="AT40" s="22"/>
-      <c r="AU40" s="22"/>
-      <c r="AV40" s="22"/>
-      <c r="AW40" s="22"/>
-      <c r="AX40" s="22"/>
-      <c r="AY40" s="22"/>
-      <c r="AZ40" s="22"/>
-      <c r="BA40" s="22"/>
-      <c r="BB40" s="22"/>
-      <c r="BC40" s="22"/>
-      <c r="BD40" s="22"/>
-      <c r="BE40" s="22"/>
-      <c r="BF40" s="22"/>
-      <c r="BG40" s="22"/>
-      <c r="BH40" s="22"/>
-      <c r="BI40" s="22"/>
-      <c r="BJ40" s="22"/>
-      <c r="BK40" s="22"/>
-      <c r="BL40" s="22"/>
-      <c r="BM40" s="22"/>
-      <c r="BN40" s="22"/>
-      <c r="BO40" s="22"/>
-      <c r="BP40" s="22"/>
-      <c r="BQ40" s="22"/>
-      <c r="BR40" s="22"/>
-      <c r="BS40" s="22"/>
-      <c r="BT40" s="22"/>
-      <c r="BU40" s="22"/>
+      <c r="EE39" s="19"/>
+      <c r="EF39" s="19"/>
+      <c r="EG39" s="19"/>
+      <c r="EH39" s="19"/>
+      <c r="EI39" s="19"/>
+      <c r="EJ39" s="19"/>
+      <c r="EK39" s="19"/>
+    </row>
+    <row r="40" spans="3:141" x14ac:dyDescent="0.25">
+      <c r="C40" s="24"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="67"/>
+      <c r="K40" s="67"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="67"/>
+      <c r="N40" s="85"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="67"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="90"/>
+      <c r="U40" s="90"/>
+      <c r="V40" s="90"/>
+      <c r="W40" s="90"/>
+      <c r="X40" s="90"/>
+      <c r="Y40" s="90"/>
+      <c r="Z40" s="90"/>
+      <c r="AA40" s="90"/>
+      <c r="AB40" s="91"/>
+      <c r="AC40" s="90"/>
+      <c r="AD40" s="90"/>
+      <c r="AE40" s="90"/>
+      <c r="AF40" s="90"/>
+      <c r="AG40" s="90"/>
+      <c r="AH40" s="90"/>
+      <c r="AI40" s="90"/>
+      <c r="AJ40" s="90"/>
+      <c r="AK40" s="91"/>
+      <c r="AL40" s="90"/>
+      <c r="AM40" s="90"/>
+      <c r="AN40" s="90"/>
+      <c r="AO40" s="90"/>
+      <c r="AP40" s="90"/>
+      <c r="AQ40" s="90"/>
+      <c r="AR40" s="90"/>
+      <c r="AS40" s="90"/>
+      <c r="AT40" s="91"/>
+      <c r="AU40" s="90"/>
+      <c r="AV40" s="90"/>
+      <c r="AW40" s="90"/>
+      <c r="AX40" s="90"/>
+      <c r="AY40" s="90"/>
+      <c r="AZ40" s="90"/>
+      <c r="BA40" s="90"/>
+      <c r="BB40" s="90"/>
+      <c r="BC40" s="90"/>
+      <c r="BD40" s="90"/>
+      <c r="BE40" s="90"/>
+      <c r="BF40" s="90"/>
+      <c r="BG40" s="90"/>
+      <c r="BH40" s="90"/>
+      <c r="BI40" s="67"/>
+      <c r="BJ40" s="144"/>
+      <c r="BK40" s="67"/>
+      <c r="BL40" s="67"/>
+      <c r="BM40" s="67"/>
+      <c r="BN40" s="67"/>
+      <c r="BO40" s="67"/>
+      <c r="BP40" s="67"/>
+      <c r="BQ40" s="67"/>
+      <c r="BR40" s="67"/>
+      <c r="BS40" s="145"/>
+      <c r="BU40" s="19"/>
       <c r="BV40" s="18"/>
       <c r="BW40" s="19"/>
-    </row>
-    <row r="41" spans="2:141" x14ac:dyDescent="0.25">
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="19"/>
-      <c r="Z41" s="19"/>
-      <c r="AA41" s="19"/>
-      <c r="AB41" s="19"/>
-      <c r="AC41" s="19"/>
-      <c r="AD41" s="19"/>
-      <c r="AE41" s="19"/>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="19"/>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19"/>
-      <c r="AN41" s="19"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="19"/>
-      <c r="AQ41" s="19"/>
-      <c r="AR41" s="19"/>
-      <c r="AS41" s="19"/>
-      <c r="AT41" s="19"/>
-      <c r="AU41" s="19"/>
-      <c r="AV41" s="19"/>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="19"/>
-      <c r="AY41" s="19"/>
-      <c r="AZ41" s="19"/>
-      <c r="BA41" s="19"/>
-      <c r="BB41" s="19"/>
-      <c r="BC41" s="19"/>
-      <c r="BD41" s="19"/>
-      <c r="BE41" s="19"/>
-      <c r="BF41" s="19"/>
-      <c r="BG41" s="19"/>
-      <c r="BH41" s="19"/>
-      <c r="BI41" s="19"/>
-      <c r="BJ41" s="19"/>
-      <c r="BK41" s="19"/>
-      <c r="BL41" s="19"/>
-      <c r="BM41" s="19"/>
-      <c r="BN41" s="19"/>
-      <c r="BO41" s="19"/>
-      <c r="BP41" s="19"/>
-      <c r="BQ41" s="19"/>
-      <c r="BR41" s="19"/>
-      <c r="BS41" s="19"/>
-      <c r="BT41" s="19"/>
+      <c r="EE40" s="19"/>
+      <c r="EF40" s="19"/>
+      <c r="EG40" s="19"/>
+      <c r="EH40" s="19"/>
+      <c r="EI40" s="19"/>
+      <c r="EJ40" s="19"/>
+      <c r="EK40" s="19"/>
+    </row>
+    <row r="41" spans="3:141" x14ac:dyDescent="0.25">
+      <c r="C41" s="24"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="85"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="90"/>
+      <c r="R41" s="90"/>
+      <c r="S41" s="92"/>
+      <c r="T41" s="93"/>
+      <c r="U41" s="93"/>
+      <c r="V41" s="93"/>
+      <c r="W41" s="93"/>
+      <c r="X41" s="93"/>
+      <c r="Y41" s="94"/>
+      <c r="Z41" s="90"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="92"/>
+      <c r="AC41" s="93"/>
+      <c r="AD41" s="93"/>
+      <c r="AE41" s="93"/>
+      <c r="AF41" s="93"/>
+      <c r="AG41" s="93"/>
+      <c r="AH41" s="94"/>
+      <c r="AI41" s="90"/>
+      <c r="AJ41" s="90"/>
+      <c r="AK41" s="92"/>
+      <c r="AL41" s="93"/>
+      <c r="AM41" s="93"/>
+      <c r="AN41" s="93"/>
+      <c r="AO41" s="93"/>
+      <c r="AP41" s="93"/>
+      <c r="AQ41" s="94"/>
+      <c r="AR41" s="90"/>
+      <c r="AS41" s="90"/>
+      <c r="AT41" s="92"/>
+      <c r="AU41" s="93"/>
+      <c r="AV41" s="93"/>
+      <c r="AW41" s="93"/>
+      <c r="AX41" s="93"/>
+      <c r="AY41" s="93"/>
+      <c r="AZ41" s="94"/>
+      <c r="BA41" s="90"/>
+      <c r="BB41" s="90"/>
+      <c r="BC41" s="90"/>
+      <c r="BD41" s="90"/>
+      <c r="BE41" s="90"/>
+      <c r="BF41" s="90"/>
+      <c r="BG41" s="90"/>
+      <c r="BH41" s="90"/>
+      <c r="BI41" s="67"/>
+      <c r="BJ41" s="144"/>
+      <c r="BK41" s="67"/>
+      <c r="BL41" s="67"/>
+      <c r="BM41" s="67"/>
+      <c r="BN41" s="67"/>
+      <c r="BO41" s="67"/>
+      <c r="BP41" s="67"/>
+      <c r="BQ41" s="67"/>
+      <c r="BR41" s="67"/>
+      <c r="BS41" s="145"/>
       <c r="BU41" s="19"/>
-    </row>
-    <row r="42" spans="2:141" x14ac:dyDescent="0.25">
-      <c r="C42" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="19"/>
-      <c r="Z42" s="19"/>
-      <c r="AA42" s="19"/>
-      <c r="AB42" s="19"/>
-      <c r="AC42" s="19"/>
-      <c r="AD42" s="19"/>
-      <c r="AE42" s="19"/>
-      <c r="AF42" s="19"/>
-      <c r="AG42" s="19"/>
-      <c r="AH42" s="19"/>
-      <c r="AI42" s="19"/>
-      <c r="AJ42" s="19"/>
-      <c r="AK42" s="19"/>
-      <c r="AL42" s="19"/>
-      <c r="AM42" s="19"/>
-      <c r="AN42" s="19"/>
-      <c r="AO42" s="19"/>
-      <c r="AP42" s="19"/>
-      <c r="AQ42" s="19"/>
-      <c r="AR42" s="19"/>
-      <c r="AS42" s="19"/>
-      <c r="AT42" s="19"/>
-      <c r="AU42" s="19"/>
-      <c r="AV42" s="19"/>
-      <c r="AW42" s="19"/>
-      <c r="AX42" s="19"/>
-      <c r="AY42" s="19"/>
-      <c r="AZ42" s="19"/>
-      <c r="BA42" s="19"/>
-      <c r="BB42" s="19"/>
-      <c r="BC42" s="19"/>
-      <c r="BD42" s="19"/>
-      <c r="BE42" s="19"/>
-      <c r="BF42" s="19"/>
-      <c r="BG42" s="19"/>
-      <c r="BH42" s="19"/>
-      <c r="BI42" s="19"/>
-      <c r="BJ42" s="19"/>
-      <c r="BK42" s="19"/>
-      <c r="BL42" s="19"/>
-      <c r="BM42" s="19"/>
-      <c r="BN42" s="19"/>
-      <c r="BO42" s="19"/>
-      <c r="BP42" s="19"/>
-      <c r="BQ42" s="19"/>
-      <c r="BR42" s="19"/>
-      <c r="BS42" s="19"/>
-      <c r="BT42" s="19"/>
+      <c r="BV41" s="18"/>
+      <c r="BW41" s="19"/>
+      <c r="EE41" s="19"/>
+      <c r="EF41" s="19"/>
+      <c r="EG41" s="19"/>
+      <c r="EH41" s="19"/>
+      <c r="EI41" s="19"/>
+      <c r="EJ41" s="19"/>
+      <c r="EK41" s="19"/>
+    </row>
+    <row r="42" spans="3:141" x14ac:dyDescent="0.25">
+      <c r="C42" s="24"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="67"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
+      <c r="I42" s="67"/>
+      <c r="J42" s="67"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="67"/>
+      <c r="M42" s="67"/>
+      <c r="N42" s="85"/>
+      <c r="O42" s="67"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="90"/>
+      <c r="R42" s="90"/>
+      <c r="S42" s="95"/>
+      <c r="T42" s="96"/>
+      <c r="U42" s="96"/>
+      <c r="V42" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="W42" s="90"/>
+      <c r="X42" s="90"/>
+      <c r="Y42" s="97"/>
+      <c r="Z42" s="90"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="95"/>
+      <c r="AC42" s="96"/>
+      <c r="AD42" s="96"/>
+      <c r="AE42" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF42" s="90"/>
+      <c r="AG42" s="90"/>
+      <c r="AH42" s="97"/>
+      <c r="AI42" s="90"/>
+      <c r="AJ42" s="90"/>
+      <c r="AK42" s="95"/>
+      <c r="AL42" s="96"/>
+      <c r="AM42" s="96"/>
+      <c r="AN42" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO42" s="90"/>
+      <c r="AP42" s="90"/>
+      <c r="AQ42" s="97"/>
+      <c r="AR42" s="90"/>
+      <c r="AS42" s="90"/>
+      <c r="AT42" s="95"/>
+      <c r="AU42" s="96"/>
+      <c r="AV42" s="96"/>
+      <c r="AW42" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX42" s="90"/>
+      <c r="AY42" s="90"/>
+      <c r="AZ42" s="97"/>
+      <c r="BA42" s="90"/>
+      <c r="BB42" s="90"/>
+      <c r="BC42" s="90"/>
+      <c r="BD42" s="90"/>
+      <c r="BE42" s="90"/>
+      <c r="BF42" s="90"/>
+      <c r="BG42" s="90"/>
+      <c r="BH42" s="90"/>
+      <c r="BI42" s="67"/>
+      <c r="BJ42" s="144"/>
+      <c r="BK42" s="67"/>
+      <c r="BL42" s="67"/>
+      <c r="BM42" s="67"/>
+      <c r="BN42" s="67"/>
+      <c r="BO42" s="67"/>
+      <c r="BP42" s="67"/>
+      <c r="BQ42" s="67"/>
+      <c r="BR42" s="67"/>
+      <c r="BS42" s="145"/>
       <c r="BU42" s="19"/>
-    </row>
-    <row r="43" spans="2:141" x14ac:dyDescent="0.25">
-      <c r="C43" s="90" t="s">
+      <c r="BV42" s="18"/>
+      <c r="BW42" s="19"/>
+      <c r="EE42" s="19"/>
+      <c r="EF42" s="19"/>
+      <c r="EG42" s="19"/>
+      <c r="EH42" s="19"/>
+      <c r="EI42" s="19"/>
+      <c r="EJ42" s="19"/>
+      <c r="EK42" s="19"/>
+    </row>
+    <row r="43" spans="3:141" x14ac:dyDescent="0.25">
+      <c r="C43" s="24"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="67"/>
+      <c r="J43" s="67"/>
+      <c r="K43" s="67"/>
+      <c r="L43" s="67"/>
+      <c r="M43" s="67"/>
+      <c r="N43" s="85"/>
+      <c r="O43" s="67"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="90"/>
+      <c r="R43" s="90"/>
+      <c r="S43" s="95"/>
+      <c r="T43" s="90"/>
+      <c r="U43" s="90"/>
+      <c r="V43" s="90"/>
+      <c r="W43" s="90"/>
+      <c r="X43" s="90"/>
+      <c r="Y43" s="97"/>
+      <c r="Z43" s="90"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="95"/>
+      <c r="AC43" s="90"/>
+      <c r="AD43" s="90"/>
+      <c r="AE43" s="90"/>
+      <c r="AF43" s="90"/>
+      <c r="AG43" s="90"/>
+      <c r="AH43" s="97"/>
+      <c r="AI43" s="90"/>
+      <c r="AJ43" s="90"/>
+      <c r="AK43" s="95"/>
+      <c r="AL43" s="90"/>
+      <c r="AM43" s="90"/>
+      <c r="AN43" s="90"/>
+      <c r="AO43" s="90"/>
+      <c r="AP43" s="90"/>
+      <c r="AQ43" s="97"/>
+      <c r="AR43" s="90"/>
+      <c r="AS43" s="90"/>
+      <c r="AT43" s="95"/>
+      <c r="AU43" s="90"/>
+      <c r="AV43" s="90"/>
+      <c r="AW43" s="90"/>
+      <c r="AX43" s="90"/>
+      <c r="AY43" s="90"/>
+      <c r="AZ43" s="97"/>
+      <c r="BA43" s="90"/>
+      <c r="BB43" s="90"/>
+      <c r="BC43" s="90"/>
+      <c r="BD43" s="90"/>
+      <c r="BE43" s="90"/>
+      <c r="BF43" s="90"/>
+      <c r="BG43" s="90"/>
+      <c r="BH43" s="90"/>
+      <c r="BI43" s="67"/>
+      <c r="BJ43" s="144"/>
+      <c r="BK43" s="67"/>
+      <c r="BL43" s="67"/>
+      <c r="BM43" s="67"/>
+      <c r="BN43" s="67"/>
+      <c r="BO43" s="67"/>
+      <c r="BP43" s="67"/>
+      <c r="BQ43" s="67"/>
+      <c r="BR43" s="67"/>
+      <c r="BS43" s="145"/>
+      <c r="BU43" s="19"/>
+      <c r="BV43" s="18"/>
+      <c r="BW43" s="19"/>
+      <c r="EE43" s="19"/>
+      <c r="EF43" s="19"/>
+      <c r="EG43" s="19"/>
+      <c r="EH43" s="19"/>
+      <c r="EI43" s="19"/>
+      <c r="EJ43" s="19"/>
+      <c r="EK43" s="19"/>
+    </row>
+    <row r="44" spans="3:141" x14ac:dyDescent="0.25">
+      <c r="C44" s="24"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="67"/>
+      <c r="G44" s="67"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="85"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="90"/>
+      <c r="R44" s="90"/>
+      <c r="S44" s="98"/>
+      <c r="T44" s="99"/>
+      <c r="U44" s="99"/>
+      <c r="V44" s="99"/>
+      <c r="W44" s="99"/>
+      <c r="X44" s="99"/>
+      <c r="Y44" s="100"/>
+      <c r="Z44" s="90"/>
+      <c r="AA44" s="90"/>
+      <c r="AB44" s="98"/>
+      <c r="AC44" s="99"/>
+      <c r="AD44" s="99"/>
+      <c r="AE44" s="99"/>
+      <c r="AF44" s="99"/>
+      <c r="AG44" s="99"/>
+      <c r="AH44" s="100"/>
+      <c r="AI44" s="90"/>
+      <c r="AJ44" s="90"/>
+      <c r="AK44" s="98"/>
+      <c r="AL44" s="99"/>
+      <c r="AM44" s="99"/>
+      <c r="AN44" s="99"/>
+      <c r="AO44" s="99"/>
+      <c r="AP44" s="99"/>
+      <c r="AQ44" s="100"/>
+      <c r="AR44" s="90"/>
+      <c r="AS44" s="90"/>
+      <c r="AT44" s="98"/>
+      <c r="AU44" s="99"/>
+      <c r="AV44" s="99"/>
+      <c r="AW44" s="99"/>
+      <c r="AX44" s="99"/>
+      <c r="AY44" s="99"/>
+      <c r="AZ44" s="100"/>
+      <c r="BA44" s="90"/>
+      <c r="BB44" s="90"/>
+      <c r="BC44" s="90"/>
+      <c r="BD44" s="90"/>
+      <c r="BE44" s="90"/>
+      <c r="BF44" s="90"/>
+      <c r="BG44" s="90"/>
+      <c r="BH44" s="90"/>
+      <c r="BI44" s="67"/>
+      <c r="BJ44" s="144"/>
+      <c r="BK44" s="67"/>
+      <c r="BL44" s="67"/>
+      <c r="BM44" s="67"/>
+      <c r="BN44" s="67"/>
+      <c r="BO44" s="67"/>
+      <c r="BP44" s="67"/>
+      <c r="BQ44" s="67"/>
+      <c r="BR44" s="67"/>
+      <c r="BS44" s="145"/>
+      <c r="BU44" s="19"/>
+      <c r="BV44" s="18"/>
+      <c r="BW44" s="19"/>
+      <c r="EE44" s="19"/>
+      <c r="EF44" s="19"/>
+      <c r="EG44" s="19"/>
+      <c r="EH44" s="19"/>
+      <c r="EI44" s="19"/>
+      <c r="EJ44" s="19"/>
+      <c r="EK44" s="19"/>
+    </row>
+    <row r="45" spans="3:141" x14ac:dyDescent="0.25">
+      <c r="C45" s="24"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="67"/>
+      <c r="J45" s="67"/>
+      <c r="K45" s="67"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="67"/>
+      <c r="N45" s="85"/>
+      <c r="O45" s="67"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="90"/>
+      <c r="R45" s="90"/>
+      <c r="S45" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="T45" s="96"/>
+      <c r="U45" s="96"/>
+      <c r="V45" s="96"/>
+      <c r="W45" s="96"/>
+      <c r="X45" s="96"/>
+      <c r="Y45" s="96"/>
+      <c r="Z45" s="90"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC45" s="96"/>
+      <c r="AD45" s="96"/>
+      <c r="AE45" s="96"/>
+      <c r="AF45" s="96"/>
+      <c r="AG45" s="96"/>
+      <c r="AH45" s="96"/>
+      <c r="AI45" s="90"/>
+      <c r="AJ45" s="90"/>
+      <c r="AK45" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL45" s="96"/>
+      <c r="AM45" s="96"/>
+      <c r="AN45" s="96"/>
+      <c r="AO45" s="96"/>
+      <c r="AP45" s="96"/>
+      <c r="AQ45" s="96"/>
+      <c r="AR45" s="90"/>
+      <c r="AS45" s="90"/>
+      <c r="AT45" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU45" s="96"/>
+      <c r="AV45" s="96"/>
+      <c r="AW45" s="96"/>
+      <c r="AX45" s="96"/>
+      <c r="AY45" s="96"/>
+      <c r="AZ45" s="96"/>
+      <c r="BA45" s="90"/>
+      <c r="BB45" s="90"/>
+      <c r="BC45" s="90"/>
+      <c r="BD45" s="90"/>
+      <c r="BE45" s="90"/>
+      <c r="BF45" s="90"/>
+      <c r="BG45" s="90"/>
+      <c r="BH45" s="90"/>
+      <c r="BI45" s="67"/>
+      <c r="BJ45" s="144"/>
+      <c r="BK45" s="67"/>
+      <c r="BL45" s="67"/>
+      <c r="BM45" s="67"/>
+      <c r="BN45" s="67"/>
+      <c r="BO45" s="67"/>
+      <c r="BP45" s="67"/>
+      <c r="BQ45" s="67"/>
+      <c r="BR45" s="67"/>
+      <c r="BS45" s="145"/>
+      <c r="BU45" s="19"/>
+      <c r="BV45" s="18"/>
+      <c r="BW45" s="19"/>
+      <c r="EE45" s="19"/>
+      <c r="EF45" s="19"/>
+      <c r="EG45" s="19"/>
+      <c r="EH45" s="19"/>
+      <c r="EI45" s="19"/>
+      <c r="EJ45" s="19"/>
+      <c r="EK45" s="19"/>
+    </row>
+    <row r="46" spans="3:141" x14ac:dyDescent="0.25">
+      <c r="C46" s="24"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="86"/>
+      <c r="F46" s="82"/>
+      <c r="G46" s="82"/>
+      <c r="H46" s="82"/>
+      <c r="I46" s="82"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="82"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="82"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="67"/>
+      <c r="P46" s="67"/>
+      <c r="Q46" s="90"/>
+      <c r="R46" s="90"/>
+      <c r="S46" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="T46" s="96"/>
+      <c r="U46" s="96"/>
+      <c r="V46" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="W46" s="96"/>
+      <c r="X46" s="96"/>
+      <c r="Y46" s="96"/>
+      <c r="Z46" s="90"/>
+      <c r="AA46" s="90"/>
+      <c r="AB46" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC46" s="96"/>
+      <c r="AD46" s="96"/>
+      <c r="AE46" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF46" s="96"/>
+      <c r="AG46" s="96"/>
+      <c r="AH46" s="96"/>
+      <c r="AI46" s="90"/>
+      <c r="AJ46" s="91"/>
+      <c r="AK46" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL46" s="96"/>
+      <c r="AM46" s="96"/>
+      <c r="AN46" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO46" s="96"/>
+      <c r="AP46" s="96"/>
+      <c r="AQ46" s="96"/>
+      <c r="AR46" s="90"/>
+      <c r="AS46" s="90"/>
+      <c r="AT46" s="102" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU46" s="96"/>
+      <c r="AV46" s="96"/>
+      <c r="AW46" s="103" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX46" s="96"/>
+      <c r="AY46" s="96"/>
+      <c r="AZ46" s="96"/>
+      <c r="BA46" s="90"/>
+      <c r="BB46" s="90"/>
+      <c r="BC46" s="90"/>
+      <c r="BD46" s="90"/>
+      <c r="BE46" s="90"/>
+      <c r="BF46" s="90"/>
+      <c r="BG46" s="90"/>
+      <c r="BH46" s="90"/>
+      <c r="BI46" s="67"/>
+      <c r="BJ46" s="146"/>
+      <c r="BK46" s="147"/>
+      <c r="BL46" s="147"/>
+      <c r="BM46" s="147"/>
+      <c r="BN46" s="147"/>
+      <c r="BO46" s="147"/>
+      <c r="BP46" s="147"/>
+      <c r="BQ46" s="147"/>
+      <c r="BR46" s="147"/>
+      <c r="BS46" s="148"/>
+      <c r="BU46" s="19"/>
+      <c r="BV46" s="18"/>
+      <c r="BW46" s="19"/>
+      <c r="EE46" s="19"/>
+      <c r="EF46" s="19"/>
+      <c r="EG46" s="19"/>
+      <c r="EH46" s="19"/>
+      <c r="EI46" s="19"/>
+      <c r="EJ46" s="19"/>
+      <c r="EK46" s="19"/>
+    </row>
+    <row r="47" spans="3:141" x14ac:dyDescent="0.25">
+      <c r="C47" s="24"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="67"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="67"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="67"/>
+      <c r="O47" s="67"/>
+      <c r="P47" s="67"/>
+      <c r="Q47" s="90"/>
+      <c r="R47" s="90"/>
+      <c r="S47" s="90"/>
+      <c r="T47" s="90"/>
+      <c r="U47" s="90"/>
+      <c r="V47" s="90"/>
+      <c r="W47" s="90"/>
+      <c r="X47" s="90"/>
+      <c r="Y47" s="90"/>
+      <c r="Z47" s="90"/>
+      <c r="AA47" s="90"/>
+      <c r="AB47" s="90"/>
+      <c r="AC47" s="90"/>
+      <c r="AD47" s="90"/>
+      <c r="AE47" s="90"/>
+      <c r="AF47" s="90"/>
+      <c r="AG47" s="90"/>
+      <c r="AH47" s="90"/>
+      <c r="AI47" s="90"/>
+      <c r="AJ47" s="90"/>
+      <c r="AK47" s="90"/>
+      <c r="AL47" s="90"/>
+      <c r="AM47" s="90"/>
+      <c r="AN47" s="90"/>
+      <c r="AO47" s="90"/>
+      <c r="AP47" s="90"/>
+      <c r="AQ47" s="90"/>
+      <c r="AR47" s="90"/>
+      <c r="AS47" s="90"/>
+      <c r="AT47" s="90"/>
+      <c r="AU47" s="90"/>
+      <c r="AV47" s="90"/>
+      <c r="AW47" s="90"/>
+      <c r="AX47" s="90"/>
+      <c r="AY47" s="90"/>
+      <c r="AZ47" s="90"/>
+      <c r="BA47" s="90"/>
+      <c r="BB47" s="90"/>
+      <c r="BC47" s="90"/>
+      <c r="BD47" s="90"/>
+      <c r="BE47" s="90"/>
+      <c r="BF47" s="90"/>
+      <c r="BG47" s="90"/>
+      <c r="BH47" s="90"/>
+      <c r="BI47" s="67"/>
+      <c r="BJ47" s="67"/>
+      <c r="BK47" s="67"/>
+      <c r="BO47" s="19"/>
+      <c r="BP47" s="19"/>
+      <c r="BQ47" s="19"/>
+      <c r="BR47" s="19"/>
+      <c r="BS47" s="19"/>
+      <c r="BT47" s="19"/>
+      <c r="BU47" s="19"/>
+      <c r="BV47" s="18"/>
+      <c r="BW47" s="19"/>
+    </row>
+    <row r="48" spans="3:141" x14ac:dyDescent="0.25">
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="30"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="30"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="30"/>
+      <c r="W48" s="30"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="30"/>
+      <c r="Z48" s="30"/>
+      <c r="AA48" s="30"/>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AD48" s="30"/>
+      <c r="AE48" s="30"/>
+      <c r="AF48" s="30"/>
+      <c r="AG48" s="30"/>
+      <c r="AH48" s="30"/>
+      <c r="AI48" s="29"/>
+      <c r="AJ48" s="29"/>
+      <c r="AK48" s="29"/>
+      <c r="AL48" s="29"/>
+      <c r="AM48" s="29"/>
+      <c r="AN48" s="22"/>
+      <c r="AO48" s="22"/>
+      <c r="AP48" s="22"/>
+      <c r="AQ48" s="22"/>
+      <c r="AR48" s="22"/>
+      <c r="AS48" s="22"/>
+      <c r="AT48" s="22"/>
+      <c r="AU48" s="22"/>
+      <c r="AV48" s="22"/>
+      <c r="AW48" s="22"/>
+      <c r="AX48" s="22"/>
+      <c r="AY48" s="22"/>
+      <c r="AZ48" s="22"/>
+      <c r="BA48" s="22"/>
+      <c r="BB48" s="22"/>
+      <c r="BC48" s="22"/>
+      <c r="BD48" s="22"/>
+      <c r="BE48" s="22"/>
+      <c r="BF48" s="22"/>
+      <c r="BG48" s="22"/>
+      <c r="BH48" s="22"/>
+      <c r="BI48" s="22"/>
+      <c r="BJ48" s="22"/>
+      <c r="BK48" s="22"/>
+      <c r="BL48" s="22"/>
+      <c r="BM48" s="22"/>
+      <c r="BN48" s="22"/>
+      <c r="BO48" s="22"/>
+      <c r="BP48" s="22"/>
+      <c r="BQ48" s="22"/>
+      <c r="BR48" s="22"/>
+      <c r="BS48" s="22"/>
+      <c r="BT48" s="22"/>
+      <c r="BU48" s="22"/>
+      <c r="BV48" s="18"/>
+      <c r="BW48" s="19"/>
+    </row>
+    <row r="49" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="19"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="19"/>
+      <c r="S49" s="19"/>
+      <c r="T49" s="19"/>
+      <c r="U49" s="19"/>
+      <c r="V49" s="19"/>
+      <c r="W49" s="19"/>
+      <c r="X49" s="19"/>
+      <c r="Y49" s="19"/>
+      <c r="Z49" s="19"/>
+      <c r="AA49" s="19"/>
+      <c r="AB49" s="19"/>
+      <c r="AC49" s="19"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="19"/>
+      <c r="AG49" s="19"/>
+      <c r="AH49" s="19"/>
+      <c r="AI49" s="19"/>
+      <c r="AJ49" s="19"/>
+      <c r="AK49" s="19"/>
+      <c r="AL49" s="19"/>
+      <c r="AM49" s="19"/>
+      <c r="AN49" s="19"/>
+      <c r="AO49" s="19"/>
+      <c r="AP49" s="19"/>
+      <c r="AQ49" s="19"/>
+      <c r="AR49" s="19"/>
+      <c r="AS49" s="19"/>
+      <c r="AT49" s="19"/>
+      <c r="AU49" s="19"/>
+      <c r="AV49" s="19"/>
+      <c r="AW49" s="19"/>
+      <c r="AX49" s="19"/>
+      <c r="AY49" s="19"/>
+      <c r="AZ49" s="19"/>
+      <c r="BA49" s="19"/>
+      <c r="BB49" s="19"/>
+      <c r="BC49" s="19"/>
+      <c r="BD49" s="19"/>
+      <c r="BE49" s="19"/>
+      <c r="BF49" s="19"/>
+      <c r="BG49" s="19"/>
+      <c r="BH49" s="19"/>
+      <c r="BI49" s="19"/>
+      <c r="BJ49" s="19"/>
+      <c r="BK49" s="19"/>
+      <c r="BL49" s="19"/>
+      <c r="BM49" s="19"/>
+      <c r="BN49" s="19"/>
+      <c r="BO49" s="19"/>
+      <c r="BP49" s="19"/>
+      <c r="BQ49" s="19"/>
+      <c r="BR49" s="19"/>
+      <c r="BS49" s="19"/>
+      <c r="BT49" s="19"/>
+      <c r="BU49" s="19"/>
+    </row>
+    <row r="50" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C50" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="19"/>
+      <c r="AJ50" s="19"/>
+      <c r="AK50" s="19"/>
+      <c r="AL50" s="19"/>
+      <c r="AM50" s="19"/>
+      <c r="AN50" s="19"/>
+      <c r="AO50" s="19"/>
+      <c r="AP50" s="19"/>
+      <c r="AQ50" s="19"/>
+      <c r="AR50" s="19"/>
+      <c r="AS50" s="19"/>
+      <c r="AT50" s="19"/>
+      <c r="AU50" s="19"/>
+      <c r="AV50" s="19"/>
+      <c r="AW50" s="19"/>
+      <c r="AX50" s="19"/>
+      <c r="AY50" s="19"/>
+      <c r="AZ50" s="19"/>
+      <c r="BA50" s="19"/>
+      <c r="BB50" s="19"/>
+      <c r="BC50" s="19"/>
+      <c r="BD50" s="19"/>
+      <c r="BE50" s="19"/>
+      <c r="BF50" s="19"/>
+      <c r="BG50" s="19"/>
+      <c r="BH50" s="19"/>
+      <c r="BI50" s="19"/>
+      <c r="BJ50" s="19"/>
+      <c r="BK50" s="19"/>
+      <c r="BL50" s="19"/>
+      <c r="BM50" s="19"/>
+      <c r="BN50" s="19"/>
+      <c r="BO50" s="19"/>
+      <c r="BP50" s="19"/>
+      <c r="BQ50" s="19"/>
+      <c r="BR50" s="19"/>
+      <c r="BS50" s="19"/>
+      <c r="BT50" s="19"/>
+      <c r="BU50" s="19"/>
+    </row>
+    <row r="51" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C51" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="91"/>
-      <c r="E43" s="32" t="s">
+      <c r="D51" s="127"/>
+      <c r="E51" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="32" t="s">
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
-      <c r="W43" s="34"/>
-      <c r="X43" s="34"/>
-      <c r="Y43" s="34"/>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="32" t="s">
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="34"/>
-      <c r="AL43" s="34"/>
-      <c r="AM43" s="34"/>
-      <c r="AN43" s="34"/>
-      <c r="AO43" s="32" t="s">
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="34"/>
+      <c r="AM51" s="34"/>
+      <c r="AN51" s="34"/>
+      <c r="AO51" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AP43" s="34"/>
-      <c r="AQ43" s="34"/>
-      <c r="AR43" s="34"/>
-      <c r="AS43" s="34"/>
-      <c r="AT43" s="32" t="s">
+      <c r="AP51" s="34"/>
+      <c r="AQ51" s="34"/>
+      <c r="AR51" s="34"/>
+      <c r="AS51" s="34"/>
+      <c r="AT51" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AU43" s="34"/>
-      <c r="AV43" s="34"/>
-      <c r="AW43" s="34"/>
-      <c r="AX43" s="32" t="s">
+      <c r="AU51" s="34"/>
+      <c r="AV51" s="34"/>
+      <c r="AW51" s="34"/>
+      <c r="AX51" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AY43" s="34"/>
-      <c r="AZ43" s="34"/>
-      <c r="BA43" s="34"/>
-      <c r="BB43" s="34"/>
-      <c r="BC43" s="33"/>
-      <c r="BD43" s="32" t="s">
+      <c r="AY51" s="34"/>
+      <c r="AZ51" s="34"/>
+      <c r="BA51" s="34"/>
+      <c r="BB51" s="34"/>
+      <c r="BC51" s="33"/>
+      <c r="BD51" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="BE43" s="34"/>
-      <c r="BF43" s="32" t="s">
+      <c r="BE51" s="34"/>
+      <c r="BF51" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="BG43" s="34"/>
-      <c r="BH43" s="34"/>
-      <c r="BI43" s="34"/>
-      <c r="BJ43" s="34"/>
-      <c r="BK43" s="34"/>
-      <c r="BL43" s="34"/>
-      <c r="BM43" s="34"/>
-      <c r="BN43" s="34"/>
-      <c r="BO43" s="34"/>
-      <c r="BP43" s="34"/>
-      <c r="BQ43" s="34"/>
-      <c r="BR43" s="34"/>
-      <c r="BS43" s="34"/>
-      <c r="BT43" s="34"/>
-      <c r="BU43" s="33"/>
-    </row>
-    <row r="44" spans="2:141" x14ac:dyDescent="0.25">
-      <c r="B44" s="35"/>
-      <c r="C44" s="92">
-        <f>ROW()-ROW($C$43)</f>
+      <c r="BG51" s="34"/>
+      <c r="BH51" s="34"/>
+      <c r="BI51" s="34"/>
+      <c r="BJ51" s="34"/>
+      <c r="BK51" s="34"/>
+      <c r="BL51" s="34"/>
+      <c r="BM51" s="34"/>
+      <c r="BN51" s="34"/>
+      <c r="BO51" s="34"/>
+      <c r="BP51" s="34"/>
+      <c r="BQ51" s="34"/>
+      <c r="BR51" s="34"/>
+      <c r="BS51" s="34"/>
+      <c r="BT51" s="34"/>
+      <c r="BU51" s="33"/>
+    </row>
+    <row r="52" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B52" s="35"/>
+      <c r="C52" s="110">
+        <f>ROW()-ROW($C$51)</f>
         <v>1</v>
       </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="84" t="s">
+      <c r="D52" s="111"/>
+      <c r="E52" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="116"/>
+      <c r="M52" s="117"/>
+      <c r="N52" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="O52" s="131"/>
+      <c r="P52" s="131"/>
+      <c r="Q52" s="131"/>
+      <c r="R52" s="131"/>
+      <c r="S52" s="131"/>
+      <c r="T52" s="131"/>
+      <c r="U52" s="131"/>
+      <c r="V52" s="131"/>
+      <c r="W52" s="131"/>
+      <c r="X52" s="131"/>
+      <c r="Y52" s="131"/>
+      <c r="Z52" s="131"/>
+      <c r="AA52" s="131"/>
+      <c r="AB52" s="131"/>
+      <c r="AC52" s="131"/>
+      <c r="AD52" s="131"/>
+      <c r="AE52" s="132"/>
+      <c r="AF52" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG52" s="113"/>
+      <c r="AH52" s="113"/>
+      <c r="AI52" s="113"/>
+      <c r="AJ52" s="113"/>
+      <c r="AK52" s="113"/>
+      <c r="AL52" s="113"/>
+      <c r="AM52" s="113"/>
+      <c r="AN52" s="114"/>
+      <c r="AO52" s="64" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP52" s="65"/>
+      <c r="AQ52" s="65"/>
+      <c r="AR52" s="65"/>
+      <c r="AS52" s="66"/>
+      <c r="AT52" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
-      <c r="Q44" s="78"/>
-      <c r="R44" s="78"/>
-      <c r="S44" s="78"/>
-      <c r="T44" s="78"/>
-      <c r="U44" s="78"/>
-      <c r="V44" s="78"/>
-      <c r="W44" s="78"/>
-      <c r="X44" s="78"/>
-      <c r="Y44" s="78"/>
-      <c r="Z44" s="78"/>
-      <c r="AA44" s="78"/>
-      <c r="AB44" s="78"/>
-      <c r="AC44" s="78"/>
-      <c r="AD44" s="78"/>
-      <c r="AE44" s="79"/>
-      <c r="AF44" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG44" s="81"/>
-      <c r="AH44" s="81"/>
-      <c r="AI44" s="81"/>
-      <c r="AJ44" s="81"/>
-      <c r="AK44" s="81"/>
-      <c r="AL44" s="81"/>
-      <c r="AM44" s="81"/>
-      <c r="AN44" s="82"/>
-      <c r="AO44" s="64" t="s">
+      <c r="AU52" s="65"/>
+      <c r="AV52" s="65"/>
+      <c r="AW52" s="66"/>
+      <c r="AX52" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY52" s="65"/>
+      <c r="AZ52" s="65"/>
+      <c r="BA52" s="65"/>
+      <c r="BB52" s="65"/>
+      <c r="BC52" s="66"/>
+      <c r="BD52" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="AP44" s="65"/>
-      <c r="AQ44" s="65"/>
-      <c r="AR44" s="65"/>
-      <c r="AS44" s="66"/>
-      <c r="AT44" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU44" s="65"/>
-      <c r="AV44" s="65"/>
-      <c r="AW44" s="66"/>
-      <c r="AX44" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY44" s="65"/>
-      <c r="AZ44" s="65"/>
-      <c r="BA44" s="65"/>
-      <c r="BB44" s="65"/>
-      <c r="BC44" s="66"/>
-      <c r="BD44" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE44" s="66"/>
-      <c r="BF44" s="83"/>
-      <c r="BG44" s="81"/>
-      <c r="BH44" s="81"/>
-      <c r="BI44" s="81"/>
-      <c r="BJ44" s="81"/>
-      <c r="BK44" s="81"/>
-      <c r="BL44" s="81"/>
-      <c r="BM44" s="81"/>
-      <c r="BN44" s="81"/>
-      <c r="BO44" s="81"/>
-      <c r="BP44" s="81"/>
-      <c r="BQ44" s="81"/>
-      <c r="BR44" s="81"/>
-      <c r="BS44" s="81"/>
-      <c r="BT44" s="81"/>
-      <c r="BU44" s="82"/>
-    </row>
-    <row r="45" spans="2:141" x14ac:dyDescent="0.25">
-      <c r="B45" s="35"/>
-      <c r="C45" s="92">
-        <f>ROW()-ROW($C$43)</f>
-        <v>2</v>
-      </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="80" t="s">
-        <v>73</v>
-      </c>
-      <c r="O45" s="81"/>
-      <c r="P45" s="81"/>
-      <c r="Q45" s="81"/>
-      <c r="R45" s="81"/>
-      <c r="S45" s="81"/>
-      <c r="T45" s="81"/>
-      <c r="U45" s="81"/>
-      <c r="V45" s="81"/>
-      <c r="W45" s="81"/>
-      <c r="X45" s="81"/>
-      <c r="Y45" s="81"/>
-      <c r="Z45" s="81"/>
-      <c r="AA45" s="81"/>
-      <c r="AB45" s="81"/>
-      <c r="AC45" s="81"/>
-      <c r="AD45" s="81"/>
-      <c r="AE45" s="82"/>
-      <c r="AF45" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG45" s="81"/>
-      <c r="AH45" s="81"/>
-      <c r="AI45" s="81"/>
-      <c r="AJ45" s="81"/>
-      <c r="AK45" s="81"/>
-      <c r="AL45" s="81"/>
-      <c r="AM45" s="81"/>
-      <c r="AN45" s="82"/>
-      <c r="AO45" s="80" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP45" s="81"/>
-      <c r="AQ45" s="81"/>
-      <c r="AR45" s="81"/>
-      <c r="AS45" s="82"/>
-      <c r="AT45" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU45" s="65"/>
-      <c r="AV45" s="65"/>
-      <c r="AW45" s="66"/>
-      <c r="AX45" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY45" s="65"/>
-      <c r="AZ45" s="65"/>
-      <c r="BA45" s="65"/>
-      <c r="BB45" s="65"/>
-      <c r="BC45" s="66"/>
-      <c r="BD45" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE45" s="66"/>
-      <c r="BF45" s="83"/>
-      <c r="BG45" s="81"/>
-      <c r="BH45" s="81"/>
-      <c r="BI45" s="81"/>
-      <c r="BJ45" s="81"/>
-      <c r="BK45" s="81"/>
-      <c r="BL45" s="81"/>
-      <c r="BM45" s="81"/>
-      <c r="BN45" s="81"/>
-      <c r="BO45" s="81"/>
-      <c r="BP45" s="81"/>
-      <c r="BQ45" s="81"/>
-      <c r="BR45" s="81"/>
-      <c r="BS45" s="81"/>
-      <c r="BT45" s="81"/>
-      <c r="BU45" s="82"/>
-    </row>
-    <row r="46" spans="2:141" x14ac:dyDescent="0.25">
-      <c r="B46" s="35"/>
-      <c r="C46" s="92">
-        <f>ROW()-ROW($C$43)</f>
-        <v>3</v>
-      </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
-      <c r="J46" s="45"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="45"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="81"/>
-      <c r="V46" s="81"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="81"/>
-      <c r="Z46" s="81"/>
-      <c r="AA46" s="81"/>
-      <c r="AB46" s="81"/>
-      <c r="AC46" s="81"/>
-      <c r="AD46" s="81"/>
-      <c r="AE46" s="82"/>
-      <c r="AF46" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="81"/>
-      <c r="AI46" s="81"/>
-      <c r="AJ46" s="81"/>
-      <c r="AK46" s="81"/>
-      <c r="AL46" s="81"/>
-      <c r="AM46" s="81"/>
-      <c r="AN46" s="82"/>
-      <c r="AO46" s="80" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP46" s="81"/>
-      <c r="AQ46" s="81"/>
-      <c r="AR46" s="81"/>
-      <c r="AS46" s="82"/>
-      <c r="AT46" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU46" s="65"/>
-      <c r="AV46" s="65"/>
-      <c r="AW46" s="66"/>
-      <c r="AX46" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY46" s="65"/>
-      <c r="AZ46" s="65"/>
-      <c r="BA46" s="65"/>
-      <c r="BB46" s="65"/>
-      <c r="BC46" s="66"/>
-      <c r="BD46" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE46" s="66"/>
-      <c r="BF46" s="84"/>
-      <c r="BG46" s="85"/>
-      <c r="BH46" s="85"/>
-      <c r="BI46" s="85"/>
-      <c r="BJ46" s="85"/>
-      <c r="BK46" s="85"/>
-      <c r="BL46" s="85"/>
-      <c r="BM46" s="85"/>
-      <c r="BN46" s="85"/>
-      <c r="BO46" s="85"/>
-      <c r="BP46" s="85"/>
-      <c r="BQ46" s="85"/>
-      <c r="BR46" s="85"/>
-      <c r="BS46" s="85"/>
-      <c r="BT46" s="85"/>
-      <c r="BU46" s="86"/>
-    </row>
-    <row r="47" spans="2:141" ht="38" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="35"/>
-      <c r="C47" s="92">
-        <f t="shared" ref="C47:C48" si="0">ROW()-ROW($C$43)</f>
-        <v>4</v>
-      </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="M47" s="66"/>
-      <c r="N47" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="O47" s="78"/>
-      <c r="P47" s="78"/>
-      <c r="Q47" s="78"/>
-      <c r="R47" s="78"/>
-      <c r="S47" s="78"/>
-      <c r="T47" s="78"/>
-      <c r="U47" s="78"/>
-      <c r="V47" s="78"/>
-      <c r="W47" s="78"/>
-      <c r="X47" s="78"/>
-      <c r="Y47" s="78"/>
-      <c r="Z47" s="78"/>
-      <c r="AA47" s="78"/>
-      <c r="AB47" s="78"/>
-      <c r="AC47" s="78"/>
-      <c r="AD47" s="78"/>
-      <c r="AE47" s="79"/>
-      <c r="AF47" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG47" s="62"/>
-      <c r="AH47" s="62"/>
-      <c r="AI47" s="62"/>
-      <c r="AJ47" s="62"/>
-      <c r="AK47" s="62"/>
-      <c r="AL47" s="62"/>
-      <c r="AM47" s="62"/>
-      <c r="AN47" s="63"/>
-      <c r="AO47" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP47" s="62"/>
-      <c r="AQ47" s="62"/>
-      <c r="AR47" s="62"/>
-      <c r="AS47" s="63"/>
-      <c r="AT47" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU47" s="65"/>
-      <c r="AV47" s="65"/>
-      <c r="AW47" s="66"/>
-      <c r="AX47" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY47" s="65"/>
-      <c r="AZ47" s="65"/>
-      <c r="BA47" s="65"/>
-      <c r="BB47" s="65"/>
-      <c r="BC47" s="66"/>
-      <c r="BD47" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE47" s="66"/>
-      <c r="BF47" s="64"/>
-      <c r="BG47" s="65"/>
-      <c r="BH47" s="65"/>
-      <c r="BI47" s="65"/>
-      <c r="BJ47" s="65"/>
-      <c r="BK47" s="65"/>
-      <c r="BL47" s="65"/>
-      <c r="BM47" s="65"/>
-      <c r="BN47" s="65"/>
-      <c r="BO47" s="65"/>
-      <c r="BP47" s="65"/>
-      <c r="BQ47" s="65"/>
-      <c r="BR47" s="65"/>
-      <c r="BS47" s="65"/>
-      <c r="BT47" s="65"/>
-      <c r="BU47" s="66"/>
-    </row>
-    <row r="48" spans="2:141" x14ac:dyDescent="0.25">
-      <c r="B48" s="35"/>
-      <c r="C48" s="92">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D48" s="93"/>
-      <c r="E48" s="64" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="66"/>
-      <c r="N48" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="O48" s="62"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
-      <c r="W48" s="62"/>
-      <c r="X48" s="62"/>
-      <c r="Y48" s="62"/>
-      <c r="Z48" s="62"/>
-      <c r="AA48" s="62"/>
-      <c r="AB48" s="62"/>
-      <c r="AC48" s="62"/>
-      <c r="AD48" s="62"/>
-      <c r="AE48" s="63"/>
-      <c r="AF48" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG48" s="62"/>
-      <c r="AH48" s="62"/>
-      <c r="AI48" s="62"/>
-      <c r="AJ48" s="62"/>
-      <c r="AK48" s="62"/>
-      <c r="AL48" s="62"/>
-      <c r="AM48" s="62"/>
-      <c r="AN48" s="63"/>
-      <c r="AO48" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP48" s="62"/>
-      <c r="AQ48" s="62"/>
-      <c r="AR48" s="62"/>
-      <c r="AS48" s="63"/>
-      <c r="AT48" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU48" s="65"/>
-      <c r="AV48" s="65"/>
-      <c r="AW48" s="66"/>
-      <c r="AX48" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY48" s="65"/>
-      <c r="AZ48" s="65"/>
-      <c r="BA48" s="65"/>
-      <c r="BB48" s="65"/>
-      <c r="BC48" s="66"/>
-      <c r="BD48" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE48" s="66"/>
-      <c r="BF48" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG48" s="65"/>
-      <c r="BH48" s="65"/>
-      <c r="BI48" s="65"/>
-      <c r="BJ48" s="65"/>
-      <c r="BK48" s="65"/>
-      <c r="BL48" s="65"/>
-      <c r="BM48" s="65"/>
-      <c r="BN48" s="65"/>
-      <c r="BO48" s="65"/>
-      <c r="BP48" s="65"/>
-      <c r="BQ48" s="65"/>
-      <c r="BR48" s="65"/>
-      <c r="BS48" s="65"/>
-      <c r="BT48" s="65"/>
-      <c r="BU48" s="66"/>
-    </row>
-    <row r="49" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="B49" s="35"/>
-      <c r="C49" s="92">
-        <f>ROW()-ROW($C$43)</f>
-        <v>6</v>
-      </c>
-      <c r="D49" s="93"/>
-      <c r="E49" s="64" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="45"/>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45"/>
-      <c r="J49" s="45"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="45"/>
-      <c r="M49" s="46"/>
-      <c r="N49" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="O49" s="81"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="81"/>
-      <c r="R49" s="81"/>
-      <c r="S49" s="81"/>
-      <c r="T49" s="81"/>
-      <c r="U49" s="81"/>
-      <c r="V49" s="81"/>
-      <c r="W49" s="81"/>
-      <c r="X49" s="81"/>
-      <c r="Y49" s="81"/>
-      <c r="Z49" s="81"/>
-      <c r="AA49" s="81"/>
-      <c r="AB49" s="81"/>
-      <c r="AC49" s="81"/>
-      <c r="AD49" s="81"/>
-      <c r="AE49" s="82"/>
-      <c r="AF49" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG49" s="62"/>
-      <c r="AH49" s="62"/>
-      <c r="AI49" s="62"/>
-      <c r="AJ49" s="62"/>
-      <c r="AK49" s="62"/>
-      <c r="AL49" s="62"/>
-      <c r="AM49" s="62"/>
-      <c r="AN49" s="63"/>
-      <c r="AO49" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP49" s="62"/>
-      <c r="AQ49" s="62"/>
-      <c r="AR49" s="62"/>
-      <c r="AS49" s="63"/>
-      <c r="AT49" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU49" s="65"/>
-      <c r="AV49" s="65"/>
-      <c r="AW49" s="66"/>
-      <c r="AX49" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY49" s="65"/>
-      <c r="AZ49" s="65"/>
-      <c r="BA49" s="65"/>
-      <c r="BB49" s="65"/>
-      <c r="BC49" s="66"/>
-      <c r="BD49" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="BE49" s="66"/>
-      <c r="BF49" s="84" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG49" s="85"/>
-      <c r="BH49" s="85"/>
-      <c r="BI49" s="85"/>
-      <c r="BJ49" s="85"/>
-      <c r="BK49" s="85"/>
-      <c r="BL49" s="85"/>
-      <c r="BM49" s="85"/>
-      <c r="BN49" s="85"/>
-      <c r="BO49" s="85"/>
-      <c r="BP49" s="85"/>
-      <c r="BQ49" s="85"/>
-      <c r="BR49" s="85"/>
-      <c r="BS49" s="85"/>
-      <c r="BT49" s="85"/>
-      <c r="BU49" s="86"/>
-    </row>
-    <row r="50" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-    </row>
-    <row r="51" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C51" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="19"/>
-      <c r="AI51" s="19"/>
-      <c r="AJ51" s="19"/>
-      <c r="AK51" s="19"/>
-      <c r="AL51" s="19"/>
-      <c r="AM51" s="19"/>
-      <c r="AN51" s="19"/>
-      <c r="AO51" s="19"/>
-      <c r="AP51" s="19"/>
-      <c r="AQ51" s="19"/>
-      <c r="AR51" s="19"/>
-      <c r="AS51" s="19"/>
-      <c r="AT51" s="19"/>
-      <c r="AU51" s="19"/>
-      <c r="AV51" s="19"/>
-      <c r="AW51" s="19"/>
-      <c r="AX51" s="19"/>
-      <c r="AY51" s="19"/>
-      <c r="AZ51" s="19"/>
-      <c r="BA51" s="19"/>
-      <c r="BB51" s="19"/>
-      <c r="BC51" s="19"/>
-      <c r="BD51" s="19"/>
-      <c r="BE51" s="19"/>
-      <c r="BF51" s="19"/>
-      <c r="BG51" s="19"/>
-      <c r="BH51" s="19"/>
-      <c r="BI51" s="19"/>
-      <c r="BJ51" s="19"/>
-      <c r="BK51" s="19"/>
-      <c r="BL51" s="19"/>
-      <c r="BM51" s="19"/>
-      <c r="BN51" s="19"/>
-      <c r="BO51" s="19"/>
-      <c r="BP51" s="19"/>
-      <c r="BQ51" s="19"/>
-      <c r="BR51" s="19"/>
-      <c r="BS51" s="19"/>
-      <c r="BT51" s="19"/>
-      <c r="BU51" s="19"/>
-    </row>
-    <row r="52" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C52" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52" s="91"/>
-      <c r="E52" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34"/>
-      <c r="H52" s="34"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="34"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="O52" s="34"/>
-      <c r="P52" s="34"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="34"/>
-      <c r="S52" s="34"/>
-      <c r="T52" s="34"/>
-      <c r="U52" s="34"/>
-      <c r="V52" s="34"/>
-      <c r="W52" s="34"/>
-      <c r="X52" s="34"/>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="34"/>
-      <c r="AC52" s="34"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="34"/>
-      <c r="AF52" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG52" s="34"/>
-      <c r="AH52" s="34"/>
-      <c r="AI52" s="34"/>
-      <c r="AJ52" s="34"/>
-      <c r="AK52" s="34"/>
-      <c r="AL52" s="34"/>
-      <c r="AM52" s="34"/>
-      <c r="AN52" s="34"/>
-      <c r="AO52" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP52" s="34"/>
-      <c r="AQ52" s="34"/>
-      <c r="AR52" s="34"/>
-      <c r="AS52" s="34"/>
-      <c r="AT52" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="AU52" s="34"/>
-      <c r="AV52" s="34"/>
-      <c r="AW52" s="34"/>
-      <c r="AX52" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="AY52" s="34"/>
-      <c r="AZ52" s="34"/>
-      <c r="BA52" s="34"/>
-      <c r="BB52" s="34"/>
-      <c r="BC52" s="33"/>
-      <c r="BD52" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="BE52" s="34"/>
-      <c r="BF52" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG52" s="34"/>
-      <c r="BH52" s="34"/>
-      <c r="BI52" s="34"/>
-      <c r="BJ52" s="34"/>
-      <c r="BK52" s="34"/>
-      <c r="BL52" s="34"/>
-      <c r="BM52" s="34"/>
-      <c r="BN52" s="34"/>
-      <c r="BO52" s="34"/>
-      <c r="BP52" s="34"/>
-      <c r="BQ52" s="34"/>
-      <c r="BR52" s="34"/>
-      <c r="BS52" s="34"/>
-      <c r="BT52" s="34"/>
-      <c r="BU52" s="33"/>
+      <c r="BE52" s="66"/>
+      <c r="BF52" s="121"/>
+      <c r="BG52" s="113"/>
+      <c r="BH52" s="113"/>
+      <c r="BI52" s="113"/>
+      <c r="BJ52" s="113"/>
+      <c r="BK52" s="113"/>
+      <c r="BL52" s="113"/>
+      <c r="BM52" s="113"/>
+      <c r="BN52" s="113"/>
+      <c r="BO52" s="113"/>
+      <c r="BP52" s="113"/>
+      <c r="BQ52" s="113"/>
+      <c r="BR52" s="113"/>
+      <c r="BS52" s="113"/>
+      <c r="BT52" s="113"/>
+      <c r="BU52" s="114"/>
     </row>
     <row r="53" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B53" s="35"/>
-      <c r="C53" s="92">
-        <f>ROW()-ROW($C$52)</f>
-        <v>1</v>
-      </c>
-      <c r="D53" s="93"/>
-      <c r="E53" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="F53" s="65"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-      <c r="M53" s="66"/>
-      <c r="N53" s="80" t="s">
-        <v>38</v>
-      </c>
-      <c r="O53" s="81"/>
-      <c r="P53" s="81"/>
-      <c r="Q53" s="81"/>
-      <c r="R53" s="81"/>
-      <c r="S53" s="81"/>
-      <c r="T53" s="81"/>
-      <c r="U53" s="81"/>
-      <c r="V53" s="81"/>
-      <c r="W53" s="81"/>
-      <c r="X53" s="81"/>
-      <c r="Y53" s="81"/>
-      <c r="Z53" s="81"/>
-      <c r="AA53" s="81"/>
-      <c r="AB53" s="81"/>
-      <c r="AC53" s="81"/>
-      <c r="AD53" s="81"/>
-      <c r="AE53" s="82"/>
-      <c r="AF53" s="80" t="s">
+      <c r="C53" s="110">
+        <f>ROW()-ROW($C$51)</f>
+        <v>2</v>
+      </c>
+      <c r="D53" s="111"/>
+      <c r="E53" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="112" t="s">
+        <v>71</v>
+      </c>
+      <c r="O53" s="113"/>
+      <c r="P53" s="113"/>
+      <c r="Q53" s="113"/>
+      <c r="R53" s="113"/>
+      <c r="S53" s="113"/>
+      <c r="T53" s="113"/>
+      <c r="U53" s="113"/>
+      <c r="V53" s="113"/>
+      <c r="W53" s="113"/>
+      <c r="X53" s="113"/>
+      <c r="Y53" s="113"/>
+      <c r="Z53" s="113"/>
+      <c r="AA53" s="113"/>
+      <c r="AB53" s="113"/>
+      <c r="AC53" s="113"/>
+      <c r="AD53" s="113"/>
+      <c r="AE53" s="114"/>
+      <c r="AF53" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="AG53" s="81"/>
-      <c r="AH53" s="81"/>
-      <c r="AI53" s="81"/>
-      <c r="AJ53" s="81"/>
-      <c r="AK53" s="81"/>
-      <c r="AL53" s="81"/>
-      <c r="AM53" s="81"/>
-      <c r="AN53" s="82"/>
-      <c r="AO53" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="AP53" s="81"/>
-      <c r="AQ53" s="81"/>
-      <c r="AR53" s="81"/>
-      <c r="AS53" s="82"/>
-      <c r="AT53" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU53" s="88"/>
-      <c r="AV53" s="88"/>
-      <c r="AW53" s="89"/>
-      <c r="AX53" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY53" s="81"/>
-      <c r="AZ53" s="81"/>
-      <c r="BA53" s="81"/>
-      <c r="BB53" s="81"/>
-      <c r="BC53" s="82"/>
-      <c r="BD53" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE53" s="82"/>
-      <c r="BF53" s="84"/>
-      <c r="BG53" s="85"/>
-      <c r="BH53" s="85"/>
-      <c r="BI53" s="85"/>
-      <c r="BJ53" s="85"/>
-      <c r="BK53" s="85"/>
-      <c r="BL53" s="85"/>
-      <c r="BM53" s="85"/>
-      <c r="BN53" s="85"/>
-      <c r="BO53" s="85"/>
-      <c r="BP53" s="85"/>
-      <c r="BQ53" s="85"/>
-      <c r="BR53" s="85"/>
-      <c r="BS53" s="85"/>
-      <c r="BT53" s="85"/>
-      <c r="BU53" s="86"/>
+      <c r="AG53" s="113"/>
+      <c r="AH53" s="113"/>
+      <c r="AI53" s="113"/>
+      <c r="AJ53" s="113"/>
+      <c r="AK53" s="113"/>
+      <c r="AL53" s="113"/>
+      <c r="AM53" s="113"/>
+      <c r="AN53" s="114"/>
+      <c r="AO53" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP53" s="113"/>
+      <c r="AQ53" s="113"/>
+      <c r="AR53" s="113"/>
+      <c r="AS53" s="114"/>
+      <c r="AT53" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU53" s="65"/>
+      <c r="AV53" s="65"/>
+      <c r="AW53" s="66"/>
+      <c r="AX53" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY53" s="65"/>
+      <c r="AZ53" s="65"/>
+      <c r="BA53" s="65"/>
+      <c r="BB53" s="65"/>
+      <c r="BC53" s="66"/>
+      <c r="BD53" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE53" s="66"/>
+      <c r="BF53" s="121"/>
+      <c r="BG53" s="113"/>
+      <c r="BH53" s="113"/>
+      <c r="BI53" s="113"/>
+      <c r="BJ53" s="113"/>
+      <c r="BK53" s="113"/>
+      <c r="BL53" s="113"/>
+      <c r="BM53" s="113"/>
+      <c r="BN53" s="113"/>
+      <c r="BO53" s="113"/>
+      <c r="BP53" s="113"/>
+      <c r="BQ53" s="113"/>
+      <c r="BR53" s="113"/>
+      <c r="BS53" s="113"/>
+      <c r="BT53" s="113"/>
+      <c r="BU53" s="114"/>
     </row>
     <row r="54" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B54" s="35"/>
-      <c r="C54" s="92">
-        <f>ROW()-ROW($C$52)</f>
-        <v>2</v>
-      </c>
-      <c r="D54" s="93"/>
-      <c r="E54" s="84" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="O54" s="78"/>
-      <c r="P54" s="78"/>
-      <c r="Q54" s="78"/>
-      <c r="R54" s="78"/>
-      <c r="S54" s="78"/>
-      <c r="T54" s="78"/>
-      <c r="U54" s="78"/>
-      <c r="V54" s="78"/>
-      <c r="W54" s="78"/>
-      <c r="X54" s="78"/>
-      <c r="Y54" s="78"/>
-      <c r="Z54" s="78"/>
-      <c r="AA54" s="78"/>
-      <c r="AB54" s="78"/>
-      <c r="AC54" s="78"/>
-      <c r="AD54" s="78"/>
-      <c r="AE54" s="79"/>
-      <c r="AF54" s="80" t="s">
+      <c r="C54" s="110">
+        <f>ROW()-ROW($C$51)</f>
+        <v>3</v>
+      </c>
+      <c r="D54" s="111"/>
+      <c r="E54" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="O54" s="113"/>
+      <c r="P54" s="113"/>
+      <c r="Q54" s="113"/>
+      <c r="R54" s="113"/>
+      <c r="S54" s="113"/>
+      <c r="T54" s="113"/>
+      <c r="U54" s="113"/>
+      <c r="V54" s="113"/>
+      <c r="W54" s="113"/>
+      <c r="X54" s="113"/>
+      <c r="Y54" s="113"/>
+      <c r="Z54" s="113"/>
+      <c r="AA54" s="113"/>
+      <c r="AB54" s="113"/>
+      <c r="AC54" s="113"/>
+      <c r="AD54" s="113"/>
+      <c r="AE54" s="114"/>
+      <c r="AF54" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="AG54" s="81"/>
-      <c r="AH54" s="81"/>
-      <c r="AI54" s="81"/>
-      <c r="AJ54" s="81"/>
-      <c r="AK54" s="81"/>
-      <c r="AL54" s="81"/>
-      <c r="AM54" s="81"/>
-      <c r="AN54" s="82"/>
-      <c r="AO54" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP54" s="81"/>
-      <c r="AQ54" s="81"/>
-      <c r="AR54" s="81"/>
-      <c r="AS54" s="82"/>
-      <c r="AT54" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU54" s="88"/>
-      <c r="AV54" s="88"/>
-      <c r="AW54" s="89"/>
-      <c r="AX54" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY54" s="81"/>
-      <c r="AZ54" s="81"/>
-      <c r="BA54" s="81"/>
-      <c r="BB54" s="81"/>
-      <c r="BC54" s="82"/>
-      <c r="BD54" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE54" s="82"/>
-      <c r="BF54" s="80"/>
-      <c r="BG54" s="81"/>
-      <c r="BH54" s="81"/>
-      <c r="BI54" s="81"/>
-      <c r="BJ54" s="81"/>
-      <c r="BK54" s="81"/>
-      <c r="BL54" s="81"/>
-      <c r="BM54" s="81"/>
-      <c r="BN54" s="81"/>
-      <c r="BO54" s="81"/>
-      <c r="BP54" s="81"/>
-      <c r="BQ54" s="81"/>
-      <c r="BR54" s="81"/>
-      <c r="BS54" s="81"/>
-      <c r="BT54" s="81"/>
-      <c r="BU54" s="82"/>
-    </row>
-    <row r="55" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="AG54" s="113"/>
+      <c r="AH54" s="113"/>
+      <c r="AI54" s="113"/>
+      <c r="AJ54" s="113"/>
+      <c r="AK54" s="113"/>
+      <c r="AL54" s="113"/>
+      <c r="AM54" s="113"/>
+      <c r="AN54" s="114"/>
+      <c r="AO54" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP54" s="113"/>
+      <c r="AQ54" s="113"/>
+      <c r="AR54" s="113"/>
+      <c r="AS54" s="114"/>
+      <c r="AT54" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU54" s="65"/>
+      <c r="AV54" s="65"/>
+      <c r="AW54" s="66"/>
+      <c r="AX54" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY54" s="65"/>
+      <c r="AZ54" s="65"/>
+      <c r="BA54" s="65"/>
+      <c r="BB54" s="65"/>
+      <c r="BC54" s="66"/>
+      <c r="BD54" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE54" s="66"/>
+      <c r="BF54" s="115"/>
+      <c r="BG54" s="116"/>
+      <c r="BH54" s="116"/>
+      <c r="BI54" s="116"/>
+      <c r="BJ54" s="116"/>
+      <c r="BK54" s="116"/>
+      <c r="BL54" s="116"/>
+      <c r="BM54" s="116"/>
+      <c r="BN54" s="116"/>
+      <c r="BO54" s="116"/>
+      <c r="BP54" s="116"/>
+      <c r="BQ54" s="116"/>
+      <c r="BR54" s="116"/>
+      <c r="BS54" s="116"/>
+      <c r="BT54" s="116"/>
+      <c r="BU54" s="117"/>
+    </row>
+    <row r="55" spans="2:73" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="35"/>
-      <c r="C55" s="92">
-        <f>ROW()-ROW($C$52)</f>
-        <v>3</v>
-      </c>
-      <c r="D55" s="93"/>
-      <c r="E55" s="64" t="s">
-        <v>36</v>
+      <c r="C55" s="110">
+        <f t="shared" ref="C55:C56" si="0">ROW()-ROW($C$51)</f>
+        <v>4</v>
+      </c>
+      <c r="D55" s="111"/>
+      <c r="E55" s="44" t="s">
+        <v>64</v>
       </c>
       <c r="F55" s="65"/>
       <c r="G55" s="65"/>
@@ -6837,88 +7294,88 @@
       <c r="K55" s="65"/>
       <c r="L55" s="65"/>
       <c r="M55" s="66"/>
-      <c r="N55" s="80" t="s">
-        <v>40</v>
-      </c>
-      <c r="O55" s="81"/>
-      <c r="P55" s="81"/>
-      <c r="Q55" s="81"/>
-      <c r="R55" s="81"/>
-      <c r="S55" s="81"/>
-      <c r="T55" s="81"/>
-      <c r="U55" s="81"/>
-      <c r="V55" s="81"/>
-      <c r="W55" s="81"/>
-      <c r="X55" s="81"/>
-      <c r="Y55" s="81"/>
-      <c r="Z55" s="81"/>
-      <c r="AA55" s="81"/>
-      <c r="AB55" s="81"/>
-      <c r="AC55" s="81"/>
-      <c r="AD55" s="81"/>
-      <c r="AE55" s="82"/>
-      <c r="AF55" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG55" s="81"/>
-      <c r="AH55" s="81"/>
-      <c r="AI55" s="81"/>
-      <c r="AJ55" s="81"/>
-      <c r="AK55" s="81"/>
-      <c r="AL55" s="81"/>
-      <c r="AM55" s="81"/>
-      <c r="AN55" s="82"/>
-      <c r="AO55" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP55" s="81"/>
-      <c r="AQ55" s="81"/>
-      <c r="AR55" s="81"/>
-      <c r="AS55" s="82"/>
-      <c r="AT55" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU55" s="88"/>
-      <c r="AV55" s="88"/>
-      <c r="AW55" s="89"/>
-      <c r="AX55" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY55" s="81"/>
-      <c r="AZ55" s="81"/>
-      <c r="BA55" s="81"/>
-      <c r="BB55" s="81"/>
-      <c r="BC55" s="82"/>
-      <c r="BD55" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE55" s="82"/>
-      <c r="BF55" s="83"/>
-      <c r="BG55" s="81"/>
-      <c r="BH55" s="81"/>
-      <c r="BI55" s="81"/>
-      <c r="BJ55" s="81"/>
-      <c r="BK55" s="81"/>
-      <c r="BL55" s="81"/>
-      <c r="BM55" s="81"/>
-      <c r="BN55" s="81"/>
-      <c r="BO55" s="81"/>
-      <c r="BP55" s="81"/>
-      <c r="BQ55" s="81"/>
-      <c r="BR55" s="81"/>
-      <c r="BS55" s="81"/>
-      <c r="BT55" s="81"/>
-      <c r="BU55" s="82"/>
+      <c r="N55" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="O55" s="131"/>
+      <c r="P55" s="131"/>
+      <c r="Q55" s="131"/>
+      <c r="R55" s="131"/>
+      <c r="S55" s="131"/>
+      <c r="T55" s="131"/>
+      <c r="U55" s="131"/>
+      <c r="V55" s="131"/>
+      <c r="W55" s="131"/>
+      <c r="X55" s="131"/>
+      <c r="Y55" s="131"/>
+      <c r="Z55" s="131"/>
+      <c r="AA55" s="131"/>
+      <c r="AB55" s="131"/>
+      <c r="AC55" s="131"/>
+      <c r="AD55" s="131"/>
+      <c r="AE55" s="132"/>
+      <c r="AF55" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG55" s="62"/>
+      <c r="AH55" s="62"/>
+      <c r="AI55" s="62"/>
+      <c r="AJ55" s="62"/>
+      <c r="AK55" s="62"/>
+      <c r="AL55" s="62"/>
+      <c r="AM55" s="62"/>
+      <c r="AN55" s="63"/>
+      <c r="AO55" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP55" s="62"/>
+      <c r="AQ55" s="62"/>
+      <c r="AR55" s="62"/>
+      <c r="AS55" s="63"/>
+      <c r="AT55" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU55" s="65"/>
+      <c r="AV55" s="65"/>
+      <c r="AW55" s="66"/>
+      <c r="AX55" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY55" s="65"/>
+      <c r="AZ55" s="65"/>
+      <c r="BA55" s="65"/>
+      <c r="BB55" s="65"/>
+      <c r="BC55" s="66"/>
+      <c r="BD55" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE55" s="66"/>
+      <c r="BF55" s="64"/>
+      <c r="BG55" s="65"/>
+      <c r="BH55" s="65"/>
+      <c r="BI55" s="65"/>
+      <c r="BJ55" s="65"/>
+      <c r="BK55" s="65"/>
+      <c r="BL55" s="65"/>
+      <c r="BM55" s="65"/>
+      <c r="BN55" s="65"/>
+      <c r="BO55" s="65"/>
+      <c r="BP55" s="65"/>
+      <c r="BQ55" s="65"/>
+      <c r="BR55" s="65"/>
+      <c r="BS55" s="65"/>
+      <c r="BT55" s="65"/>
+      <c r="BU55" s="66"/>
     </row>
     <row r="56" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B56" s="35"/>
-      <c r="C56" s="92">
-        <f>ROW()-ROW($C$52)</f>
-        <v>4</v>
-      </c>
-      <c r="D56" s="93"/>
+      <c r="C56" s="110">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D56" s="111"/>
       <c r="E56" s="64" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="F56" s="65"/>
       <c r="G56" s="65"/>
@@ -6928,645 +7385,2461 @@
       <c r="K56" s="65"/>
       <c r="L56" s="65"/>
       <c r="M56" s="66"/>
-      <c r="N56" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="O56" s="81"/>
-      <c r="P56" s="81"/>
-      <c r="Q56" s="81"/>
-      <c r="R56" s="81"/>
-      <c r="S56" s="81"/>
-      <c r="T56" s="81"/>
-      <c r="U56" s="81"/>
-      <c r="V56" s="81"/>
-      <c r="W56" s="81"/>
-      <c r="X56" s="81"/>
-      <c r="Y56" s="81"/>
-      <c r="Z56" s="81"/>
-      <c r="AA56" s="81"/>
-      <c r="AB56" s="81"/>
-      <c r="AC56" s="81"/>
-      <c r="AD56" s="81"/>
-      <c r="AE56" s="82"/>
-      <c r="AF56" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG56" s="81"/>
-      <c r="AH56" s="81"/>
-      <c r="AI56" s="81"/>
-      <c r="AJ56" s="81"/>
-      <c r="AK56" s="81"/>
-      <c r="AL56" s="81"/>
-      <c r="AM56" s="81"/>
-      <c r="AN56" s="82"/>
-      <c r="AO56" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP56" s="81"/>
-      <c r="AQ56" s="81"/>
-      <c r="AR56" s="81"/>
-      <c r="AS56" s="82"/>
-      <c r="AT56" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU56" s="88"/>
-      <c r="AV56" s="88"/>
-      <c r="AW56" s="89"/>
-      <c r="AX56" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY56" s="81"/>
-      <c r="AZ56" s="81"/>
-      <c r="BA56" s="81"/>
-      <c r="BB56" s="81"/>
-      <c r="BC56" s="82"/>
-      <c r="BD56" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE56" s="82"/>
-      <c r="BF56" s="84"/>
-      <c r="BG56" s="85"/>
-      <c r="BH56" s="85"/>
-      <c r="BI56" s="85"/>
-      <c r="BJ56" s="85"/>
-      <c r="BK56" s="85"/>
-      <c r="BL56" s="85"/>
-      <c r="BM56" s="85"/>
-      <c r="BN56" s="85"/>
-      <c r="BO56" s="85"/>
-      <c r="BP56" s="85"/>
-      <c r="BQ56" s="85"/>
-      <c r="BR56" s="85"/>
-      <c r="BS56" s="85"/>
-      <c r="BT56" s="85"/>
-      <c r="BU56" s="86"/>
+      <c r="N56" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="62"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="62"/>
+      <c r="Z56" s="62"/>
+      <c r="AA56" s="62"/>
+      <c r="AB56" s="62"/>
+      <c r="AC56" s="62"/>
+      <c r="AD56" s="62"/>
+      <c r="AE56" s="63"/>
+      <c r="AF56" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG56" s="62"/>
+      <c r="AH56" s="62"/>
+      <c r="AI56" s="62"/>
+      <c r="AJ56" s="62"/>
+      <c r="AK56" s="62"/>
+      <c r="AL56" s="62"/>
+      <c r="AM56" s="62"/>
+      <c r="AN56" s="63"/>
+      <c r="AO56" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP56" s="62"/>
+      <c r="AQ56" s="62"/>
+      <c r="AR56" s="62"/>
+      <c r="AS56" s="63"/>
+      <c r="AT56" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU56" s="65"/>
+      <c r="AV56" s="65"/>
+      <c r="AW56" s="66"/>
+      <c r="AX56" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY56" s="65"/>
+      <c r="AZ56" s="65"/>
+      <c r="BA56" s="65"/>
+      <c r="BB56" s="65"/>
+      <c r="BC56" s="66"/>
+      <c r="BD56" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE56" s="66"/>
+      <c r="BF56" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG56" s="65"/>
+      <c r="BH56" s="65"/>
+      <c r="BI56" s="65"/>
+      <c r="BJ56" s="65"/>
+      <c r="BK56" s="65"/>
+      <c r="BL56" s="65"/>
+      <c r="BM56" s="65"/>
+      <c r="BN56" s="65"/>
+      <c r="BO56" s="65"/>
+      <c r="BP56" s="65"/>
+      <c r="BQ56" s="65"/>
+      <c r="BR56" s="65"/>
+      <c r="BS56" s="65"/>
+      <c r="BT56" s="65"/>
+      <c r="BU56" s="66"/>
     </row>
     <row r="57" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B57" s="35"/>
-      <c r="C57" s="92">
-        <f>ROW()-ROW($C$52)</f>
+      <c r="C57" s="110">
+        <f>ROW()-ROW($C$51)</f>
+        <v>6</v>
+      </c>
+      <c r="D57" s="111"/>
+      <c r="E57" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="45"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="112" t="s">
+        <v>75</v>
+      </c>
+      <c r="O57" s="113"/>
+      <c r="P57" s="113"/>
+      <c r="Q57" s="113"/>
+      <c r="R57" s="113"/>
+      <c r="S57" s="113"/>
+      <c r="T57" s="113"/>
+      <c r="U57" s="113"/>
+      <c r="V57" s="113"/>
+      <c r="W57" s="113"/>
+      <c r="X57" s="113"/>
+      <c r="Y57" s="113"/>
+      <c r="Z57" s="113"/>
+      <c r="AA57" s="113"/>
+      <c r="AB57" s="113"/>
+      <c r="AC57" s="113"/>
+      <c r="AD57" s="113"/>
+      <c r="AE57" s="114"/>
+      <c r="AF57" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG57" s="62"/>
+      <c r="AH57" s="62"/>
+      <c r="AI57" s="62"/>
+      <c r="AJ57" s="62"/>
+      <c r="AK57" s="62"/>
+      <c r="AL57" s="62"/>
+      <c r="AM57" s="62"/>
+      <c r="AN57" s="63"/>
+      <c r="AO57" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP57" s="62"/>
+      <c r="AQ57" s="62"/>
+      <c r="AR57" s="62"/>
+      <c r="AS57" s="63"/>
+      <c r="AT57" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU57" s="65"/>
+      <c r="AV57" s="65"/>
+      <c r="AW57" s="66"/>
+      <c r="AX57" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY57" s="65"/>
+      <c r="AZ57" s="65"/>
+      <c r="BA57" s="65"/>
+      <c r="BB57" s="65"/>
+      <c r="BC57" s="66"/>
+      <c r="BD57" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE57" s="66"/>
+      <c r="BF57" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG57" s="116"/>
+      <c r="BH57" s="116"/>
+      <c r="BI57" s="116"/>
+      <c r="BJ57" s="116"/>
+      <c r="BK57" s="116"/>
+      <c r="BL57" s="116"/>
+      <c r="BM57" s="116"/>
+      <c r="BN57" s="116"/>
+      <c r="BO57" s="116"/>
+      <c r="BP57" s="116"/>
+      <c r="BQ57" s="116"/>
+      <c r="BR57" s="116"/>
+      <c r="BS57" s="116"/>
+      <c r="BT57" s="116"/>
+      <c r="BU57" s="117"/>
+    </row>
+    <row r="58" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B58" s="35"/>
+      <c r="C58" s="110">
+        <f>ROW()-ROW($C$51)</f>
+        <v>7</v>
+      </c>
+      <c r="D58" s="111"/>
+      <c r="E58" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="77"/>
+      <c r="N58" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="O58" s="113"/>
+      <c r="P58" s="113"/>
+      <c r="Q58" s="113"/>
+      <c r="R58" s="113"/>
+      <c r="S58" s="113"/>
+      <c r="T58" s="113"/>
+      <c r="U58" s="113"/>
+      <c r="V58" s="113"/>
+      <c r="W58" s="113"/>
+      <c r="X58" s="113"/>
+      <c r="Y58" s="113"/>
+      <c r="Z58" s="113"/>
+      <c r="AA58" s="113"/>
+      <c r="AB58" s="113"/>
+      <c r="AC58" s="113"/>
+      <c r="AD58" s="113"/>
+      <c r="AE58" s="114"/>
+      <c r="AF58" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG58" s="73"/>
+      <c r="AH58" s="73"/>
+      <c r="AI58" s="73"/>
+      <c r="AJ58" s="73"/>
+      <c r="AK58" s="73"/>
+      <c r="AL58" s="73"/>
+      <c r="AM58" s="73"/>
+      <c r="AN58" s="74"/>
+      <c r="AO58" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP58" s="73"/>
+      <c r="AQ58" s="73"/>
+      <c r="AR58" s="73"/>
+      <c r="AS58" s="74"/>
+      <c r="AT58" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU58" s="76"/>
+      <c r="AV58" s="76"/>
+      <c r="AW58" s="77"/>
+      <c r="AX58" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY58" s="76"/>
+      <c r="AZ58" s="76"/>
+      <c r="BA58" s="76"/>
+      <c r="BB58" s="76"/>
+      <c r="BC58" s="77"/>
+      <c r="BD58" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="BE58" s="77"/>
+      <c r="BF58" s="115" t="s">
+        <v>98</v>
+      </c>
+      <c r="BG58" s="116"/>
+      <c r="BH58" s="116"/>
+      <c r="BI58" s="116"/>
+      <c r="BJ58" s="116"/>
+      <c r="BK58" s="116"/>
+      <c r="BL58" s="116"/>
+      <c r="BM58" s="116"/>
+      <c r="BN58" s="116"/>
+      <c r="BO58" s="116"/>
+      <c r="BP58" s="116"/>
+      <c r="BQ58" s="116"/>
+      <c r="BR58" s="116"/>
+      <c r="BS58" s="116"/>
+      <c r="BT58" s="116"/>
+      <c r="BU58" s="117"/>
+    </row>
+    <row r="59" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+    </row>
+    <row r="60" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C60" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="19"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="19"/>
+      <c r="T60" s="19"/>
+      <c r="U60" s="19"/>
+      <c r="V60" s="19"/>
+      <c r="W60" s="19"/>
+      <c r="X60" s="19"/>
+      <c r="Y60" s="19"/>
+      <c r="Z60" s="19"/>
+      <c r="AA60" s="19"/>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="19"/>
+      <c r="AJ60" s="19"/>
+      <c r="AK60" s="19"/>
+      <c r="AL60" s="19"/>
+      <c r="AM60" s="19"/>
+      <c r="AN60" s="19"/>
+      <c r="AO60" s="19"/>
+      <c r="AP60" s="19"/>
+      <c r="AQ60" s="19"/>
+      <c r="AR60" s="19"/>
+      <c r="AS60" s="19"/>
+      <c r="AT60" s="19"/>
+      <c r="AU60" s="19"/>
+      <c r="AV60" s="19"/>
+      <c r="AW60" s="19"/>
+      <c r="AX60" s="19"/>
+      <c r="AY60" s="19"/>
+      <c r="AZ60" s="19"/>
+      <c r="BA60" s="19"/>
+      <c r="BB60" s="19"/>
+      <c r="BC60" s="19"/>
+      <c r="BD60" s="19"/>
+      <c r="BE60" s="19"/>
+      <c r="BF60" s="19"/>
+      <c r="BG60" s="19"/>
+      <c r="BH60" s="19"/>
+      <c r="BI60" s="19"/>
+      <c r="BJ60" s="19"/>
+      <c r="BK60" s="19"/>
+      <c r="BL60" s="19"/>
+      <c r="BM60" s="19"/>
+      <c r="BN60" s="19"/>
+      <c r="BO60" s="19"/>
+      <c r="BP60" s="19"/>
+      <c r="BQ60" s="19"/>
+      <c r="BR60" s="19"/>
+      <c r="BS60" s="19"/>
+      <c r="BT60" s="19"/>
+      <c r="BU60" s="19"/>
+    </row>
+    <row r="61" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C61" s="126" t="s">
+        <v>99</v>
+      </c>
+      <c r="D61" s="127"/>
+      <c r="E61" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
+      <c r="L61" s="34"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="O61" s="34"/>
+      <c r="P61" s="34"/>
+      <c r="Q61" s="34"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="34"/>
+      <c r="T61" s="34"/>
+      <c r="U61" s="34"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="34"/>
+      <c r="X61" s="34"/>
+      <c r="Y61" s="34"/>
+      <c r="Z61" s="34"/>
+      <c r="AA61" s="34"/>
+      <c r="AB61" s="34"/>
+      <c r="AC61" s="34"/>
+      <c r="AD61" s="34"/>
+      <c r="AE61" s="34"/>
+      <c r="AF61" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG61" s="34"/>
+      <c r="AH61" s="34"/>
+      <c r="AI61" s="34"/>
+      <c r="AJ61" s="34"/>
+      <c r="AK61" s="34"/>
+      <c r="AL61" s="34"/>
+      <c r="AM61" s="34"/>
+      <c r="AN61" s="34"/>
+      <c r="AO61" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP61" s="34"/>
+      <c r="AQ61" s="34"/>
+      <c r="AR61" s="34"/>
+      <c r="AS61" s="34"/>
+      <c r="AT61" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU61" s="34"/>
+      <c r="AV61" s="34"/>
+      <c r="AW61" s="34"/>
+      <c r="AX61" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY61" s="34"/>
+      <c r="AZ61" s="34"/>
+      <c r="BA61" s="34"/>
+      <c r="BB61" s="34"/>
+      <c r="BC61" s="33"/>
+      <c r="BD61" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE61" s="34"/>
+      <c r="BF61" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG61" s="34"/>
+      <c r="BH61" s="34"/>
+      <c r="BI61" s="34"/>
+      <c r="BJ61" s="34"/>
+      <c r="BK61" s="34"/>
+      <c r="BL61" s="34"/>
+      <c r="BM61" s="34"/>
+      <c r="BN61" s="34"/>
+      <c r="BO61" s="34"/>
+      <c r="BP61" s="34"/>
+      <c r="BQ61" s="34"/>
+      <c r="BR61" s="34"/>
+      <c r="BS61" s="34"/>
+      <c r="BT61" s="34"/>
+      <c r="BU61" s="33"/>
+    </row>
+    <row r="62" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B62" s="35"/>
+      <c r="C62" s="110">
+        <f>ROW()-ROW($C$61)</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="111"/>
+      <c r="E62" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="F62" s="76"/>
+      <c r="G62" s="76"/>
+      <c r="H62" s="76"/>
+      <c r="I62" s="76"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="76"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="O62" s="113"/>
+      <c r="P62" s="113"/>
+      <c r="Q62" s="113"/>
+      <c r="R62" s="113"/>
+      <c r="S62" s="113"/>
+      <c r="T62" s="113"/>
+      <c r="U62" s="113"/>
+      <c r="V62" s="113"/>
+      <c r="W62" s="113"/>
+      <c r="X62" s="113"/>
+      <c r="Y62" s="113"/>
+      <c r="Z62" s="113"/>
+      <c r="AA62" s="113"/>
+      <c r="AB62" s="113"/>
+      <c r="AC62" s="113"/>
+      <c r="AD62" s="113"/>
+      <c r="AE62" s="114"/>
+      <c r="AF62" s="112" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG62" s="113"/>
+      <c r="AH62" s="113"/>
+      <c r="AI62" s="113"/>
+      <c r="AJ62" s="113"/>
+      <c r="AK62" s="113"/>
+      <c r="AL62" s="113"/>
+      <c r="AM62" s="113"/>
+      <c r="AN62" s="114"/>
+      <c r="AO62" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP62" s="113"/>
+      <c r="AQ62" s="113"/>
+      <c r="AR62" s="113"/>
+      <c r="AS62" s="114"/>
+      <c r="AT62" s="118">
+        <v>200</v>
+      </c>
+      <c r="AU62" s="119"/>
+      <c r="AV62" s="119"/>
+      <c r="AW62" s="120"/>
+      <c r="AX62" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY62" s="113"/>
+      <c r="AZ62" s="113"/>
+      <c r="BA62" s="113"/>
+      <c r="BB62" s="113"/>
+      <c r="BC62" s="114"/>
+      <c r="BD62" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE62" s="114"/>
+      <c r="BF62" s="115"/>
+      <c r="BG62" s="116"/>
+      <c r="BH62" s="116"/>
+      <c r="BI62" s="116"/>
+      <c r="BJ62" s="116"/>
+      <c r="BK62" s="116"/>
+      <c r="BL62" s="116"/>
+      <c r="BM62" s="116"/>
+      <c r="BN62" s="116"/>
+      <c r="BO62" s="116"/>
+      <c r="BP62" s="116"/>
+      <c r="BQ62" s="116"/>
+      <c r="BR62" s="116"/>
+      <c r="BS62" s="116"/>
+      <c r="BT62" s="116"/>
+      <c r="BU62" s="117"/>
+    </row>
+    <row r="63" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B63" s="35"/>
+      <c r="C63" s="110">
+        <f t="shared" ref="C63:C67" si="1">ROW()-ROW($C$61)</f>
+        <v>2</v>
+      </c>
+      <c r="D63" s="111"/>
+      <c r="E63" s="115" t="s">
+        <v>102</v>
+      </c>
+      <c r="F63" s="116"/>
+      <c r="G63" s="116"/>
+      <c r="H63" s="116"/>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116"/>
+      <c r="M63" s="117"/>
+      <c r="N63" s="130" t="s">
+        <v>107</v>
+      </c>
+      <c r="O63" s="131"/>
+      <c r="P63" s="131"/>
+      <c r="Q63" s="131"/>
+      <c r="R63" s="131"/>
+      <c r="S63" s="131"/>
+      <c r="T63" s="131"/>
+      <c r="U63" s="131"/>
+      <c r="V63" s="131"/>
+      <c r="W63" s="131"/>
+      <c r="X63" s="131"/>
+      <c r="Y63" s="131"/>
+      <c r="Z63" s="131"/>
+      <c r="AA63" s="131"/>
+      <c r="AB63" s="131"/>
+      <c r="AC63" s="131"/>
+      <c r="AD63" s="131"/>
+      <c r="AE63" s="132"/>
+      <c r="AF63" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG63" s="113"/>
+      <c r="AH63" s="113"/>
+      <c r="AI63" s="113"/>
+      <c r="AJ63" s="113"/>
+      <c r="AK63" s="113"/>
+      <c r="AL63" s="113"/>
+      <c r="AM63" s="113"/>
+      <c r="AN63" s="114"/>
+      <c r="AO63" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP63" s="113"/>
+      <c r="AQ63" s="113"/>
+      <c r="AR63" s="113"/>
+      <c r="AS63" s="114"/>
+      <c r="AT63" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU63" s="119"/>
+      <c r="AV63" s="119"/>
+      <c r="AW63" s="120"/>
+      <c r="AX63" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY63" s="113"/>
+      <c r="AZ63" s="113"/>
+      <c r="BA63" s="113"/>
+      <c r="BB63" s="113"/>
+      <c r="BC63" s="114"/>
+      <c r="BD63" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE63" s="114"/>
+      <c r="BF63" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG63" s="113"/>
+      <c r="BH63" s="113"/>
+      <c r="BI63" s="113"/>
+      <c r="BJ63" s="113"/>
+      <c r="BK63" s="113"/>
+      <c r="BL63" s="113"/>
+      <c r="BM63" s="113"/>
+      <c r="BN63" s="113"/>
+      <c r="BO63" s="113"/>
+      <c r="BP63" s="113"/>
+      <c r="BQ63" s="113"/>
+      <c r="BR63" s="113"/>
+      <c r="BS63" s="113"/>
+      <c r="BT63" s="113"/>
+      <c r="BU63" s="114"/>
+    </row>
+    <row r="64" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B64" s="35"/>
+      <c r="C64" s="110">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D64" s="111"/>
+      <c r="E64" s="75" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="76"/>
+      <c r="G64" s="76"/>
+      <c r="H64" s="76"/>
+      <c r="I64" s="76"/>
+      <c r="J64" s="76"/>
+      <c r="K64" s="76"/>
+      <c r="L64" s="76"/>
+      <c r="M64" s="77"/>
+      <c r="N64" s="112" t="s">
+        <v>108</v>
+      </c>
+      <c r="O64" s="113"/>
+      <c r="P64" s="113"/>
+      <c r="Q64" s="113"/>
+      <c r="R64" s="113"/>
+      <c r="S64" s="113"/>
+      <c r="T64" s="113"/>
+      <c r="U64" s="113"/>
+      <c r="V64" s="113"/>
+      <c r="W64" s="113"/>
+      <c r="X64" s="113"/>
+      <c r="Y64" s="113"/>
+      <c r="Z64" s="113"/>
+      <c r="AA64" s="113"/>
+      <c r="AB64" s="113"/>
+      <c r="AC64" s="113"/>
+      <c r="AD64" s="113"/>
+      <c r="AE64" s="114"/>
+      <c r="AF64" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG64" s="113"/>
+      <c r="AH64" s="113"/>
+      <c r="AI64" s="113"/>
+      <c r="AJ64" s="113"/>
+      <c r="AK64" s="113"/>
+      <c r="AL64" s="113"/>
+      <c r="AM64" s="113"/>
+      <c r="AN64" s="114"/>
+      <c r="AO64" s="112" t="s">
+        <v>115</v>
+      </c>
+      <c r="AP64" s="113"/>
+      <c r="AQ64" s="113"/>
+      <c r="AR64" s="113"/>
+      <c r="AS64" s="114"/>
+      <c r="AT64" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU64" s="119"/>
+      <c r="AV64" s="119"/>
+      <c r="AW64" s="120"/>
+      <c r="AX64" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY64" s="113"/>
+      <c r="AZ64" s="113"/>
+      <c r="BA64" s="113"/>
+      <c r="BB64" s="113"/>
+      <c r="BC64" s="114"/>
+      <c r="BD64" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE64" s="114"/>
+      <c r="BF64" s="121"/>
+      <c r="BG64" s="113"/>
+      <c r="BH64" s="113"/>
+      <c r="BI64" s="113"/>
+      <c r="BJ64" s="113"/>
+      <c r="BK64" s="113"/>
+      <c r="BL64" s="113"/>
+      <c r="BM64" s="113"/>
+      <c r="BN64" s="113"/>
+      <c r="BO64" s="113"/>
+      <c r="BP64" s="113"/>
+      <c r="BQ64" s="113"/>
+      <c r="BR64" s="113"/>
+      <c r="BS64" s="113"/>
+      <c r="BT64" s="113"/>
+      <c r="BU64" s="114"/>
+    </row>
+    <row r="65" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B65" s="35"/>
+      <c r="C65" s="110">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D65" s="111"/>
+      <c r="E65" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" s="76"/>
+      <c r="G65" s="76"/>
+      <c r="H65" s="76"/>
+      <c r="I65" s="76"/>
+      <c r="J65" s="76"/>
+      <c r="K65" s="76"/>
+      <c r="L65" s="76"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="112" t="s">
+        <v>109</v>
+      </c>
+      <c r="O65" s="113"/>
+      <c r="P65" s="113"/>
+      <c r="Q65" s="113"/>
+      <c r="R65" s="113"/>
+      <c r="S65" s="113"/>
+      <c r="T65" s="113"/>
+      <c r="U65" s="113"/>
+      <c r="V65" s="113"/>
+      <c r="W65" s="113"/>
+      <c r="X65" s="113"/>
+      <c r="Y65" s="113"/>
+      <c r="Z65" s="113"/>
+      <c r="AA65" s="113"/>
+      <c r="AB65" s="113"/>
+      <c r="AC65" s="113"/>
+      <c r="AD65" s="113"/>
+      <c r="AE65" s="114"/>
+      <c r="AF65" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG65" s="113"/>
+      <c r="AH65" s="113"/>
+      <c r="AI65" s="113"/>
+      <c r="AJ65" s="113"/>
+      <c r="AK65" s="113"/>
+      <c r="AL65" s="113"/>
+      <c r="AM65" s="113"/>
+      <c r="AN65" s="114"/>
+      <c r="AO65" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP65" s="113"/>
+      <c r="AQ65" s="113"/>
+      <c r="AR65" s="113"/>
+      <c r="AS65" s="114"/>
+      <c r="AT65" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU65" s="119"/>
+      <c r="AV65" s="119"/>
+      <c r="AW65" s="120"/>
+      <c r="AX65" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY65" s="113"/>
+      <c r="AZ65" s="113"/>
+      <c r="BA65" s="113"/>
+      <c r="BB65" s="113"/>
+      <c r="BC65" s="114"/>
+      <c r="BD65" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE65" s="114"/>
+      <c r="BF65" s="115"/>
+      <c r="BG65" s="116"/>
+      <c r="BH65" s="116"/>
+      <c r="BI65" s="116"/>
+      <c r="BJ65" s="116"/>
+      <c r="BK65" s="116"/>
+      <c r="BL65" s="116"/>
+      <c r="BM65" s="116"/>
+      <c r="BN65" s="116"/>
+      <c r="BO65" s="116"/>
+      <c r="BP65" s="116"/>
+      <c r="BQ65" s="116"/>
+      <c r="BR65" s="116"/>
+      <c r="BS65" s="116"/>
+      <c r="BT65" s="116"/>
+      <c r="BU65" s="117"/>
+    </row>
+    <row r="66" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B66" s="35"/>
+      <c r="C66" s="110">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D57" s="93"/>
-      <c r="E57" s="64" t="s">
+      <c r="D66" s="111"/>
+      <c r="E66" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="76"/>
+      <c r="L66" s="76"/>
+      <c r="M66" s="77"/>
+      <c r="N66" s="112" t="s">
+        <v>110</v>
+      </c>
+      <c r="O66" s="113"/>
+      <c r="P66" s="113"/>
+      <c r="Q66" s="113"/>
+      <c r="R66" s="113"/>
+      <c r="S66" s="113"/>
+      <c r="T66" s="113"/>
+      <c r="U66" s="113"/>
+      <c r="V66" s="113"/>
+      <c r="W66" s="113"/>
+      <c r="X66" s="113"/>
+      <c r="Y66" s="113"/>
+      <c r="Z66" s="113"/>
+      <c r="AA66" s="113"/>
+      <c r="AB66" s="113"/>
+      <c r="AC66" s="113"/>
+      <c r="AD66" s="113"/>
+      <c r="AE66" s="114"/>
+      <c r="AF66" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG66" s="113"/>
+      <c r="AH66" s="113"/>
+      <c r="AI66" s="113"/>
+      <c r="AJ66" s="113"/>
+      <c r="AK66" s="113"/>
+      <c r="AL66" s="113"/>
+      <c r="AM66" s="113"/>
+      <c r="AN66" s="114"/>
+      <c r="AO66" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP66" s="113"/>
+      <c r="AQ66" s="113"/>
+      <c r="AR66" s="113"/>
+      <c r="AS66" s="114"/>
+      <c r="AT66" s="118">
+        <v>16</v>
+      </c>
+      <c r="AU66" s="119"/>
+      <c r="AV66" s="119"/>
+      <c r="AW66" s="120"/>
+      <c r="AX66" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY66" s="113"/>
+      <c r="AZ66" s="113"/>
+      <c r="BA66" s="113"/>
+      <c r="BB66" s="113"/>
+      <c r="BC66" s="114"/>
+      <c r="BD66" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE66" s="114"/>
+      <c r="BF66" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="BG66" s="116"/>
+      <c r="BH66" s="116"/>
+      <c r="BI66" s="116"/>
+      <c r="BJ66" s="116"/>
+      <c r="BK66" s="116"/>
+      <c r="BL66" s="116"/>
+      <c r="BM66" s="116"/>
+      <c r="BN66" s="116"/>
+      <c r="BO66" s="116"/>
+      <c r="BP66" s="116"/>
+      <c r="BQ66" s="116"/>
+      <c r="BR66" s="116"/>
+      <c r="BS66" s="116"/>
+      <c r="BT66" s="116"/>
+      <c r="BU66" s="117"/>
+    </row>
+    <row r="67" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B67" s="35"/>
+      <c r="C67" s="110">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D67" s="111"/>
+      <c r="E67" s="75" t="s">
+        <v>105</v>
+      </c>
+      <c r="F67" s="76"/>
+      <c r="G67" s="76"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
+      <c r="J67" s="76"/>
+      <c r="K67" s="76"/>
+      <c r="L67" s="76"/>
+      <c r="M67" s="77"/>
+      <c r="N67" s="112" t="s">
+        <v>111</v>
+      </c>
+      <c r="O67" s="113"/>
+      <c r="P67" s="113"/>
+      <c r="Q67" s="113"/>
+      <c r="R67" s="113"/>
+      <c r="S67" s="113"/>
+      <c r="T67" s="113"/>
+      <c r="U67" s="113"/>
+      <c r="V67" s="113"/>
+      <c r="W67" s="113"/>
+      <c r="X67" s="113"/>
+      <c r="Y67" s="113"/>
+      <c r="Z67" s="113"/>
+      <c r="AA67" s="113"/>
+      <c r="AB67" s="113"/>
+      <c r="AC67" s="113"/>
+      <c r="AD67" s="113"/>
+      <c r="AE67" s="114"/>
+      <c r="AF67" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG67" s="113"/>
+      <c r="AH67" s="113"/>
+      <c r="AI67" s="113"/>
+      <c r="AJ67" s="113"/>
+      <c r="AK67" s="113"/>
+      <c r="AL67" s="113"/>
+      <c r="AM67" s="113"/>
+      <c r="AN67" s="114"/>
+      <c r="AO67" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP67" s="113"/>
+      <c r="AQ67" s="113"/>
+      <c r="AR67" s="113"/>
+      <c r="AS67" s="114"/>
+      <c r="AT67" s="118">
+        <v>200</v>
+      </c>
+      <c r="AU67" s="119"/>
+      <c r="AV67" s="119"/>
+      <c r="AW67" s="120"/>
+      <c r="AX67" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY67" s="113"/>
+      <c r="AZ67" s="113"/>
+      <c r="BA67" s="113"/>
+      <c r="BB67" s="113"/>
+      <c r="BC67" s="114"/>
+      <c r="BD67" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE67" s="114"/>
+      <c r="BF67" s="115"/>
+      <c r="BG67" s="116"/>
+      <c r="BH67" s="116"/>
+      <c r="BI67" s="116"/>
+      <c r="BJ67" s="116"/>
+      <c r="BK67" s="116"/>
+      <c r="BL67" s="116"/>
+      <c r="BM67" s="116"/>
+      <c r="BN67" s="116"/>
+      <c r="BO67" s="116"/>
+      <c r="BP67" s="116"/>
+      <c r="BQ67" s="116"/>
+      <c r="BR67" s="116"/>
+      <c r="BS67" s="116"/>
+      <c r="BT67" s="116"/>
+      <c r="BU67" s="117"/>
+    </row>
+    <row r="68" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B68" s="35"/>
+      <c r="C68" s="152"/>
+      <c r="D68" s="152"/>
+      <c r="E68" s="153"/>
+      <c r="F68" s="153"/>
+      <c r="G68" s="153"/>
+      <c r="H68" s="153"/>
+      <c r="I68" s="153"/>
+      <c r="J68" s="153"/>
+      <c r="K68" s="153"/>
+      <c r="L68" s="153"/>
+      <c r="M68" s="153"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="19"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="19"/>
+      <c r="R68" s="19"/>
+      <c r="S68" s="19"/>
+      <c r="T68" s="19"/>
+      <c r="U68" s="19"/>
+      <c r="V68" s="19"/>
+      <c r="W68" s="19"/>
+      <c r="X68" s="19"/>
+      <c r="Y68" s="19"/>
+      <c r="Z68" s="19"/>
+      <c r="AA68" s="19"/>
+      <c r="AB68" s="19"/>
+      <c r="AC68" s="19"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="19"/>
+      <c r="AF68" s="19"/>
+      <c r="AG68" s="19"/>
+      <c r="AH68" s="19"/>
+      <c r="AI68" s="19"/>
+      <c r="AJ68" s="19"/>
+      <c r="AK68" s="19"/>
+      <c r="AL68" s="19"/>
+      <c r="AM68" s="19"/>
+      <c r="AN68" s="19"/>
+      <c r="AO68" s="19"/>
+      <c r="AP68" s="19"/>
+      <c r="AQ68" s="19"/>
+      <c r="AR68" s="19"/>
+      <c r="AS68" s="19"/>
+      <c r="AT68" s="154"/>
+      <c r="AU68" s="154"/>
+      <c r="AV68" s="154"/>
+      <c r="AW68" s="154"/>
+      <c r="AX68" s="19"/>
+      <c r="AY68" s="19"/>
+      <c r="AZ68" s="19"/>
+      <c r="BA68" s="19"/>
+      <c r="BB68" s="19"/>
+      <c r="BC68" s="19"/>
+      <c r="BD68" s="19"/>
+      <c r="BE68" s="19"/>
+      <c r="BF68" s="153"/>
+      <c r="BG68" s="153"/>
+      <c r="BH68" s="153"/>
+      <c r="BI68" s="153"/>
+      <c r="BJ68" s="153"/>
+      <c r="BK68" s="153"/>
+      <c r="BL68" s="153"/>
+      <c r="BM68" s="153"/>
+      <c r="BN68" s="153"/>
+      <c r="BO68" s="153"/>
+      <c r="BP68" s="153"/>
+      <c r="BQ68" s="153"/>
+      <c r="BR68" s="153"/>
+      <c r="BS68" s="153"/>
+      <c r="BT68" s="153"/>
+      <c r="BU68" s="153"/>
+    </row>
+    <row r="69" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C69" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="19"/>
+      <c r="AA69" s="19"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="19"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="19"/>
+      <c r="AG69" s="19"/>
+      <c r="AH69" s="19"/>
+      <c r="AI69" s="19"/>
+      <c r="AJ69" s="19"/>
+      <c r="AK69" s="19"/>
+      <c r="AL69" s="19"/>
+      <c r="AM69" s="19"/>
+      <c r="AN69" s="19"/>
+      <c r="AO69" s="19"/>
+      <c r="AP69" s="19"/>
+      <c r="AQ69" s="19"/>
+      <c r="AR69" s="19"/>
+      <c r="AS69" s="19"/>
+      <c r="AT69" s="19"/>
+      <c r="AU69" s="19"/>
+      <c r="AV69" s="19"/>
+      <c r="AW69" s="19"/>
+      <c r="AX69" s="19"/>
+      <c r="AY69" s="19"/>
+      <c r="AZ69" s="19"/>
+      <c r="BA69" s="19"/>
+      <c r="BB69" s="19"/>
+      <c r="BC69" s="19"/>
+      <c r="BD69" s="19"/>
+      <c r="BE69" s="19"/>
+      <c r="BF69" s="19"/>
+      <c r="BG69" s="19"/>
+      <c r="BH69" s="19"/>
+      <c r="BI69" s="19"/>
+      <c r="BJ69" s="19"/>
+      <c r="BK69" s="19"/>
+      <c r="BL69" s="19"/>
+      <c r="BM69" s="19"/>
+      <c r="BN69" s="19"/>
+      <c r="BO69" s="19"/>
+      <c r="BP69" s="19"/>
+      <c r="BQ69" s="19"/>
+      <c r="BR69" s="19"/>
+      <c r="BS69" s="19"/>
+      <c r="BT69" s="19"/>
+      <c r="BU69" s="19"/>
+    </row>
+    <row r="70" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C70" s="126" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="127"/>
+      <c r="E70" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="34"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70" s="34"/>
+      <c r="P70" s="34"/>
+      <c r="Q70" s="34"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="34"/>
+      <c r="T70" s="34"/>
+      <c r="U70" s="34"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="34"/>
+      <c r="X70" s="34"/>
+      <c r="Y70" s="34"/>
+      <c r="Z70" s="34"/>
+      <c r="AA70" s="34"/>
+      <c r="AB70" s="34"/>
+      <c r="AC70" s="34"/>
+      <c r="AD70" s="34"/>
+      <c r="AE70" s="34"/>
+      <c r="AF70" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG70" s="34"/>
+      <c r="AH70" s="34"/>
+      <c r="AI70" s="34"/>
+      <c r="AJ70" s="34"/>
+      <c r="AK70" s="34"/>
+      <c r="AL70" s="34"/>
+      <c r="AM70" s="34"/>
+      <c r="AN70" s="34"/>
+      <c r="AO70" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP70" s="34"/>
+      <c r="AQ70" s="34"/>
+      <c r="AR70" s="34"/>
+      <c r="AS70" s="34"/>
+      <c r="AT70" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU70" s="34"/>
+      <c r="AV70" s="34"/>
+      <c r="AW70" s="34"/>
+      <c r="AX70" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="AY70" s="34"/>
+      <c r="AZ70" s="34"/>
+      <c r="BA70" s="34"/>
+      <c r="BB70" s="34"/>
+      <c r="BC70" s="33"/>
+      <c r="BD70" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE70" s="34"/>
+      <c r="BF70" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG70" s="34"/>
+      <c r="BH70" s="34"/>
+      <c r="BI70" s="34"/>
+      <c r="BJ70" s="34"/>
+      <c r="BK70" s="34"/>
+      <c r="BL70" s="34"/>
+      <c r="BM70" s="34"/>
+      <c r="BN70" s="34"/>
+      <c r="BO70" s="34"/>
+      <c r="BP70" s="34"/>
+      <c r="BQ70" s="34"/>
+      <c r="BR70" s="34"/>
+      <c r="BS70" s="34"/>
+      <c r="BT70" s="34"/>
+      <c r="BU70" s="33"/>
+    </row>
+    <row r="71" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B71" s="35"/>
+      <c r="C71" s="110">
+        <f>ROW()-ROW($C$70)</f>
+        <v>1</v>
+      </c>
+      <c r="D71" s="111"/>
+      <c r="E71" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
+      <c r="M71" s="66"/>
+      <c r="N71" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="O71" s="113"/>
+      <c r="P71" s="113"/>
+      <c r="Q71" s="113"/>
+      <c r="R71" s="113"/>
+      <c r="S71" s="113"/>
+      <c r="T71" s="113"/>
+      <c r="U71" s="113"/>
+      <c r="V71" s="113"/>
+      <c r="W71" s="113"/>
+      <c r="X71" s="113"/>
+      <c r="Y71" s="113"/>
+      <c r="Z71" s="113"/>
+      <c r="AA71" s="113"/>
+      <c r="AB71" s="113"/>
+      <c r="AC71" s="113"/>
+      <c r="AD71" s="113"/>
+      <c r="AE71" s="114"/>
+      <c r="AF71" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG71" s="113"/>
+      <c r="AH71" s="113"/>
+      <c r="AI71" s="113"/>
+      <c r="AJ71" s="113"/>
+      <c r="AK71" s="113"/>
+      <c r="AL71" s="113"/>
+      <c r="AM71" s="113"/>
+      <c r="AN71" s="114"/>
+      <c r="AO71" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP71" s="113"/>
+      <c r="AQ71" s="113"/>
+      <c r="AR71" s="113"/>
+      <c r="AS71" s="114"/>
+      <c r="AT71" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU71" s="119"/>
+      <c r="AV71" s="119"/>
+      <c r="AW71" s="120"/>
+      <c r="AX71" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY71" s="113"/>
+      <c r="AZ71" s="113"/>
+      <c r="BA71" s="113"/>
+      <c r="BB71" s="113"/>
+      <c r="BC71" s="114"/>
+      <c r="BD71" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE71" s="114"/>
+      <c r="BF71" s="115"/>
+      <c r="BG71" s="116"/>
+      <c r="BH71" s="116"/>
+      <c r="BI71" s="116"/>
+      <c r="BJ71" s="116"/>
+      <c r="BK71" s="116"/>
+      <c r="BL71" s="116"/>
+      <c r="BM71" s="116"/>
+      <c r="BN71" s="116"/>
+      <c r="BO71" s="116"/>
+      <c r="BP71" s="116"/>
+      <c r="BQ71" s="116"/>
+      <c r="BR71" s="116"/>
+      <c r="BS71" s="116"/>
+      <c r="BT71" s="116"/>
+      <c r="BU71" s="117"/>
+    </row>
+    <row r="72" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B72" s="35"/>
+      <c r="C72" s="110">
+        <f>ROW()-ROW($C$70)</f>
+        <v>2</v>
+      </c>
+      <c r="D72" s="111"/>
+      <c r="E72" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" s="116"/>
+      <c r="G72" s="116"/>
+      <c r="H72" s="116"/>
+      <c r="I72" s="116"/>
+      <c r="J72" s="116"/>
+      <c r="K72" s="116"/>
+      <c r="L72" s="116"/>
+      <c r="M72" s="117"/>
+      <c r="N72" s="130" t="s">
+        <v>38</v>
+      </c>
+      <c r="O72" s="131"/>
+      <c r="P72" s="131"/>
+      <c r="Q72" s="131"/>
+      <c r="R72" s="131"/>
+      <c r="S72" s="131"/>
+      <c r="T72" s="131"/>
+      <c r="U72" s="131"/>
+      <c r="V72" s="131"/>
+      <c r="W72" s="131"/>
+      <c r="X72" s="131"/>
+      <c r="Y72" s="131"/>
+      <c r="Z72" s="131"/>
+      <c r="AA72" s="131"/>
+      <c r="AB72" s="131"/>
+      <c r="AC72" s="131"/>
+      <c r="AD72" s="131"/>
+      <c r="AE72" s="132"/>
+      <c r="AF72" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG72" s="113"/>
+      <c r="AH72" s="113"/>
+      <c r="AI72" s="113"/>
+      <c r="AJ72" s="113"/>
+      <c r="AK72" s="113"/>
+      <c r="AL72" s="113"/>
+      <c r="AM72" s="113"/>
+      <c r="AN72" s="114"/>
+      <c r="AO72" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP72" s="113"/>
+      <c r="AQ72" s="113"/>
+      <c r="AR72" s="113"/>
+      <c r="AS72" s="114"/>
+      <c r="AT72" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU72" s="119"/>
+      <c r="AV72" s="119"/>
+      <c r="AW72" s="120"/>
+      <c r="AX72" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY72" s="113"/>
+      <c r="AZ72" s="113"/>
+      <c r="BA72" s="113"/>
+      <c r="BB72" s="113"/>
+      <c r="BC72" s="114"/>
+      <c r="BD72" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE72" s="114"/>
+      <c r="BF72" s="112"/>
+      <c r="BG72" s="113"/>
+      <c r="BH72" s="113"/>
+      <c r="BI72" s="113"/>
+      <c r="BJ72" s="113"/>
+      <c r="BK72" s="113"/>
+      <c r="BL72" s="113"/>
+      <c r="BM72" s="113"/>
+      <c r="BN72" s="113"/>
+      <c r="BO72" s="113"/>
+      <c r="BP72" s="113"/>
+      <c r="BQ72" s="113"/>
+      <c r="BR72" s="113"/>
+      <c r="BS72" s="113"/>
+      <c r="BT72" s="113"/>
+      <c r="BU72" s="114"/>
+    </row>
+    <row r="73" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B73" s="35"/>
+      <c r="C73" s="110">
+        <f>ROW()-ROW($C$70)</f>
+        <v>3</v>
+      </c>
+      <c r="D73" s="111"/>
+      <c r="E73" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
+      <c r="M73" s="66"/>
+      <c r="N73" s="112" t="s">
+        <v>39</v>
+      </c>
+      <c r="O73" s="113"/>
+      <c r="P73" s="113"/>
+      <c r="Q73" s="113"/>
+      <c r="R73" s="113"/>
+      <c r="S73" s="113"/>
+      <c r="T73" s="113"/>
+      <c r="U73" s="113"/>
+      <c r="V73" s="113"/>
+      <c r="W73" s="113"/>
+      <c r="X73" s="113"/>
+      <c r="Y73" s="113"/>
+      <c r="Z73" s="113"/>
+      <c r="AA73" s="113"/>
+      <c r="AB73" s="113"/>
+      <c r="AC73" s="113"/>
+      <c r="AD73" s="113"/>
+      <c r="AE73" s="114"/>
+      <c r="AF73" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG73" s="113"/>
+      <c r="AH73" s="113"/>
+      <c r="AI73" s="113"/>
+      <c r="AJ73" s="113"/>
+      <c r="AK73" s="113"/>
+      <c r="AL73" s="113"/>
+      <c r="AM73" s="113"/>
+      <c r="AN73" s="114"/>
+      <c r="AO73" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP73" s="113"/>
+      <c r="AQ73" s="113"/>
+      <c r="AR73" s="113"/>
+      <c r="AS73" s="114"/>
+      <c r="AT73" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU73" s="119"/>
+      <c r="AV73" s="119"/>
+      <c r="AW73" s="120"/>
+      <c r="AX73" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY73" s="113"/>
+      <c r="AZ73" s="113"/>
+      <c r="BA73" s="113"/>
+      <c r="BB73" s="113"/>
+      <c r="BC73" s="114"/>
+      <c r="BD73" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE73" s="114"/>
+      <c r="BF73" s="121"/>
+      <c r="BG73" s="113"/>
+      <c r="BH73" s="113"/>
+      <c r="BI73" s="113"/>
+      <c r="BJ73" s="113"/>
+      <c r="BK73" s="113"/>
+      <c r="BL73" s="113"/>
+      <c r="BM73" s="113"/>
+      <c r="BN73" s="113"/>
+      <c r="BO73" s="113"/>
+      <c r="BP73" s="113"/>
+      <c r="BQ73" s="113"/>
+      <c r="BR73" s="113"/>
+      <c r="BS73" s="113"/>
+      <c r="BT73" s="113"/>
+      <c r="BU73" s="114"/>
+    </row>
+    <row r="74" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B74" s="35"/>
+      <c r="C74" s="110">
+        <f>ROW()-ROW($C$70)</f>
+        <v>4</v>
+      </c>
+      <c r="D74" s="111"/>
+      <c r="E74" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="66"/>
+      <c r="N74" s="112" t="s">
+        <v>40</v>
+      </c>
+      <c r="O74" s="113"/>
+      <c r="P74" s="113"/>
+      <c r="Q74" s="113"/>
+      <c r="R74" s="113"/>
+      <c r="S74" s="113"/>
+      <c r="T74" s="113"/>
+      <c r="U74" s="113"/>
+      <c r="V74" s="113"/>
+      <c r="W74" s="113"/>
+      <c r="X74" s="113"/>
+      <c r="Y74" s="113"/>
+      <c r="Z74" s="113"/>
+      <c r="AA74" s="113"/>
+      <c r="AB74" s="113"/>
+      <c r="AC74" s="113"/>
+      <c r="AD74" s="113"/>
+      <c r="AE74" s="114"/>
+      <c r="AF74" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG74" s="113"/>
+      <c r="AH74" s="113"/>
+      <c r="AI74" s="113"/>
+      <c r="AJ74" s="113"/>
+      <c r="AK74" s="113"/>
+      <c r="AL74" s="113"/>
+      <c r="AM74" s="113"/>
+      <c r="AN74" s="114"/>
+      <c r="AO74" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP74" s="113"/>
+      <c r="AQ74" s="113"/>
+      <c r="AR74" s="113"/>
+      <c r="AS74" s="114"/>
+      <c r="AT74" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU74" s="119"/>
+      <c r="AV74" s="119"/>
+      <c r="AW74" s="120"/>
+      <c r="AX74" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY74" s="113"/>
+      <c r="AZ74" s="113"/>
+      <c r="BA74" s="113"/>
+      <c r="BB74" s="113"/>
+      <c r="BC74" s="114"/>
+      <c r="BD74" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE74" s="114"/>
+      <c r="BF74" s="115"/>
+      <c r="BG74" s="116"/>
+      <c r="BH74" s="116"/>
+      <c r="BI74" s="116"/>
+      <c r="BJ74" s="116"/>
+      <c r="BK74" s="116"/>
+      <c r="BL74" s="116"/>
+      <c r="BM74" s="116"/>
+      <c r="BN74" s="116"/>
+      <c r="BO74" s="116"/>
+      <c r="BP74" s="116"/>
+      <c r="BQ74" s="116"/>
+      <c r="BR74" s="116"/>
+      <c r="BS74" s="116"/>
+      <c r="BT74" s="116"/>
+      <c r="BU74" s="117"/>
+    </row>
+    <row r="75" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B75" s="35"/>
+      <c r="C75" s="110">
+        <f>ROW()-ROW($C$70)</f>
+        <v>5</v>
+      </c>
+      <c r="D75" s="111"/>
+      <c r="E75" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
+      <c r="M75" s="66"/>
+      <c r="N75" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="65"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="65"/>
-      <c r="M57" s="66"/>
-      <c r="N57" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="O57" s="81"/>
-      <c r="P57" s="81"/>
-      <c r="Q57" s="81"/>
-      <c r="R57" s="81"/>
-      <c r="S57" s="81"/>
-      <c r="T57" s="81"/>
-      <c r="U57" s="81"/>
-      <c r="V57" s="81"/>
-      <c r="W57" s="81"/>
-      <c r="X57" s="81"/>
-      <c r="Y57" s="81"/>
-      <c r="Z57" s="81"/>
-      <c r="AA57" s="81"/>
-      <c r="AB57" s="81"/>
-      <c r="AC57" s="81"/>
-      <c r="AD57" s="81"/>
-      <c r="AE57" s="82"/>
-      <c r="AF57" s="80" t="s">
+      <c r="O75" s="113"/>
+      <c r="P75" s="113"/>
+      <c r="Q75" s="113"/>
+      <c r="R75" s="113"/>
+      <c r="S75" s="113"/>
+      <c r="T75" s="113"/>
+      <c r="U75" s="113"/>
+      <c r="V75" s="113"/>
+      <c r="W75" s="113"/>
+      <c r="X75" s="113"/>
+      <c r="Y75" s="113"/>
+      <c r="Z75" s="113"/>
+      <c r="AA75" s="113"/>
+      <c r="AB75" s="113"/>
+      <c r="AC75" s="113"/>
+      <c r="AD75" s="113"/>
+      <c r="AE75" s="114"/>
+      <c r="AF75" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG75" s="113"/>
+      <c r="AH75" s="113"/>
+      <c r="AI75" s="113"/>
+      <c r="AJ75" s="113"/>
+      <c r="AK75" s="113"/>
+      <c r="AL75" s="113"/>
+      <c r="AM75" s="113"/>
+      <c r="AN75" s="114"/>
+      <c r="AO75" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP75" s="113"/>
+      <c r="AQ75" s="113"/>
+      <c r="AR75" s="113"/>
+      <c r="AS75" s="114"/>
+      <c r="AT75" s="118" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU75" s="119"/>
+      <c r="AV75" s="119"/>
+      <c r="AW75" s="120"/>
+      <c r="AX75" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY75" s="113"/>
+      <c r="AZ75" s="113"/>
+      <c r="BA75" s="113"/>
+      <c r="BB75" s="113"/>
+      <c r="BC75" s="114"/>
+      <c r="BD75" s="112" t="s">
+        <v>79</v>
+      </c>
+      <c r="BE75" s="114"/>
+      <c r="BF75" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="BG75" s="116"/>
+      <c r="BH75" s="116"/>
+      <c r="BI75" s="116"/>
+      <c r="BJ75" s="116"/>
+      <c r="BK75" s="116"/>
+      <c r="BL75" s="116"/>
+      <c r="BM75" s="116"/>
+      <c r="BN75" s="116"/>
+      <c r="BO75" s="116"/>
+      <c r="BP75" s="116"/>
+      <c r="BQ75" s="116"/>
+      <c r="BR75" s="116"/>
+      <c r="BS75" s="116"/>
+      <c r="BT75" s="116"/>
+      <c r="BU75" s="117"/>
+    </row>
+    <row r="76" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="19"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="19"/>
+      <c r="Q76" s="19"/>
+      <c r="R76" s="19"/>
+      <c r="S76" s="19"/>
+      <c r="T76" s="19"/>
+      <c r="U76" s="19"/>
+      <c r="V76" s="19"/>
+      <c r="W76" s="19"/>
+      <c r="X76" s="19"/>
+      <c r="Y76" s="19"/>
+      <c r="Z76" s="19"/>
+      <c r="AA76" s="19"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="19"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="19"/>
+      <c r="AF76" s="19"/>
+      <c r="AG76" s="19"/>
+      <c r="AH76" s="19"/>
+      <c r="AI76" s="19"/>
+      <c r="AJ76" s="19"/>
+      <c r="AK76" s="19"/>
+      <c r="AL76" s="19"/>
+      <c r="AM76" s="19"/>
+      <c r="AN76" s="19"/>
+      <c r="AO76" s="19"/>
+      <c r="AP76" s="19"/>
+      <c r="AQ76" s="19"/>
+      <c r="AR76" s="19"/>
+      <c r="AS76" s="19"/>
+      <c r="AT76" s="19"/>
+      <c r="AU76" s="19"/>
+      <c r="AV76" s="19"/>
+      <c r="AW76" s="19"/>
+      <c r="AX76" s="19"/>
+      <c r="AY76" s="19"/>
+      <c r="AZ76" s="19"/>
+      <c r="BA76" s="19"/>
+      <c r="BB76" s="19"/>
+      <c r="BC76" s="19"/>
+      <c r="BD76" s="19"/>
+      <c r="BE76" s="19"/>
+      <c r="BF76" s="19"/>
+      <c r="BG76" s="19"/>
+      <c r="BH76" s="19"/>
+      <c r="BI76" s="19"/>
+      <c r="BJ76" s="19"/>
+      <c r="BK76" s="19"/>
+      <c r="BL76" s="19"/>
+      <c r="BM76" s="19"/>
+      <c r="BN76" s="19"/>
+      <c r="BO76" s="19"/>
+      <c r="BP76" s="19"/>
+      <c r="BQ76" s="19"/>
+      <c r="BR76" s="19"/>
+      <c r="BS76" s="19"/>
+      <c r="BT76" s="19"/>
+      <c r="BU76" s="19"/>
+    </row>
+    <row r="77" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C77" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="19"/>
+      <c r="R77" s="19"/>
+      <c r="S77" s="19"/>
+      <c r="T77" s="19"/>
+      <c r="U77" s="19"/>
+      <c r="V77" s="19"/>
+      <c r="W77" s="19"/>
+      <c r="X77" s="19"/>
+      <c r="Y77" s="19"/>
+      <c r="Z77" s="19"/>
+      <c r="AA77" s="19"/>
+      <c r="AB77" s="19"/>
+      <c r="AC77" s="19"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="19"/>
+      <c r="AF77" s="19"/>
+      <c r="AG77" s="19"/>
+      <c r="AH77" s="19"/>
+      <c r="AI77" s="19"/>
+      <c r="AJ77" s="19"/>
+      <c r="AK77" s="19"/>
+      <c r="AL77" s="19"/>
+      <c r="AM77" s="19"/>
+      <c r="AN77" s="19"/>
+      <c r="AO77" s="19"/>
+      <c r="AP77" s="19"/>
+      <c r="AQ77" s="19"/>
+      <c r="AR77" s="19"/>
+      <c r="AS77" s="19"/>
+      <c r="AT77" s="19"/>
+      <c r="AU77" s="19"/>
+      <c r="AV77" s="19"/>
+      <c r="AW77" s="19"/>
+      <c r="AX77" s="19"/>
+      <c r="AY77" s="19"/>
+      <c r="AZ77" s="19"/>
+      <c r="BA77" s="19"/>
+      <c r="BB77" s="19"/>
+      <c r="BC77" s="19"/>
+      <c r="BD77" s="19"/>
+      <c r="BE77" s="19"/>
+      <c r="BF77" s="19"/>
+      <c r="BG77" s="19"/>
+      <c r="BH77" s="19"/>
+      <c r="BI77" s="19"/>
+      <c r="BJ77" s="19"/>
+      <c r="BK77" s="19"/>
+      <c r="BL77" s="19"/>
+      <c r="BM77" s="19"/>
+      <c r="BN77" s="19"/>
+      <c r="BO77" s="19"/>
+      <c r="BP77" s="19"/>
+      <c r="BQ77" s="19"/>
+      <c r="BR77" s="19"/>
+      <c r="BS77" s="19"/>
+      <c r="BT77" s="19"/>
+      <c r="BU77" s="19"/>
+    </row>
+    <row r="78" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C78" s="126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" s="127"/>
+      <c r="E78" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="34"/>
+      <c r="I78" s="34"/>
+      <c r="J78" s="34"/>
+      <c r="K78" s="34"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="34"/>
+      <c r="O78" s="34"/>
+      <c r="P78" s="34"/>
+      <c r="Q78" s="34"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="34"/>
+      <c r="T78" s="34"/>
+      <c r="U78" s="34"/>
+      <c r="V78" s="34"/>
+      <c r="W78" s="34"/>
+      <c r="X78" s="34"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA78" s="34"/>
+      <c r="AB78" s="34"/>
+      <c r="AC78" s="34"/>
+      <c r="AD78" s="34"/>
+      <c r="AE78" s="34"/>
+      <c r="AF78" s="34"/>
+      <c r="AG78" s="34"/>
+      <c r="AH78" s="34"/>
+      <c r="AI78" s="34"/>
+      <c r="AJ78" s="34"/>
+      <c r="AK78" s="34"/>
+      <c r="AL78" s="34"/>
+      <c r="AM78" s="34"/>
+      <c r="AN78" s="34"/>
+      <c r="AO78" s="34"/>
+      <c r="AP78" s="34"/>
+      <c r="AQ78" s="34"/>
+      <c r="AR78" s="34"/>
+      <c r="AS78" s="34"/>
+      <c r="AT78" s="34"/>
+      <c r="AU78" s="34"/>
+      <c r="AV78" s="34"/>
+      <c r="AW78" s="34"/>
+      <c r="AX78" s="34"/>
+      <c r="AY78" s="34"/>
+      <c r="AZ78" s="34"/>
+      <c r="BA78" s="34"/>
+      <c r="BB78" s="34"/>
+      <c r="BC78" s="34"/>
+      <c r="BD78" s="34"/>
+      <c r="BE78" s="33"/>
+      <c r="BF78" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG78" s="34"/>
+      <c r="BH78" s="34"/>
+      <c r="BI78" s="34"/>
+      <c r="BJ78" s="34"/>
+      <c r="BK78" s="34"/>
+      <c r="BL78" s="34"/>
+      <c r="BM78" s="34"/>
+      <c r="BN78" s="34"/>
+      <c r="BO78" s="34"/>
+      <c r="BP78" s="34"/>
+      <c r="BQ78" s="34"/>
+      <c r="BR78" s="34"/>
+      <c r="BS78" s="34"/>
+      <c r="BT78" s="34"/>
+      <c r="BU78" s="33"/>
+    </row>
+    <row r="79" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C79" s="110">
+        <f t="shared" ref="C79:C83" si="2">ROW()-ROW($C$78)</f>
+        <v>1</v>
+      </c>
+      <c r="D79" s="111"/>
+      <c r="E79" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="AG57" s="81"/>
-      <c r="AH57" s="81"/>
-      <c r="AI57" s="81"/>
-      <c r="AJ57" s="81"/>
-      <c r="AK57" s="81"/>
-      <c r="AL57" s="81"/>
-      <c r="AM57" s="81"/>
-      <c r="AN57" s="82"/>
-      <c r="AO57" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP57" s="81"/>
-      <c r="AQ57" s="81"/>
-      <c r="AR57" s="81"/>
-      <c r="AS57" s="82"/>
-      <c r="AT57" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU57" s="88"/>
-      <c r="AV57" s="88"/>
-      <c r="AW57" s="89"/>
-      <c r="AX57" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="AY57" s="81"/>
-      <c r="AZ57" s="81"/>
-      <c r="BA57" s="81"/>
-      <c r="BB57" s="81"/>
-      <c r="BC57" s="82"/>
-      <c r="BD57" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="BE57" s="82"/>
-      <c r="BF57" s="84" t="s">
+      <c r="F79" s="113"/>
+      <c r="G79" s="113"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="J79" s="113"/>
+      <c r="K79" s="113"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="113"/>
+      <c r="N79" s="113"/>
+      <c r="O79" s="113"/>
+      <c r="P79" s="113"/>
+      <c r="Q79" s="113"/>
+      <c r="R79" s="113"/>
+      <c r="S79" s="113"/>
+      <c r="T79" s="113"/>
+      <c r="U79" s="113"/>
+      <c r="V79" s="113"/>
+      <c r="W79" s="113"/>
+      <c r="X79" s="113"/>
+      <c r="Y79" s="114"/>
+      <c r="Z79" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="BG57" s="85"/>
-      <c r="BH57" s="85"/>
-      <c r="BI57" s="85"/>
-      <c r="BJ57" s="85"/>
-      <c r="BK57" s="85"/>
-      <c r="BL57" s="85"/>
-      <c r="BM57" s="85"/>
-      <c r="BN57" s="85"/>
-      <c r="BO57" s="85"/>
-      <c r="BP57" s="85"/>
-      <c r="BQ57" s="85"/>
-      <c r="BR57" s="85"/>
-      <c r="BS57" s="85"/>
-      <c r="BT57" s="85"/>
-      <c r="BU57" s="86"/>
-    </row>
-    <row r="58" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
-      <c r="Q58" s="19"/>
-      <c r="R58" s="19"/>
-      <c r="S58" s="19"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
-      <c r="V58" s="19"/>
-      <c r="W58" s="19"/>
-      <c r="X58" s="19"/>
-      <c r="Y58" s="19"/>
-      <c r="Z58" s="19"/>
-      <c r="AA58" s="19"/>
-      <c r="AB58" s="19"/>
-      <c r="AC58" s="19"/>
-      <c r="AD58" s="19"/>
-      <c r="AE58" s="19"/>
-      <c r="AF58" s="19"/>
-      <c r="AG58" s="19"/>
-      <c r="AH58" s="19"/>
-      <c r="AI58" s="19"/>
-      <c r="AJ58" s="19"/>
-      <c r="AK58" s="19"/>
-      <c r="AL58" s="19"/>
-      <c r="AM58" s="19"/>
-      <c r="AN58" s="19"/>
-      <c r="AO58" s="19"/>
-      <c r="AP58" s="19"/>
-      <c r="AQ58" s="19"/>
-      <c r="AR58" s="19"/>
-      <c r="AS58" s="19"/>
-      <c r="AT58" s="19"/>
-      <c r="AU58" s="19"/>
-      <c r="AV58" s="19"/>
-      <c r="AW58" s="19"/>
-      <c r="AX58" s="19"/>
-      <c r="AY58" s="19"/>
-      <c r="AZ58" s="19"/>
-      <c r="BA58" s="19"/>
-      <c r="BB58" s="19"/>
-      <c r="BC58" s="19"/>
-      <c r="BD58" s="19"/>
-      <c r="BE58" s="19"/>
-      <c r="BF58" s="19"/>
-      <c r="BG58" s="19"/>
-      <c r="BH58" s="19"/>
-      <c r="BI58" s="19"/>
-      <c r="BJ58" s="19"/>
-      <c r="BK58" s="19"/>
-      <c r="BL58" s="19"/>
-      <c r="BM58" s="19"/>
-      <c r="BN58" s="19"/>
-      <c r="BO58" s="19"/>
-      <c r="BP58" s="19"/>
-      <c r="BQ58" s="19"/>
-      <c r="BR58" s="19"/>
-      <c r="BS58" s="19"/>
-      <c r="BT58" s="19"/>
-      <c r="BU58" s="19"/>
-    </row>
-    <row r="59" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C59" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
-      <c r="Q59" s="19"/>
-      <c r="R59" s="19"/>
-      <c r="S59" s="19"/>
-      <c r="T59" s="19"/>
-      <c r="U59" s="19"/>
-      <c r="V59" s="19"/>
-      <c r="W59" s="19"/>
-      <c r="X59" s="19"/>
-      <c r="Y59" s="19"/>
-      <c r="Z59" s="19"/>
-      <c r="AA59" s="19"/>
-      <c r="AB59" s="19"/>
-      <c r="AC59" s="19"/>
-      <c r="AD59" s="19"/>
-      <c r="AE59" s="19"/>
-      <c r="AF59" s="19"/>
-      <c r="AG59" s="19"/>
-      <c r="AH59" s="19"/>
-      <c r="AI59" s="19"/>
-      <c r="AJ59" s="19"/>
-      <c r="AK59" s="19"/>
-      <c r="AL59" s="19"/>
-      <c r="AM59" s="19"/>
-      <c r="AN59" s="19"/>
-      <c r="AO59" s="19"/>
-      <c r="AP59" s="19"/>
-      <c r="AQ59" s="19"/>
-      <c r="AR59" s="19"/>
-      <c r="AS59" s="19"/>
-      <c r="AT59" s="19"/>
-      <c r="AU59" s="19"/>
-      <c r="AV59" s="19"/>
-      <c r="AW59" s="19"/>
-      <c r="AX59" s="19"/>
-      <c r="AY59" s="19"/>
-      <c r="AZ59" s="19"/>
-      <c r="BA59" s="19"/>
-      <c r="BB59" s="19"/>
-      <c r="BC59" s="19"/>
-      <c r="BD59" s="19"/>
-      <c r="BE59" s="19"/>
-      <c r="BF59" s="19"/>
-      <c r="BG59" s="19"/>
-      <c r="BH59" s="19"/>
-      <c r="BI59" s="19"/>
-      <c r="BJ59" s="19"/>
-      <c r="BK59" s="19"/>
-      <c r="BL59" s="19"/>
-      <c r="BM59" s="19"/>
-      <c r="BN59" s="19"/>
-      <c r="BO59" s="19"/>
-      <c r="BP59" s="19"/>
-      <c r="BQ59" s="19"/>
-      <c r="BR59" s="19"/>
-      <c r="BS59" s="19"/>
-      <c r="BT59" s="19"/>
-      <c r="BU59" s="19"/>
-    </row>
-    <row r="60" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C60" s="90" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="91"/>
-      <c r="E60" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="34"/>
-      <c r="AC60" s="34"/>
-      <c r="AD60" s="34"/>
-      <c r="AE60" s="34"/>
-      <c r="AF60" s="34"/>
-      <c r="AG60" s="34"/>
-      <c r="AH60" s="34"/>
-      <c r="AI60" s="34"/>
-      <c r="AJ60" s="34"/>
-      <c r="AK60" s="34"/>
-      <c r="AL60" s="34"/>
-      <c r="AM60" s="34"/>
-      <c r="AN60" s="34"/>
-      <c r="AO60" s="34"/>
-      <c r="AP60" s="34"/>
-      <c r="AQ60" s="34"/>
-      <c r="AR60" s="34"/>
-      <c r="AS60" s="34"/>
-      <c r="AT60" s="34"/>
-      <c r="AU60" s="34"/>
-      <c r="AV60" s="34"/>
-      <c r="AW60" s="34"/>
-      <c r="AX60" s="34"/>
-      <c r="AY60" s="34"/>
-      <c r="AZ60" s="34"/>
-      <c r="BA60" s="34"/>
-      <c r="BB60" s="34"/>
-      <c r="BC60" s="34"/>
-      <c r="BD60" s="34"/>
-      <c r="BE60" s="33"/>
-      <c r="BF60" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG60" s="34"/>
-      <c r="BH60" s="34"/>
-      <c r="BI60" s="34"/>
-      <c r="BJ60" s="34"/>
-      <c r="BK60" s="34"/>
-      <c r="BL60" s="34"/>
-      <c r="BM60" s="34"/>
-      <c r="BN60" s="34"/>
-      <c r="BO60" s="34"/>
-      <c r="BP60" s="34"/>
-      <c r="BQ60" s="34"/>
-      <c r="BR60" s="34"/>
-      <c r="BS60" s="34"/>
-      <c r="BT60" s="34"/>
-      <c r="BU60" s="33"/>
-    </row>
-    <row r="61" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C61" s="92">
-        <f t="shared" ref="C61:C62" si="1">ROW()-ROW($C$60)</f>
-        <v>1</v>
-      </c>
-      <c r="D61" s="93"/>
-      <c r="E61" s="80" t="s">
+      <c r="AA79" s="113"/>
+      <c r="AB79" s="113"/>
+      <c r="AC79" s="113"/>
+      <c r="AD79" s="113"/>
+      <c r="AE79" s="113"/>
+      <c r="AF79" s="113"/>
+      <c r="AG79" s="113"/>
+      <c r="AH79" s="113"/>
+      <c r="AI79" s="113"/>
+      <c r="AJ79" s="113"/>
+      <c r="AK79" s="113"/>
+      <c r="AL79" s="113"/>
+      <c r="AM79" s="113"/>
+      <c r="AN79" s="113"/>
+      <c r="AO79" s="113"/>
+      <c r="AP79" s="113"/>
+      <c r="AQ79" s="113"/>
+      <c r="AR79" s="113"/>
+      <c r="AS79" s="113"/>
+      <c r="AT79" s="113"/>
+      <c r="AU79" s="113"/>
+      <c r="AV79" s="113"/>
+      <c r="AW79" s="113"/>
+      <c r="AX79" s="113"/>
+      <c r="AY79" s="113"/>
+      <c r="AZ79" s="113"/>
+      <c r="BA79" s="113"/>
+      <c r="BB79" s="113"/>
+      <c r="BC79" s="113"/>
+      <c r="BD79" s="113"/>
+      <c r="BE79" s="114"/>
+      <c r="BF79" s="38"/>
+      <c r="BG79" s="39"/>
+      <c r="BH79" s="39"/>
+      <c r="BI79" s="39"/>
+      <c r="BJ79" s="39"/>
+      <c r="BK79" s="39"/>
+      <c r="BL79" s="39"/>
+      <c r="BM79" s="39"/>
+      <c r="BN79" s="39"/>
+      <c r="BO79" s="39"/>
+      <c r="BP79" s="39"/>
+      <c r="BQ79" s="39"/>
+      <c r="BR79" s="39"/>
+      <c r="BS79" s="39"/>
+      <c r="BT79" s="39"/>
+      <c r="BU79" s="40"/>
+    </row>
+    <row r="80" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C80" s="110">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D80" s="111"/>
+      <c r="E80" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="81"/>
-      <c r="I61" s="81"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="81"/>
-      <c r="M61" s="81"/>
-      <c r="N61" s="81"/>
-      <c r="O61" s="81"/>
-      <c r="P61" s="81"/>
-      <c r="Q61" s="81"/>
-      <c r="R61" s="81"/>
-      <c r="S61" s="81"/>
-      <c r="T61" s="81"/>
-      <c r="U61" s="81"/>
-      <c r="V61" s="81"/>
-      <c r="W61" s="81"/>
-      <c r="X61" s="81"/>
-      <c r="Y61" s="82"/>
-      <c r="Z61" s="80" t="s">
+      <c r="F80" s="113"/>
+      <c r="G80" s="113"/>
+      <c r="H80" s="113"/>
+      <c r="I80" s="113"/>
+      <c r="J80" s="113"/>
+      <c r="K80" s="113"/>
+      <c r="L80" s="113"/>
+      <c r="M80" s="113"/>
+      <c r="N80" s="113"/>
+      <c r="O80" s="113"/>
+      <c r="P80" s="113"/>
+      <c r="Q80" s="113"/>
+      <c r="R80" s="113"/>
+      <c r="S80" s="113"/>
+      <c r="T80" s="113"/>
+      <c r="U80" s="113"/>
+      <c r="V80" s="113"/>
+      <c r="W80" s="113"/>
+      <c r="X80" s="113"/>
+      <c r="Y80" s="114"/>
+      <c r="Z80" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="AA61" s="81"/>
-      <c r="AB61" s="81"/>
-      <c r="AC61" s="81"/>
-      <c r="AD61" s="81"/>
-      <c r="AE61" s="81"/>
-      <c r="AF61" s="81"/>
-      <c r="AG61" s="81"/>
-      <c r="AH61" s="81"/>
-      <c r="AI61" s="81"/>
-      <c r="AJ61" s="81"/>
-      <c r="AK61" s="81"/>
-      <c r="AL61" s="81"/>
-      <c r="AM61" s="81"/>
-      <c r="AN61" s="81"/>
-      <c r="AO61" s="81"/>
-      <c r="AP61" s="81"/>
-      <c r="AQ61" s="81"/>
-      <c r="AR61" s="81"/>
-      <c r="AS61" s="81"/>
-      <c r="AT61" s="81"/>
-      <c r="AU61" s="81"/>
-      <c r="AV61" s="81"/>
-      <c r="AW61" s="81"/>
-      <c r="AX61" s="81"/>
-      <c r="AY61" s="81"/>
-      <c r="AZ61" s="81"/>
-      <c r="BA61" s="81"/>
-      <c r="BB61" s="81"/>
-      <c r="BC61" s="81"/>
-      <c r="BD61" s="81"/>
-      <c r="BE61" s="82"/>
-      <c r="BF61" s="38"/>
-      <c r="BG61" s="39"/>
-      <c r="BH61" s="39"/>
-      <c r="BI61" s="39"/>
-      <c r="BJ61" s="39"/>
-      <c r="BK61" s="39"/>
-      <c r="BL61" s="39"/>
-      <c r="BM61" s="39"/>
-      <c r="BN61" s="39"/>
-      <c r="BO61" s="39"/>
-      <c r="BP61" s="39"/>
-      <c r="BQ61" s="39"/>
-      <c r="BR61" s="39"/>
-      <c r="BS61" s="39"/>
-      <c r="BT61" s="39"/>
-      <c r="BU61" s="40"/>
-    </row>
-    <row r="62" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C62" s="92">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D62" s="93"/>
-      <c r="E62" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="81"/>
-      <c r="I62" s="81"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="81"/>
-      <c r="M62" s="81"/>
-      <c r="N62" s="81"/>
-      <c r="O62" s="81"/>
-      <c r="P62" s="81"/>
-      <c r="Q62" s="81"/>
-      <c r="R62" s="81"/>
-      <c r="S62" s="81"/>
-      <c r="T62" s="81"/>
-      <c r="U62" s="81"/>
-      <c r="V62" s="81"/>
-      <c r="W62" s="81"/>
-      <c r="X62" s="81"/>
-      <c r="Y62" s="82"/>
-      <c r="Z62" s="80" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA62" s="81"/>
-      <c r="AB62" s="81"/>
-      <c r="AC62" s="81"/>
-      <c r="AD62" s="81"/>
-      <c r="AE62" s="81"/>
-      <c r="AF62" s="81"/>
-      <c r="AG62" s="81"/>
-      <c r="AH62" s="81"/>
-      <c r="AI62" s="81"/>
-      <c r="AJ62" s="81"/>
-      <c r="AK62" s="81"/>
-      <c r="AL62" s="81"/>
-      <c r="AM62" s="81"/>
-      <c r="AN62" s="81"/>
-      <c r="AO62" s="81"/>
-      <c r="AP62" s="81"/>
-      <c r="AQ62" s="81"/>
-      <c r="AR62" s="81"/>
-      <c r="AS62" s="81"/>
-      <c r="AT62" s="81"/>
-      <c r="AU62" s="81"/>
-      <c r="AV62" s="81"/>
-      <c r="AW62" s="81"/>
-      <c r="AX62" s="81"/>
-      <c r="AY62" s="81"/>
-      <c r="AZ62" s="81"/>
-      <c r="BA62" s="81"/>
-      <c r="BB62" s="81"/>
-      <c r="BC62" s="81"/>
-      <c r="BD62" s="81"/>
-      <c r="BE62" s="82"/>
-      <c r="BF62" s="41"/>
-      <c r="BG62" s="42"/>
-      <c r="BH62" s="42"/>
-      <c r="BI62" s="42"/>
-      <c r="BJ62" s="42"/>
-      <c r="BK62" s="42"/>
-      <c r="BL62" s="42"/>
-      <c r="BM62" s="42"/>
-      <c r="BN62" s="42"/>
-      <c r="BO62" s="42"/>
-      <c r="BP62" s="42"/>
-      <c r="BQ62" s="42"/>
-      <c r="BR62" s="42"/>
-      <c r="BS62" s="42"/>
-      <c r="BT62" s="42"/>
-      <c r="BU62" s="43"/>
+      <c r="AA80" s="113"/>
+      <c r="AB80" s="113"/>
+      <c r="AC80" s="113"/>
+      <c r="AD80" s="113"/>
+      <c r="AE80" s="113"/>
+      <c r="AF80" s="113"/>
+      <c r="AG80" s="113"/>
+      <c r="AH80" s="113"/>
+      <c r="AI80" s="113"/>
+      <c r="AJ80" s="113"/>
+      <c r="AK80" s="113"/>
+      <c r="AL80" s="113"/>
+      <c r="AM80" s="113"/>
+      <c r="AN80" s="113"/>
+      <c r="AO80" s="113"/>
+      <c r="AP80" s="113"/>
+      <c r="AQ80" s="113"/>
+      <c r="AR80" s="113"/>
+      <c r="AS80" s="113"/>
+      <c r="AT80" s="113"/>
+      <c r="AU80" s="113"/>
+      <c r="AV80" s="113"/>
+      <c r="AW80" s="113"/>
+      <c r="AX80" s="113"/>
+      <c r="AY80" s="113"/>
+      <c r="AZ80" s="113"/>
+      <c r="BA80" s="113"/>
+      <c r="BB80" s="113"/>
+      <c r="BC80" s="113"/>
+      <c r="BD80" s="113"/>
+      <c r="BE80" s="114"/>
+      <c r="BF80" s="41"/>
+      <c r="BG80" s="42"/>
+      <c r="BH80" s="42"/>
+      <c r="BI80" s="42"/>
+      <c r="BJ80" s="42"/>
+      <c r="BK80" s="42"/>
+      <c r="BL80" s="42"/>
+      <c r="BM80" s="42"/>
+      <c r="BN80" s="42"/>
+      <c r="BO80" s="42"/>
+      <c r="BP80" s="42"/>
+      <c r="BQ80" s="42"/>
+      <c r="BR80" s="42"/>
+      <c r="BS80" s="42"/>
+      <c r="BT80" s="42"/>
+      <c r="BU80" s="43"/>
+    </row>
+    <row r="81" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C81" s="110">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D81" s="111"/>
+      <c r="E81" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="113"/>
+      <c r="G81" s="113"/>
+      <c r="H81" s="113"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="113"/>
+      <c r="K81" s="113"/>
+      <c r="L81" s="113"/>
+      <c r="M81" s="113"/>
+      <c r="N81" s="113"/>
+      <c r="O81" s="113"/>
+      <c r="P81" s="113"/>
+      <c r="Q81" s="113"/>
+      <c r="R81" s="113"/>
+      <c r="S81" s="113"/>
+      <c r="T81" s="113"/>
+      <c r="U81" s="113"/>
+      <c r="V81" s="113"/>
+      <c r="W81" s="113"/>
+      <c r="X81" s="113"/>
+      <c r="Y81" s="114"/>
+      <c r="Z81" s="112" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA81" s="113"/>
+      <c r="AB81" s="113"/>
+      <c r="AC81" s="113"/>
+      <c r="AD81" s="113"/>
+      <c r="AE81" s="113"/>
+      <c r="AF81" s="113"/>
+      <c r="AG81" s="113"/>
+      <c r="AH81" s="113"/>
+      <c r="AI81" s="113"/>
+      <c r="AJ81" s="113"/>
+      <c r="AK81" s="113"/>
+      <c r="AL81" s="113"/>
+      <c r="AM81" s="113"/>
+      <c r="AN81" s="113"/>
+      <c r="AO81" s="113"/>
+      <c r="AP81" s="113"/>
+      <c r="AQ81" s="113"/>
+      <c r="AR81" s="113"/>
+      <c r="AS81" s="113"/>
+      <c r="AT81" s="113"/>
+      <c r="AU81" s="113"/>
+      <c r="AV81" s="113"/>
+      <c r="AW81" s="113"/>
+      <c r="AX81" s="113"/>
+      <c r="AY81" s="113"/>
+      <c r="AZ81" s="113"/>
+      <c r="BA81" s="113"/>
+      <c r="BB81" s="113"/>
+      <c r="BC81" s="113"/>
+      <c r="BD81" s="113"/>
+      <c r="BE81" s="114"/>
+      <c r="BF81" s="72"/>
+      <c r="BG81" s="73"/>
+      <c r="BH81" s="73"/>
+      <c r="BI81" s="73"/>
+      <c r="BJ81" s="73"/>
+      <c r="BK81" s="73"/>
+      <c r="BL81" s="73"/>
+      <c r="BM81" s="73"/>
+      <c r="BN81" s="73"/>
+      <c r="BO81" s="73"/>
+      <c r="BP81" s="73"/>
+      <c r="BQ81" s="73"/>
+      <c r="BR81" s="73"/>
+      <c r="BS81" s="73"/>
+      <c r="BT81" s="73"/>
+      <c r="BU81" s="74"/>
+    </row>
+    <row r="82" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C82" s="110">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D82" s="111"/>
+      <c r="E82" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="113"/>
+      <c r="G82" s="113"/>
+      <c r="H82" s="113"/>
+      <c r="I82" s="113"/>
+      <c r="J82" s="113"/>
+      <c r="K82" s="113"/>
+      <c r="L82" s="113"/>
+      <c r="M82" s="113"/>
+      <c r="N82" s="113"/>
+      <c r="O82" s="113"/>
+      <c r="P82" s="113"/>
+      <c r="Q82" s="113"/>
+      <c r="R82" s="113"/>
+      <c r="S82" s="113"/>
+      <c r="T82" s="113"/>
+      <c r="U82" s="113"/>
+      <c r="V82" s="113"/>
+      <c r="W82" s="113"/>
+      <c r="X82" s="113"/>
+      <c r="Y82" s="114"/>
+      <c r="Z82" s="112" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA82" s="113"/>
+      <c r="AB82" s="113"/>
+      <c r="AC82" s="113"/>
+      <c r="AD82" s="113"/>
+      <c r="AE82" s="113"/>
+      <c r="AF82" s="113"/>
+      <c r="AG82" s="113"/>
+      <c r="AH82" s="113"/>
+      <c r="AI82" s="113"/>
+      <c r="AJ82" s="113"/>
+      <c r="AK82" s="113"/>
+      <c r="AL82" s="113"/>
+      <c r="AM82" s="113"/>
+      <c r="AN82" s="113"/>
+      <c r="AO82" s="113"/>
+      <c r="AP82" s="113"/>
+      <c r="AQ82" s="113"/>
+      <c r="AR82" s="113"/>
+      <c r="AS82" s="113"/>
+      <c r="AT82" s="113"/>
+      <c r="AU82" s="113"/>
+      <c r="AV82" s="113"/>
+      <c r="AW82" s="113"/>
+      <c r="AX82" s="113"/>
+      <c r="AY82" s="113"/>
+      <c r="AZ82" s="113"/>
+      <c r="BA82" s="113"/>
+      <c r="BB82" s="113"/>
+      <c r="BC82" s="113"/>
+      <c r="BD82" s="113"/>
+      <c r="BE82" s="114"/>
+      <c r="BF82" s="72"/>
+      <c r="BG82" s="73"/>
+      <c r="BH82" s="73"/>
+      <c r="BI82" s="73"/>
+      <c r="BJ82" s="73"/>
+      <c r="BK82" s="73"/>
+      <c r="BL82" s="73"/>
+      <c r="BM82" s="73"/>
+      <c r="BN82" s="73"/>
+      <c r="BO82" s="73"/>
+      <c r="BP82" s="73"/>
+      <c r="BQ82" s="73"/>
+      <c r="BR82" s="73"/>
+      <c r="BS82" s="73"/>
+      <c r="BT82" s="73"/>
+      <c r="BU82" s="74"/>
+    </row>
+    <row r="83" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C83" s="110">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D83" s="111"/>
+      <c r="E83" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="F83" s="113"/>
+      <c r="G83" s="113"/>
+      <c r="H83" s="113"/>
+      <c r="I83" s="113"/>
+      <c r="J83" s="113"/>
+      <c r="K83" s="113"/>
+      <c r="L83" s="113"/>
+      <c r="M83" s="113"/>
+      <c r="N83" s="113"/>
+      <c r="O83" s="113"/>
+      <c r="P83" s="113"/>
+      <c r="Q83" s="113"/>
+      <c r="R83" s="113"/>
+      <c r="S83" s="113"/>
+      <c r="T83" s="113"/>
+      <c r="U83" s="113"/>
+      <c r="V83" s="113"/>
+      <c r="W83" s="113"/>
+      <c r="X83" s="113"/>
+      <c r="Y83" s="114"/>
+      <c r="Z83" s="112" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA83" s="113"/>
+      <c r="AB83" s="113"/>
+      <c r="AC83" s="113"/>
+      <c r="AD83" s="113"/>
+      <c r="AE83" s="113"/>
+      <c r="AF83" s="113"/>
+      <c r="AG83" s="113"/>
+      <c r="AH83" s="113"/>
+      <c r="AI83" s="113"/>
+      <c r="AJ83" s="113"/>
+      <c r="AK83" s="113"/>
+      <c r="AL83" s="113"/>
+      <c r="AM83" s="113"/>
+      <c r="AN83" s="113"/>
+      <c r="AO83" s="113"/>
+      <c r="AP83" s="113"/>
+      <c r="AQ83" s="113"/>
+      <c r="AR83" s="113"/>
+      <c r="AS83" s="113"/>
+      <c r="AT83" s="113"/>
+      <c r="AU83" s="113"/>
+      <c r="AV83" s="113"/>
+      <c r="AW83" s="113"/>
+      <c r="AX83" s="113"/>
+      <c r="AY83" s="113"/>
+      <c r="AZ83" s="113"/>
+      <c r="BA83" s="113"/>
+      <c r="BB83" s="113"/>
+      <c r="BC83" s="113"/>
+      <c r="BD83" s="113"/>
+      <c r="BE83" s="114"/>
+      <c r="BF83" s="72"/>
+      <c r="BG83" s="73"/>
+      <c r="BH83" s="73"/>
+      <c r="BI83" s="73"/>
+      <c r="BJ83" s="73"/>
+      <c r="BK83" s="73"/>
+      <c r="BL83" s="73"/>
+      <c r="BM83" s="73"/>
+      <c r="BN83" s="73"/>
+      <c r="BO83" s="73"/>
+      <c r="BP83" s="73"/>
+      <c r="BQ83" s="73"/>
+      <c r="BR83" s="73"/>
+      <c r="BS83" s="73"/>
+      <c r="BT83" s="73"/>
+      <c r="BU83" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="75">
+  <mergeCells count="139">
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:Y82"/>
+    <mergeCell ref="Z82:BE82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:Y83"/>
+    <mergeCell ref="Z83:BE83"/>
+    <mergeCell ref="BF66:BU66"/>
+    <mergeCell ref="BF67:BU67"/>
+    <mergeCell ref="AT67:AW67"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:Y81"/>
+    <mergeCell ref="Z81:BE81"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="N67:AE67"/>
+    <mergeCell ref="AF67:AN67"/>
+    <mergeCell ref="AO67:AS67"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="BF65:BU65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="N66:AE66"/>
+    <mergeCell ref="AF66:AN66"/>
+    <mergeCell ref="AO66:AS66"/>
+    <mergeCell ref="AX66:BC66"/>
+    <mergeCell ref="BD66:BE66"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="N65:AE65"/>
+    <mergeCell ref="AF65:AN65"/>
+    <mergeCell ref="AO65:AS65"/>
+    <mergeCell ref="AT65:AW65"/>
+    <mergeCell ref="BF63:BU63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="N64:AE64"/>
+    <mergeCell ref="AF64:AN64"/>
+    <mergeCell ref="AO64:AS64"/>
+    <mergeCell ref="AT64:AW64"/>
+    <mergeCell ref="AX64:BC64"/>
+    <mergeCell ref="BD64:BE64"/>
+    <mergeCell ref="BF64:BU64"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:M63"/>
+    <mergeCell ref="N63:AE63"/>
+    <mergeCell ref="AF63:AN63"/>
+    <mergeCell ref="AO63:AS63"/>
+    <mergeCell ref="BF58:BU58"/>
+    <mergeCell ref="C61:D61"/>
     <mergeCell ref="C62:D62"/>
-    <mergeCell ref="E62:Y62"/>
-    <mergeCell ref="Z62:BE62"/>
-    <mergeCell ref="BF53:BU53"/>
-    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="N62:AE62"/>
+    <mergeCell ref="AF62:AN62"/>
+    <mergeCell ref="AO62:AS62"/>
+    <mergeCell ref="AT62:AW62"/>
+    <mergeCell ref="AX62:BC62"/>
+    <mergeCell ref="BD62:BE62"/>
+    <mergeCell ref="BF62:BU62"/>
+    <mergeCell ref="AX71:BC71"/>
+    <mergeCell ref="BD71:BE71"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AP30:AR30"/>
+    <mergeCell ref="AR26:AV26"/>
+    <mergeCell ref="AT63:AW63"/>
+    <mergeCell ref="AX63:BC63"/>
+    <mergeCell ref="BD63:BE63"/>
+    <mergeCell ref="AX65:BC65"/>
+    <mergeCell ref="BD65:BE65"/>
+    <mergeCell ref="AX67:BC67"/>
+    <mergeCell ref="BD67:BE67"/>
+    <mergeCell ref="BD73:BE73"/>
+    <mergeCell ref="BD72:BE72"/>
+    <mergeCell ref="N72:AE72"/>
+    <mergeCell ref="AF72:AN72"/>
+    <mergeCell ref="AO72:AS72"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="E52:M52"/>
+    <mergeCell ref="E72:M72"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E79:Y79"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="N73:AE73"/>
+    <mergeCell ref="N52:AE52"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C72:D72"/>
     <mergeCell ref="N57:AE57"/>
-    <mergeCell ref="AF57:AN57"/>
-    <mergeCell ref="AO57:AS57"/>
-    <mergeCell ref="AT57:AW57"/>
-    <mergeCell ref="AX57:BC57"/>
-    <mergeCell ref="BD57:BE57"/>
-    <mergeCell ref="BF57:BU57"/>
-    <mergeCell ref="AT55:AW55"/>
-    <mergeCell ref="AX55:BC55"/>
-    <mergeCell ref="BF55:BU55"/>
-    <mergeCell ref="BQ15:BS15"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="AD27:AH27"/>
-    <mergeCell ref="AK27:AO27"/>
-    <mergeCell ref="AF44:AN44"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="N47:AE47"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="N56:AE56"/>
-    <mergeCell ref="AF56:AN56"/>
-    <mergeCell ref="AO56:AS56"/>
-    <mergeCell ref="AT56:AW56"/>
-    <mergeCell ref="AX56:BC56"/>
-    <mergeCell ref="BD56:BE56"/>
-    <mergeCell ref="BF56:BU56"/>
-    <mergeCell ref="Z61:BE61"/>
-    <mergeCell ref="N46:AE46"/>
-    <mergeCell ref="AF46:AN46"/>
-    <mergeCell ref="AO46:AS46"/>
-    <mergeCell ref="BF46:BU46"/>
     <mergeCell ref="N53:AE53"/>
-    <mergeCell ref="AF53:AN53"/>
-    <mergeCell ref="AO53:AS53"/>
-    <mergeCell ref="AT53:AW53"/>
-    <mergeCell ref="BF54:BU54"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="E44:M44"/>
-    <mergeCell ref="E54:M54"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E61:Y61"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="N55:AE55"/>
-    <mergeCell ref="N44:AE44"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="N49:AE49"/>
-    <mergeCell ref="N45:AE45"/>
-    <mergeCell ref="AX54:BC54"/>
-    <mergeCell ref="AF55:AN55"/>
-    <mergeCell ref="AO55:AS55"/>
-    <mergeCell ref="BF44:BU44"/>
-    <mergeCell ref="BF45:BU45"/>
-    <mergeCell ref="BF49:BU49"/>
-    <mergeCell ref="AF45:AN45"/>
-    <mergeCell ref="AO45:AS45"/>
-    <mergeCell ref="BD55:BE55"/>
-    <mergeCell ref="BD54:BE54"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="N58:AE58"/>
+    <mergeCell ref="BD74:BE74"/>
+    <mergeCell ref="BF74:BU74"/>
+    <mergeCell ref="Z79:BE79"/>
     <mergeCell ref="N54:AE54"/>
     <mergeCell ref="AF54:AN54"/>
     <mergeCell ref="AO54:AS54"/>
-    <mergeCell ref="AX53:BC53"/>
-    <mergeCell ref="BD53:BE53"/>
-    <mergeCell ref="AT54:AW54"/>
+    <mergeCell ref="BF54:BU54"/>
+    <mergeCell ref="N71:AE71"/>
+    <mergeCell ref="AF71:AN71"/>
+    <mergeCell ref="AO71:AS71"/>
+    <mergeCell ref="AT71:AW71"/>
+    <mergeCell ref="BF72:BU72"/>
+    <mergeCell ref="AX72:BC72"/>
+    <mergeCell ref="AF73:AN73"/>
+    <mergeCell ref="AO73:AS73"/>
+    <mergeCell ref="BF57:BU57"/>
+    <mergeCell ref="N74:AE74"/>
+    <mergeCell ref="AF74:AN74"/>
+    <mergeCell ref="AO74:AS74"/>
+    <mergeCell ref="AT74:AW74"/>
+    <mergeCell ref="AX74:BC74"/>
+    <mergeCell ref="BQ15:BS15"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="AD26:AH26"/>
+    <mergeCell ref="AK26:AO26"/>
+    <mergeCell ref="AF52:AN52"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="N55:AE55"/>
+    <mergeCell ref="BF52:BU52"/>
+    <mergeCell ref="BF53:BU53"/>
+    <mergeCell ref="AF53:AN53"/>
+    <mergeCell ref="AO53:AS53"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="E80:Y80"/>
+    <mergeCell ref="Z80:BE80"/>
+    <mergeCell ref="BF71:BU71"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="N75:AE75"/>
+    <mergeCell ref="AF75:AN75"/>
+    <mergeCell ref="AO75:AS75"/>
+    <mergeCell ref="AT75:AW75"/>
+    <mergeCell ref="AX75:BC75"/>
+    <mergeCell ref="BD75:BE75"/>
+    <mergeCell ref="BF75:BU75"/>
+    <mergeCell ref="AT73:AW73"/>
+    <mergeCell ref="AX73:BC73"/>
+    <mergeCell ref="BF73:BU73"/>
+    <mergeCell ref="C74:D74"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="40" max="73" man="1"/>
-    <brk id="58" max="73" man="1"/>
+    <brk id="48" max="73" man="1"/>
+    <brk id="76" max="73" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
